--- a/Learning points/DSA by Shradha Didi & Aman Bhaiya.xlsx
+++ b/Learning points/DSA by Shradha Didi & Aman Bhaiya.xlsx
@@ -5,18 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://atos365-my.sharepoint.com/personal/abhishek_rahul_atos_net/Documents/Desktop/Personal/Abhishek/Interview/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://atos365-my.sharepoint.com/personal/abhishek_rahul_atos_net/Documents/Desktop/Personal/practice/DataStructure/Learning points/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="98" documentId="11_319F6724F4A80797160BB92F5748AA3D9301A713" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{358C805A-1CFB-4FA9-A3F2-99DF7F716840}"/>
+  <xr:revisionPtr revIDLastSave="99" documentId="11_319F6724F4A80797160BB92F5748AA3D9301A713" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{947F8834-375D-4590-A33A-0C6043EE0C16}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3140" yWindow="2840" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DSA in 2.5 Months" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
-    <sheet name="Bonus DSA Questions" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
+    <sheet name="Bonus DSA Questions" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="Z_073456FE_6F93_41B7_9813_B05BDB677D3C_.wvu.FilterData" localSheetId="0" hidden="1">'DSA in 2.5 Months'!$A$293:$C$332</definedName>
@@ -26,10 +25,10 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 4" guid="{0D4F5A3E-55C3-45B2-85B9-F04646450F16}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 2" guid="{078EB856-28A3-4E0F-870B-1503E5D4A2DC}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{8FAAF3BC-28CF-4FA5-81A5-3BB51C97B758}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 1" guid="{073456FE-6F93-41B7-9813-B05BDB677D3C}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{8FAAF3BC-28CF-4FA5-81A5-3BB51C97B758}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{078EB856-28A3-4E0F-870B-1503E5D4A2DC}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 4" guid="{0D4F5A3E-55C3-45B2-85B9-F04646450F16}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -46,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="471">
   <si>
     <t>DSA by Shradha Didi &amp; Aman Bhaiya</t>
   </si>
@@ -1475,48 +1474,6 @@
   </si>
   <si>
     <t>https://www.youtube.com/c/AnujBhaiya/playlists</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Experience </t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Duration</t>
-  </si>
-  <si>
-    <t>Abhishek Rahul</t>
-  </si>
-  <si>
-    <t>Soni Kumari</t>
-  </si>
-  <si>
-    <t>Accenture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clayfin </t>
-  </si>
-  <si>
-    <t>Nov 2016 - Mar 2018</t>
-  </si>
-  <si>
-    <t>July 2018 - Sep2022</t>
-  </si>
-  <si>
-    <t>Designation</t>
-  </si>
-  <si>
-    <t>Senior Software Engineer</t>
-  </si>
-  <si>
-    <t>Capegemini</t>
-  </si>
-  <si>
-    <t>CGI</t>
-  </si>
-  <si>
-    <t>Software Engineer</t>
   </si>
 </sst>
 </file>
@@ -1738,7 +1695,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1746,27 +1703,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1882,6 +1824,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1892,8 +1835,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2129,12 +2070,12 @@
     <col min="7" max="7" width="26.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -2159,12 +2100,12 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="41" t="s">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -2189,10 +2130,10 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -2217,10 +2158,10 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -2313,7 +2254,7 @@
       <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="43" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="2"/>
@@ -2340,14 +2281,14 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="40"/>
+      <c r="C8" s="41"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -2372,7 +2313,7 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
       <c r="D9" s="2"/>
@@ -2399,7 +2340,7 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -2427,7 +2368,7 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="9" t="s">
         <v>9</v>
       </c>
@@ -2463,7 +2404,7 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" s="10" t="s">
         <v>13</v>
       </c>
@@ -2495,7 +2436,7 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A13" s="10" t="s">
         <v>13</v>
       </c>
@@ -2527,7 +2468,7 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" s="10" t="s">
         <v>13</v>
       </c>
@@ -2563,7 +2504,7 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="10" t="s">
         <v>13</v>
       </c>
@@ -2595,7 +2536,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="10" t="s">
         <v>13</v>
       </c>
@@ -2629,7 +2570,7 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="10" t="s">
         <v>13</v>
       </c>
@@ -2661,7 +2602,7 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A18" s="16" t="s">
         <v>13</v>
       </c>
@@ -2695,7 +2636,7 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A19" s="16" t="s">
         <v>13</v>
       </c>
@@ -2726,7 +2667,7 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A20" s="16" t="s">
         <v>13</v>
       </c>
@@ -2759,7 +2700,7 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A21" s="16" t="s">
         <v>13</v>
       </c>
@@ -2790,7 +2731,7 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A22" s="16" t="s">
         <v>13</v>
       </c>
@@ -2824,7 +2765,7 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A23" s="16" t="s">
         <v>13</v>
       </c>
@@ -2858,7 +2799,7 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A24" s="16" t="s">
         <v>13</v>
       </c>
@@ -2890,7 +2831,7 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
-    <row r="25" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A25" s="16" t="s">
         <v>13</v>
       </c>
@@ -2922,7 +2863,7 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A26" s="16" t="s">
         <v>13</v>
       </c>
@@ -2956,7 +2897,7 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A27" s="16" t="s">
         <v>13</v>
       </c>
@@ -2988,7 +2929,7 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A28" s="16" t="s">
         <v>13</v>
       </c>
@@ -3022,7 +2963,7 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A29" s="16" t="s">
         <v>13</v>
       </c>
@@ -3056,7 +2997,7 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
-    <row r="30" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A30" s="16" t="s">
         <v>13</v>
       </c>
@@ -3088,7 +3029,7 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
     </row>
-    <row r="31" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A31" s="16" t="s">
         <v>13</v>
       </c>
@@ -3122,7 +3063,7 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
     </row>
-    <row r="32" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A32" s="16" t="s">
         <v>13</v>
       </c>
@@ -3154,7 +3095,7 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
     </row>
-    <row r="33" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A33" s="16" t="s">
         <v>13</v>
       </c>
@@ -3188,7 +3129,7 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
     </row>
-    <row r="34" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A34" s="16" t="s">
         <v>13</v>
       </c>
@@ -3220,7 +3161,7 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
     </row>
-    <row r="35" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A35" s="17" t="s">
         <v>13</v>
       </c>
@@ -3252,7 +3193,7 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
     </row>
-    <row r="36" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A36" s="17" t="s">
         <v>13</v>
       </c>
@@ -3284,7 +3225,7 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
     </row>
-    <row r="37" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A37" s="17" t="s">
         <v>13</v>
       </c>
@@ -3316,7 +3257,7 @@
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
     </row>
-    <row r="38" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A38" s="18"/>
       <c r="B38" s="19"/>
       <c r="C38" s="20"/>
@@ -3344,7 +3285,7 @@
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
     </row>
-    <row r="39" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A39" s="18"/>
       <c r="B39" s="19"/>
       <c r="C39" s="20"/>
@@ -3372,7 +3313,7 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
     </row>
-    <row r="40" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A40" s="5" t="s">
         <v>50</v>
       </c>
@@ -3404,7 +3345,7 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
     </row>
-    <row r="41" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A41" s="5" t="s">
         <v>50</v>
       </c>
@@ -3436,7 +3377,7 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
     </row>
-    <row r="42" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A42" s="5" t="s">
         <v>50</v>
       </c>
@@ -3472,7 +3413,7 @@
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
     </row>
-    <row r="43" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A43" s="5" t="s">
         <v>50</v>
       </c>
@@ -3504,7 +3445,7 @@
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
     </row>
-    <row r="44" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A44" s="5" t="s">
         <v>50</v>
       </c>
@@ -3538,7 +3479,7 @@
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
     </row>
-    <row r="45" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A45" s="5" t="s">
         <v>50</v>
       </c>
@@ -3570,7 +3511,7 @@
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
     </row>
-    <row r="46" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A46" s="5" t="s">
         <v>50</v>
       </c>
@@ -3604,7 +3545,7 @@
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
     </row>
-    <row r="47" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A47" s="7" t="s">
         <v>50</v>
       </c>
@@ -3638,7 +3579,7 @@
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
     </row>
-    <row r="48" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A48" s="7" t="s">
         <v>50</v>
       </c>
@@ -3670,7 +3611,7 @@
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
     </row>
-    <row r="49" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A49" s="7" t="s">
         <v>50</v>
       </c>
@@ -3704,7 +3645,7 @@
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
     </row>
-    <row r="50" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A50" s="7" t="s">
         <v>50</v>
       </c>
@@ -3738,7 +3679,7 @@
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
     </row>
-    <row r="51" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A51" s="7" t="s">
         <v>50</v>
       </c>
@@ -3772,7 +3713,7 @@
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
     </row>
-    <row r="52" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A52" s="7" t="s">
         <v>50</v>
       </c>
@@ -3804,7 +3745,7 @@
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
     </row>
-    <row r="53" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A53" s="7" t="s">
         <v>50</v>
       </c>
@@ -3838,7 +3779,7 @@
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
     </row>
-    <row r="54" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A54" s="7" t="s">
         <v>50</v>
       </c>
@@ -3872,7 +3813,7 @@
       <c r="Y54" s="2"/>
       <c r="Z54" s="2"/>
     </row>
-    <row r="55" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A55" s="7" t="s">
         <v>50</v>
       </c>
@@ -3906,7 +3847,7 @@
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
     </row>
-    <row r="56" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A56" s="7" t="s">
         <v>50</v>
       </c>
@@ -3940,7 +3881,7 @@
       <c r="Y56" s="2"/>
       <c r="Z56" s="2"/>
     </row>
-    <row r="57" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A57" s="7" t="s">
         <v>50</v>
       </c>
@@ -3972,7 +3913,7 @@
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
     </row>
-    <row r="58" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A58" s="7" t="s">
         <v>50</v>
       </c>
@@ -4004,7 +3945,7 @@
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
     </row>
-    <row r="59" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A59" s="8" t="s">
         <v>50</v>
       </c>
@@ -4036,7 +3977,7 @@
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
     </row>
-    <row r="60" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A60" s="8" t="s">
         <v>50</v>
       </c>
@@ -4068,7 +4009,7 @@
       <c r="Y60" s="2"/>
       <c r="Z60" s="2"/>
     </row>
-    <row r="61" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A61" s="8" t="s">
         <v>50</v>
       </c>
@@ -4102,7 +4043,7 @@
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
     </row>
-    <row r="62" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A62" s="18"/>
       <c r="B62" s="19"/>
       <c r="C62" s="20"/>
@@ -4130,7 +4071,7 @@
       <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
     </row>
-    <row r="63" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A63" s="18"/>
       <c r="B63" s="19"/>
       <c r="C63" s="20"/>
@@ -4158,7 +4099,7 @@
       <c r="Y63" s="2"/>
       <c r="Z63" s="2"/>
     </row>
-    <row r="64" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A64" s="7" t="s">
         <v>84</v>
       </c>
@@ -4190,7 +4131,7 @@
       <c r="Y64" s="2"/>
       <c r="Z64" s="2"/>
     </row>
-    <row r="65" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A65" s="7" t="s">
         <v>84</v>
       </c>
@@ -4222,7 +4163,7 @@
       <c r="Y65" s="2"/>
       <c r="Z65" s="2"/>
     </row>
-    <row r="66" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A66" s="7" t="s">
         <v>84</v>
       </c>
@@ -4256,7 +4197,7 @@
       <c r="Y66" s="2"/>
       <c r="Z66" s="2"/>
     </row>
-    <row r="67" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A67" s="7" t="s">
         <v>84</v>
       </c>
@@ -4288,7 +4229,7 @@
       <c r="Y67" s="2"/>
       <c r="Z67" s="2"/>
     </row>
-    <row r="68" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A68" s="7" t="s">
         <v>84</v>
       </c>
@@ -4322,7 +4263,7 @@
       <c r="Y68" s="2"/>
       <c r="Z68" s="2"/>
     </row>
-    <row r="69" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A69" s="7" t="s">
         <v>84</v>
       </c>
@@ -4358,7 +4299,7 @@
       <c r="Y69" s="2"/>
       <c r="Z69" s="2"/>
     </row>
-    <row r="70" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A70" s="7" t="s">
         <v>84</v>
       </c>
@@ -4390,7 +4331,7 @@
       <c r="Y70" s="2"/>
       <c r="Z70" s="2"/>
     </row>
-    <row r="71" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A71" s="7" t="s">
         <v>84</v>
       </c>
@@ -4422,7 +4363,7 @@
       <c r="Y71" s="2"/>
       <c r="Z71" s="2"/>
     </row>
-    <row r="72" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A72" s="7" t="s">
         <v>84</v>
       </c>
@@ -4454,7 +4395,7 @@
       <c r="Y72" s="2"/>
       <c r="Z72" s="2"/>
     </row>
-    <row r="73" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A73" s="8" t="s">
         <v>84</v>
       </c>
@@ -4486,7 +4427,7 @@
       <c r="Y73" s="2"/>
       <c r="Z73" s="2"/>
     </row>
-    <row r="74" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A74" s="23"/>
       <c r="B74" s="19"/>
       <c r="C74" s="20"/>
@@ -4514,7 +4455,7 @@
       <c r="Y74" s="2"/>
       <c r="Z74" s="2"/>
     </row>
-    <row r="75" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A75" s="23"/>
       <c r="B75" s="19"/>
       <c r="C75" s="20"/>
@@ -4542,7 +4483,7 @@
       <c r="Y75" s="2"/>
       <c r="Z75" s="2"/>
     </row>
-    <row r="76" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A76" s="24" t="s">
         <v>99</v>
       </c>
@@ -4574,7 +4515,7 @@
       <c r="Y76" s="2"/>
       <c r="Z76" s="2"/>
     </row>
-    <row r="77" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A77" s="24" t="s">
         <v>99</v>
       </c>
@@ -4606,7 +4547,7 @@
       <c r="Y77" s="2"/>
       <c r="Z77" s="2"/>
     </row>
-    <row r="78" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A78" s="24" t="s">
         <v>99</v>
       </c>
@@ -4638,7 +4579,7 @@
       <c r="Y78" s="2"/>
       <c r="Z78" s="2"/>
     </row>
-    <row r="79" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A79" s="24" t="s">
         <v>99</v>
       </c>
@@ -4670,7 +4611,7 @@
       <c r="Y79" s="2"/>
       <c r="Z79" s="2"/>
     </row>
-    <row r="80" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A80" s="24" t="s">
         <v>99</v>
       </c>
@@ -4702,7 +4643,7 @@
       <c r="Y80" s="2"/>
       <c r="Z80" s="2"/>
     </row>
-    <row r="81" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A81" s="24" t="s">
         <v>99</v>
       </c>
@@ -4734,7 +4675,7 @@
       <c r="Y81" s="2"/>
       <c r="Z81" s="2"/>
     </row>
-    <row r="82" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A82" s="26" t="s">
         <v>99</v>
       </c>
@@ -4766,7 +4707,7 @@
       <c r="Y82" s="2"/>
       <c r="Z82" s="2"/>
     </row>
-    <row r="83" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A83" s="26" t="s">
         <v>99</v>
       </c>
@@ -4798,7 +4739,7 @@
       <c r="Y83" s="2"/>
       <c r="Z83" s="2"/>
     </row>
-    <row r="84" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A84" s="26" t="s">
         <v>99</v>
       </c>
@@ -4829,7 +4770,7 @@
       <c r="Y84" s="2"/>
       <c r="Z84" s="2"/>
     </row>
-    <row r="85" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A85" s="26" t="s">
         <v>99</v>
       </c>
@@ -4860,7 +4801,7 @@
       <c r="Y85" s="2"/>
       <c r="Z85" s="2"/>
     </row>
-    <row r="86" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A86" s="26" t="s">
         <v>99</v>
       </c>
@@ -4892,7 +4833,7 @@
       <c r="Y86" s="2"/>
       <c r="Z86" s="2"/>
     </row>
-    <row r="87" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A87" s="26" t="s">
         <v>99</v>
       </c>
@@ -4924,7 +4865,7 @@
       <c r="Y87" s="2"/>
       <c r="Z87" s="2"/>
     </row>
-    <row r="88" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A88" s="26" t="s">
         <v>99</v>
       </c>
@@ -4956,7 +4897,7 @@
       <c r="Y88" s="2"/>
       <c r="Z88" s="2"/>
     </row>
-    <row r="89" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A89" s="26" t="s">
         <v>99</v>
       </c>
@@ -4988,7 +4929,7 @@
       <c r="Y89" s="2"/>
       <c r="Z89" s="2"/>
     </row>
-    <row r="90" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A90" s="26" t="s">
         <v>99</v>
       </c>
@@ -5020,7 +4961,7 @@
       <c r="Y90" s="2"/>
       <c r="Z90" s="2"/>
     </row>
-    <row r="91" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A91" s="26" t="s">
         <v>99</v>
       </c>
@@ -5052,7 +4993,7 @@
       <c r="Y91" s="2"/>
       <c r="Z91" s="2"/>
     </row>
-    <row r="92" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A92" s="28" t="s">
         <v>99</v>
       </c>
@@ -5084,7 +5025,7 @@
       <c r="Y92" s="2"/>
       <c r="Z92" s="2"/>
     </row>
-    <row r="93" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A93" s="28" t="s">
         <v>99</v>
       </c>
@@ -5116,7 +5057,7 @@
       <c r="Y93" s="2"/>
       <c r="Z93" s="2"/>
     </row>
-    <row r="94" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A94" s="28" t="s">
         <v>99</v>
       </c>
@@ -5148,7 +5089,7 @@
       <c r="Y94" s="2"/>
       <c r="Z94" s="2"/>
     </row>
-    <row r="95" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A95" s="28" t="s">
         <v>99</v>
       </c>
@@ -5180,7 +5121,7 @@
       <c r="Y95" s="2"/>
       <c r="Z95" s="2"/>
     </row>
-    <row r="96" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A96" s="28" t="s">
         <v>99</v>
       </c>
@@ -5212,7 +5153,7 @@
       <c r="Y96" s="2"/>
       <c r="Z96" s="2"/>
     </row>
-    <row r="97" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A97" s="28" t="s">
         <v>99</v>
       </c>
@@ -5244,7 +5185,7 @@
       <c r="Y97" s="2"/>
       <c r="Z97" s="2"/>
     </row>
-    <row r="98" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A98" s="28" t="s">
         <v>99</v>
       </c>
@@ -5276,7 +5217,7 @@
       <c r="Y98" s="2"/>
       <c r="Z98" s="2"/>
     </row>
-    <row r="99" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A99" s="23"/>
       <c r="B99" s="19"/>
       <c r="C99" s="20"/>
@@ -5304,7 +5245,7 @@
       <c r="Y99" s="2"/>
       <c r="Z99" s="2"/>
     </row>
-    <row r="100" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A100" s="23"/>
       <c r="B100" s="19"/>
       <c r="C100" s="20"/>
@@ -5332,7 +5273,7 @@
       <c r="Y100" s="2"/>
       <c r="Z100" s="2"/>
     </row>
-    <row r="101" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A101" s="7" t="s">
         <v>123</v>
       </c>
@@ -5364,7 +5305,7 @@
       <c r="Y101" s="2"/>
       <c r="Z101" s="2"/>
     </row>
-    <row r="102" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A102" s="7" t="s">
         <v>123</v>
       </c>
@@ -5396,7 +5337,7 @@
       <c r="Y102" s="2"/>
       <c r="Z102" s="2"/>
     </row>
-    <row r="103" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A103" s="7" t="s">
         <v>123</v>
       </c>
@@ -5428,7 +5369,7 @@
       <c r="Y103" s="2"/>
       <c r="Z103" s="2"/>
     </row>
-    <row r="104" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A104" s="7" t="s">
         <v>123</v>
       </c>
@@ -5460,7 +5401,7 @@
       <c r="Y104" s="2"/>
       <c r="Z104" s="2"/>
     </row>
-    <row r="105" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A105" s="7" t="s">
         <v>123</v>
       </c>
@@ -5492,7 +5433,7 @@
       <c r="Y105" s="2"/>
       <c r="Z105" s="2"/>
     </row>
-    <row r="106" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A106" s="7" t="s">
         <v>123</v>
       </c>
@@ -5524,7 +5465,7 @@
       <c r="Y106" s="2"/>
       <c r="Z106" s="2"/>
     </row>
-    <row r="107" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A107" s="7" t="s">
         <v>123</v>
       </c>
@@ -5556,7 +5497,7 @@
       <c r="Y107" s="2"/>
       <c r="Z107" s="2"/>
     </row>
-    <row r="108" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A108" s="7" t="s">
         <v>123</v>
       </c>
@@ -5588,7 +5529,7 @@
       <c r="Y108" s="2"/>
       <c r="Z108" s="2"/>
     </row>
-    <row r="109" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A109" s="8" t="s">
         <v>123</v>
       </c>
@@ -5619,7 +5560,7 @@
       <c r="Y109" s="2"/>
       <c r="Z109" s="2"/>
     </row>
-    <row r="110" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A110" s="8" t="s">
         <v>123</v>
       </c>
@@ -5650,7 +5591,7 @@
       <c r="Y110" s="2"/>
       <c r="Z110" s="2"/>
     </row>
-    <row r="111" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A111" s="8" t="s">
         <v>123</v>
       </c>
@@ -5681,7 +5622,7 @@
       <c r="Y111" s="2"/>
       <c r="Z111" s="2"/>
     </row>
-    <row r="112" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A112" s="8" t="s">
         <v>123</v>
       </c>
@@ -5712,7 +5653,7 @@
       <c r="Y112" s="2"/>
       <c r="Z112" s="2"/>
     </row>
-    <row r="113" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A113" s="8" t="s">
         <v>123</v>
       </c>
@@ -5743,7 +5684,7 @@
       <c r="Y113" s="2"/>
       <c r="Z113" s="2"/>
     </row>
-    <row r="114" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A114" s="8" t="s">
         <v>123</v>
       </c>
@@ -5774,7 +5715,7 @@
       <c r="Y114" s="2"/>
       <c r="Z114" s="2"/>
     </row>
-    <row r="115" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A115" s="8" t="s">
         <v>123</v>
       </c>
@@ -5806,7 +5747,7 @@
       <c r="Y115" s="2"/>
       <c r="Z115" s="2"/>
     </row>
-    <row r="116" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A116" s="8" t="s">
         <v>123</v>
       </c>
@@ -5838,7 +5779,7 @@
       <c r="Y116" s="2"/>
       <c r="Z116" s="2"/>
     </row>
-    <row r="117" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A117" s="8" t="s">
         <v>123</v>
       </c>
@@ -5870,7 +5811,7 @@
       <c r="Y117" s="2"/>
       <c r="Z117" s="2"/>
     </row>
-    <row r="118" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A118" s="8" t="s">
         <v>123</v>
       </c>
@@ -5902,7 +5843,7 @@
       <c r="Y118" s="2"/>
       <c r="Z118" s="2"/>
     </row>
-    <row r="119" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A119" s="8" t="s">
         <v>123</v>
       </c>
@@ -5932,7 +5873,7 @@
       <c r="Y119" s="2"/>
       <c r="Z119" s="2"/>
     </row>
-    <row r="120" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A120" s="8" t="s">
         <v>123</v>
       </c>
@@ -5962,7 +5903,7 @@
       <c r="Y120" s="2"/>
       <c r="Z120" s="2"/>
     </row>
-    <row r="121" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A121" s="8" t="s">
         <v>123</v>
       </c>
@@ -5992,7 +5933,7 @@
       <c r="Y121" s="2"/>
       <c r="Z121" s="2"/>
     </row>
-    <row r="122" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A122" s="23"/>
       <c r="B122" s="19"/>
       <c r="C122" s="20"/>
@@ -6059,7 +6000,7 @@
       <c r="C124" s="20">
         <v>27</v>
       </c>
-      <c r="D124" s="43" t="s">
+      <c r="D124" s="39" t="s">
         <v>469</v>
       </c>
       <c r="F124" s="2"/>
@@ -6116,7 +6057,7 @@
       <c r="Y125" s="2"/>
       <c r="Z125" s="2"/>
     </row>
-    <row r="126" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A126" s="5" t="s">
         <v>145</v>
       </c>
@@ -6148,7 +6089,7 @@
       <c r="Y126" s="2"/>
       <c r="Z126" s="2"/>
     </row>
-    <row r="127" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A127" s="5" t="s">
         <v>145</v>
       </c>
@@ -6180,7 +6121,7 @@
       <c r="Y127" s="2"/>
       <c r="Z127" s="2"/>
     </row>
-    <row r="128" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A128" s="5" t="s">
         <v>145</v>
       </c>
@@ -6244,7 +6185,7 @@
       <c r="Y129" s="2"/>
       <c r="Z129" s="2"/>
     </row>
-    <row r="130" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A130" s="5" t="s">
         <v>145</v>
       </c>
@@ -6276,7 +6217,7 @@
       <c r="Y130" s="2"/>
       <c r="Z130" s="2"/>
     </row>
-    <row r="131" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A131" s="7" t="s">
         <v>145</v>
       </c>
@@ -6308,7 +6249,7 @@
       <c r="Y131" s="2"/>
       <c r="Z131" s="2"/>
     </row>
-    <row r="132" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A132" s="7" t="s">
         <v>145</v>
       </c>
@@ -6340,7 +6281,7 @@
       <c r="Y132" s="2"/>
       <c r="Z132" s="2"/>
     </row>
-    <row r="133" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A133" s="7" t="s">
         <v>145</v>
       </c>
@@ -6372,7 +6313,7 @@
       <c r="Y133" s="2"/>
       <c r="Z133" s="2"/>
     </row>
-    <row r="134" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A134" s="7" t="s">
         <v>145</v>
       </c>
@@ -6404,7 +6345,7 @@
       <c r="Y134" s="2"/>
       <c r="Z134" s="2"/>
     </row>
-    <row r="135" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A135" s="7" t="s">
         <v>145</v>
       </c>
@@ -6438,7 +6379,7 @@
       <c r="Y135" s="2"/>
       <c r="Z135" s="2"/>
     </row>
-    <row r="136" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A136" s="7" t="s">
         <v>145</v>
       </c>
@@ -6472,7 +6413,7 @@
       <c r="Y136" s="2"/>
       <c r="Z136" s="2"/>
     </row>
-    <row r="137" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A137" s="7" t="s">
         <v>145</v>
       </c>
@@ -6506,7 +6447,7 @@
       <c r="Y137" s="2"/>
       <c r="Z137" s="2"/>
     </row>
-    <row r="138" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A138" s="7" t="s">
         <v>145</v>
       </c>
@@ -6540,7 +6481,7 @@
       <c r="Y138" s="2"/>
       <c r="Z138" s="2"/>
     </row>
-    <row r="139" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A139" s="7" t="s">
         <v>145</v>
       </c>
@@ -6574,7 +6515,7 @@
       <c r="Y139" s="2"/>
       <c r="Z139" s="2"/>
     </row>
-    <row r="140" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A140" s="7" t="s">
         <v>145</v>
       </c>
@@ -6608,7 +6549,7 @@
       <c r="Y140" s="2"/>
       <c r="Z140" s="2"/>
     </row>
-    <row r="141" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A141" s="7" t="s">
         <v>145</v>
       </c>
@@ -6642,7 +6583,7 @@
       <c r="Y141" s="2"/>
       <c r="Z141" s="2"/>
     </row>
-    <row r="142" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A142" s="7" t="s">
         <v>145</v>
       </c>
@@ -6676,7 +6617,7 @@
       <c r="Y142" s="2"/>
       <c r="Z142" s="2"/>
     </row>
-    <row r="143" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A143" s="8" t="s">
         <v>145</v>
       </c>
@@ -6782,7 +6723,7 @@
       <c r="Y145" s="2"/>
       <c r="Z145" s="2"/>
     </row>
-    <row r="146" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A146" s="8" t="s">
         <v>145</v>
       </c>
@@ -6816,7 +6757,7 @@
       <c r="Y146" s="2"/>
       <c r="Z146" s="2"/>
     </row>
-    <row r="147" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A147" s="8" t="s">
         <v>145</v>
       </c>
@@ -6850,7 +6791,7 @@
       <c r="Y147" s="2"/>
       <c r="Z147" s="2"/>
     </row>
-    <row r="148" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A148" s="8" t="s">
         <v>145</v>
       </c>
@@ -6884,7 +6825,7 @@
       <c r="Y148" s="2"/>
       <c r="Z148" s="2"/>
     </row>
-    <row r="149" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A149" s="8" t="s">
         <v>145</v>
       </c>
@@ -6918,7 +6859,7 @@
       <c r="Y149" s="2"/>
       <c r="Z149" s="2"/>
     </row>
-    <row r="150" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A150" s="23"/>
       <c r="B150" s="19"/>
       <c r="C150" s="20"/>
@@ -6946,7 +6887,7 @@
       <c r="Y150" s="2"/>
       <c r="Z150" s="2"/>
     </row>
-    <row r="151" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A151" s="23"/>
       <c r="B151" s="19"/>
       <c r="C151" s="20"/>
@@ -6974,7 +6915,7 @@
       <c r="Y151" s="2"/>
       <c r="Z151" s="2"/>
     </row>
-    <row r="152" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A152" s="5" t="s">
         <v>173</v>
       </c>
@@ -7006,7 +6947,7 @@
       <c r="Y152" s="2"/>
       <c r="Z152" s="2"/>
     </row>
-    <row r="153" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A153" s="5" t="s">
         <v>173</v>
       </c>
@@ -7038,7 +6979,7 @@
       <c r="Y153" s="2"/>
       <c r="Z153" s="2"/>
     </row>
-    <row r="154" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A154" s="5" t="s">
         <v>173</v>
       </c>
@@ -7070,7 +7011,7 @@
       <c r="Y154" s="2"/>
       <c r="Z154" s="2"/>
     </row>
-    <row r="155" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A155" s="5" t="s">
         <v>173</v>
       </c>
@@ -7102,7 +7043,7 @@
       <c r="Y155" s="2"/>
       <c r="Z155" s="2"/>
     </row>
-    <row r="156" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A156" s="5" t="s">
         <v>173</v>
       </c>
@@ -7134,7 +7075,7 @@
       <c r="Y156" s="2"/>
       <c r="Z156" s="2"/>
     </row>
-    <row r="157" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A157" s="5" t="s">
         <v>173</v>
       </c>
@@ -7166,7 +7107,7 @@
       <c r="Y157" s="2"/>
       <c r="Z157" s="2"/>
     </row>
-    <row r="158" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A158" s="7" t="s">
         <v>173</v>
       </c>
@@ -7198,7 +7139,7 @@
       <c r="Y158" s="2"/>
       <c r="Z158" s="2"/>
     </row>
-    <row r="159" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A159" s="7" t="s">
         <v>173</v>
       </c>
@@ -7230,7 +7171,7 @@
       <c r="Y159" s="2"/>
       <c r="Z159" s="2"/>
     </row>
-    <row r="160" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A160" s="7" t="s">
         <v>173</v>
       </c>
@@ -7262,7 +7203,7 @@
       <c r="Y160" s="2"/>
       <c r="Z160" s="2"/>
     </row>
-    <row r="161" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A161" s="7" t="s">
         <v>173</v>
       </c>
@@ -7292,7 +7233,7 @@
       <c r="Y161" s="2"/>
       <c r="Z161" s="2"/>
     </row>
-    <row r="162" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A162" s="7" t="s">
         <v>173</v>
       </c>
@@ -7322,7 +7263,7 @@
       <c r="Y162" s="2"/>
       <c r="Z162" s="2"/>
     </row>
-    <row r="163" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A163" s="7" t="s">
         <v>173</v>
       </c>
@@ -7352,7 +7293,7 @@
       <c r="Y163" s="2"/>
       <c r="Z163" s="2"/>
     </row>
-    <row r="164" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A164" s="7" t="s">
         <v>173</v>
       </c>
@@ -7382,7 +7323,7 @@
       <c r="Y164" s="2"/>
       <c r="Z164" s="2"/>
     </row>
-    <row r="165" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A165" s="7" t="s">
         <v>173</v>
       </c>
@@ -7412,7 +7353,7 @@
       <c r="Y165" s="2"/>
       <c r="Z165" s="2"/>
     </row>
-    <row r="166" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A166" s="7" t="s">
         <v>173</v>
       </c>
@@ -7442,7 +7383,7 @@
       <c r="Y166" s="2"/>
       <c r="Z166" s="2"/>
     </row>
-    <row r="167" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A167" s="7" t="s">
         <v>173</v>
       </c>
@@ -7472,7 +7413,7 @@
       <c r="Y167" s="2"/>
       <c r="Z167" s="2"/>
     </row>
-    <row r="168" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A168" s="7" t="s">
         <v>173</v>
       </c>
@@ -7502,7 +7443,7 @@
       <c r="Y168" s="2"/>
       <c r="Z168" s="2"/>
     </row>
-    <row r="169" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A169" s="7" t="s">
         <v>173</v>
       </c>
@@ -7532,7 +7473,7 @@
       <c r="Y169" s="2"/>
       <c r="Z169" s="2"/>
     </row>
-    <row r="170" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A170" s="7" t="s">
         <v>173</v>
       </c>
@@ -7562,7 +7503,7 @@
       <c r="Y170" s="2"/>
       <c r="Z170" s="2"/>
     </row>
-    <row r="171" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A171" s="7" t="s">
         <v>173</v>
       </c>
@@ -7592,7 +7533,7 @@
       <c r="Y171" s="2"/>
       <c r="Z171" s="2"/>
     </row>
-    <row r="172" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A172" s="7" t="s">
         <v>173</v>
       </c>
@@ -7622,7 +7563,7 @@
       <c r="Y172" s="2"/>
       <c r="Z172" s="2"/>
     </row>
-    <row r="173" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A173" s="8" t="s">
         <v>173</v>
       </c>
@@ -7652,7 +7593,7 @@
       <c r="Y173" s="2"/>
       <c r="Z173" s="2"/>
     </row>
-    <row r="174" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A174" s="8" t="s">
         <v>173</v>
       </c>
@@ -7682,7 +7623,7 @@
       <c r="Y174" s="2"/>
       <c r="Z174" s="2"/>
     </row>
-    <row r="175" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A175" s="8" t="s">
         <v>173</v>
       </c>
@@ -7712,7 +7653,7 @@
       <c r="Y175" s="2"/>
       <c r="Z175" s="2"/>
     </row>
-    <row r="176" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A176" s="8" t="s">
         <v>173</v>
       </c>
@@ -7742,7 +7683,7 @@
       <c r="Y176" s="2"/>
       <c r="Z176" s="2"/>
     </row>
-    <row r="177" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A177" s="8" t="s">
         <v>173</v>
       </c>
@@ -7774,7 +7715,7 @@
       <c r="Y177" s="2"/>
       <c r="Z177" s="2"/>
     </row>
-    <row r="178" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A178" s="8" t="s">
         <v>173</v>
       </c>
@@ -7806,7 +7747,7 @@
       <c r="Y178" s="2"/>
       <c r="Z178" s="2"/>
     </row>
-    <row r="179" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="C179" s="20"/>
       <c r="D179" s="33"/>
       <c r="E179" s="2"/>
@@ -7832,7 +7773,7 @@
       <c r="Y179" s="2"/>
       <c r="Z179" s="2"/>
     </row>
-    <row r="180" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A180" s="23"/>
       <c r="B180" s="19"/>
       <c r="C180" s="20"/>
@@ -7860,7 +7801,7 @@
       <c r="Y180" s="2"/>
       <c r="Z180" s="2"/>
     </row>
-    <row r="181" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A181" s="5" t="s">
         <v>201</v>
       </c>
@@ -7892,7 +7833,7 @@
       <c r="Y181" s="2"/>
       <c r="Z181" s="2"/>
     </row>
-    <row r="182" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A182" s="5" t="s">
         <v>201</v>
       </c>
@@ -7924,7 +7865,7 @@
       <c r="Y182" s="2"/>
       <c r="Z182" s="2"/>
     </row>
-    <row r="183" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A183" s="5" t="s">
         <v>201</v>
       </c>
@@ -7956,7 +7897,7 @@
       <c r="Y183" s="2"/>
       <c r="Z183" s="2"/>
     </row>
-    <row r="184" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A184" s="5" t="s">
         <v>201</v>
       </c>
@@ -7988,7 +7929,7 @@
       <c r="Y184" s="2"/>
       <c r="Z184" s="2"/>
     </row>
-    <row r="185" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A185" s="5" t="s">
         <v>201</v>
       </c>
@@ -8020,7 +7961,7 @@
       <c r="Y185" s="2"/>
       <c r="Z185" s="2"/>
     </row>
-    <row r="186" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A186" s="5" t="s">
         <v>201</v>
       </c>
@@ -8050,7 +7991,7 @@
       <c r="Y186" s="2"/>
       <c r="Z186" s="2"/>
     </row>
-    <row r="187" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A187" s="5" t="s">
         <v>201</v>
       </c>
@@ -8080,7 +8021,7 @@
       <c r="Y187" s="2"/>
       <c r="Z187" s="2"/>
     </row>
-    <row r="188" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A188" s="7" t="s">
         <v>201</v>
       </c>
@@ -8110,7 +8051,7 @@
       <c r="Y188" s="2"/>
       <c r="Z188" s="2"/>
     </row>
-    <row r="189" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A189" s="7" t="s">
         <v>201</v>
       </c>
@@ -8140,7 +8081,7 @@
       <c r="Y189" s="2"/>
       <c r="Z189" s="2"/>
     </row>
-    <row r="190" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A190" s="7" t="s">
         <v>201</v>
       </c>
@@ -8170,7 +8111,7 @@
       <c r="Y190" s="2"/>
       <c r="Z190" s="2"/>
     </row>
-    <row r="191" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A191" s="7" t="s">
         <v>201</v>
       </c>
@@ -8200,7 +8141,7 @@
       <c r="Y191" s="2"/>
       <c r="Z191" s="2"/>
     </row>
-    <row r="192" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A192" s="7" t="s">
         <v>201</v>
       </c>
@@ -8230,7 +8171,7 @@
       <c r="Y192" s="2"/>
       <c r="Z192" s="2"/>
     </row>
-    <row r="193" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A193" s="7" t="s">
         <v>201</v>
       </c>
@@ -8260,7 +8201,7 @@
       <c r="Y193" s="2"/>
       <c r="Z193" s="2"/>
     </row>
-    <row r="194" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A194" s="7" t="s">
         <v>201</v>
       </c>
@@ -8290,7 +8231,7 @@
       <c r="Y194" s="2"/>
       <c r="Z194" s="2"/>
     </row>
-    <row r="195" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A195" s="7" t="s">
         <v>201</v>
       </c>
@@ -8320,7 +8261,7 @@
       <c r="Y195" s="2"/>
       <c r="Z195" s="2"/>
     </row>
-    <row r="196" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A196" s="7" t="s">
         <v>201</v>
       </c>
@@ -8350,7 +8291,7 @@
       <c r="Y196" s="2"/>
       <c r="Z196" s="2"/>
     </row>
-    <row r="197" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A197" s="8" t="s">
         <v>201</v>
       </c>
@@ -8380,7 +8321,7 @@
       <c r="Y197" s="2"/>
       <c r="Z197" s="2"/>
     </row>
-    <row r="198" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A198" s="8" t="s">
         <v>201</v>
       </c>
@@ -8410,7 +8351,7 @@
       <c r="Y198" s="2"/>
       <c r="Z198" s="2"/>
     </row>
-    <row r="199" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A199" s="8" t="s">
         <v>201</v>
       </c>
@@ -8440,7 +8381,7 @@
       <c r="Y199" s="2"/>
       <c r="Z199" s="2"/>
     </row>
-    <row r="200" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A200" s="8" t="s">
         <v>201</v>
       </c>
@@ -8470,7 +8411,7 @@
       <c r="Y200" s="2"/>
       <c r="Z200" s="2"/>
     </row>
-    <row r="201" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A201" s="8" t="s">
         <v>201</v>
       </c>
@@ -8500,7 +8441,7 @@
       <c r="Y201" s="2"/>
       <c r="Z201" s="2"/>
     </row>
-    <row r="202" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A202" s="8" t="s">
         <v>201</v>
       </c>
@@ -8530,7 +8471,7 @@
       <c r="Y202" s="2"/>
       <c r="Z202" s="2"/>
     </row>
-    <row r="203" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A203" s="23"/>
       <c r="B203" s="19"/>
       <c r="C203" s="20"/>
@@ -8558,7 +8499,7 @@
       <c r="Y203" s="2"/>
       <c r="Z203" s="2"/>
     </row>
-    <row r="204" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A204" s="23"/>
       <c r="B204" s="19"/>
       <c r="C204" s="20"/>
@@ -8586,7 +8527,7 @@
       <c r="Y204" s="2"/>
       <c r="Z204" s="2"/>
     </row>
-    <row r="205" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A205" s="5" t="s">
         <v>224</v>
       </c>
@@ -8618,7 +8559,7 @@
       <c r="Y205" s="2"/>
       <c r="Z205" s="2"/>
     </row>
-    <row r="206" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A206" s="5" t="s">
         <v>224</v>
       </c>
@@ -8650,7 +8591,7 @@
       <c r="Y206" s="2"/>
       <c r="Z206" s="2"/>
     </row>
-    <row r="207" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A207" s="5" t="s">
         <v>224</v>
       </c>
@@ -8682,7 +8623,7 @@
       <c r="Y207" s="2"/>
       <c r="Z207" s="2"/>
     </row>
-    <row r="208" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A208" s="5" t="s">
         <v>224</v>
       </c>
@@ -8714,7 +8655,7 @@
       <c r="Y208" s="2"/>
       <c r="Z208" s="2"/>
     </row>
-    <row r="209" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A209" s="5" t="s">
         <v>224</v>
       </c>
@@ -8746,7 +8687,7 @@
       <c r="Y209" s="2"/>
       <c r="Z209" s="2"/>
     </row>
-    <row r="210" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A210" s="5" t="s">
         <v>224</v>
       </c>
@@ -8778,7 +8719,7 @@
       <c r="Y210" s="2"/>
       <c r="Z210" s="2"/>
     </row>
-    <row r="211" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A211" s="5" t="s">
         <v>224</v>
       </c>
@@ -8809,7 +8750,7 @@
       <c r="Y211" s="2"/>
       <c r="Z211" s="2"/>
     </row>
-    <row r="212" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A212" s="5" t="s">
         <v>224</v>
       </c>
@@ -8840,7 +8781,7 @@
       <c r="Y212" s="2"/>
       <c r="Z212" s="2"/>
     </row>
-    <row r="213" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A213" s="5" t="s">
         <v>224</v>
       </c>
@@ -8871,7 +8812,7 @@
       <c r="Y213" s="2"/>
       <c r="Z213" s="2"/>
     </row>
-    <row r="214" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A214" s="5" t="s">
         <v>224</v>
       </c>
@@ -8902,7 +8843,7 @@
       <c r="Y214" s="2"/>
       <c r="Z214" s="2"/>
     </row>
-    <row r="215" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A215" s="5" t="s">
         <v>224</v>
       </c>
@@ -8933,7 +8874,7 @@
       <c r="Y215" s="2"/>
       <c r="Z215" s="2"/>
     </row>
-    <row r="216" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A216" s="5" t="s">
         <v>224</v>
       </c>
@@ -8964,7 +8905,7 @@
       <c r="Y216" s="2"/>
       <c r="Z216" s="2"/>
     </row>
-    <row r="217" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A217" s="5" t="s">
         <v>224</v>
       </c>
@@ -8995,7 +8936,7 @@
       <c r="Y217" s="2"/>
       <c r="Z217" s="2"/>
     </row>
-    <row r="218" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A218" s="5" t="s">
         <v>224</v>
       </c>
@@ -9026,7 +8967,7 @@
       <c r="Y218" s="2"/>
       <c r="Z218" s="2"/>
     </row>
-    <row r="219" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A219" s="7" t="s">
         <v>224</v>
       </c>
@@ -9058,7 +8999,7 @@
       <c r="Y219" s="2"/>
       <c r="Z219" s="2"/>
     </row>
-    <row r="220" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A220" s="7" t="s">
         <v>224</v>
       </c>
@@ -9090,7 +9031,7 @@
       <c r="Y220" s="2"/>
       <c r="Z220" s="2"/>
     </row>
-    <row r="221" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A221" s="7" t="s">
         <v>224</v>
       </c>
@@ -9122,7 +9063,7 @@
       <c r="Y221" s="2"/>
       <c r="Z221" s="2"/>
     </row>
-    <row r="222" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A222" s="7" t="s">
         <v>224</v>
       </c>
@@ -9154,7 +9095,7 @@
       <c r="Y222" s="2"/>
       <c r="Z222" s="2"/>
     </row>
-    <row r="223" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A223" s="7" t="s">
         <v>224</v>
       </c>
@@ -9186,7 +9127,7 @@
       <c r="Y223" s="2"/>
       <c r="Z223" s="2"/>
     </row>
-    <row r="224" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A224" s="7" t="s">
         <v>224</v>
       </c>
@@ -9218,7 +9159,7 @@
       <c r="Y224" s="2"/>
       <c r="Z224" s="2"/>
     </row>
-    <row r="225" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A225" s="7" t="s">
         <v>224</v>
       </c>
@@ -9250,7 +9191,7 @@
       <c r="Y225" s="2"/>
       <c r="Z225" s="2"/>
     </row>
-    <row r="226" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A226" s="7" t="s">
         <v>224</v>
       </c>
@@ -9282,7 +9223,7 @@
       <c r="Y226" s="2"/>
       <c r="Z226" s="2"/>
     </row>
-    <row r="227" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A227" s="7" t="s">
         <v>224</v>
       </c>
@@ -9314,7 +9255,7 @@
       <c r="Y227" s="2"/>
       <c r="Z227" s="2"/>
     </row>
-    <row r="228" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A228" s="7" t="s">
         <v>224</v>
       </c>
@@ -9346,7 +9287,7 @@
       <c r="Y228" s="2"/>
       <c r="Z228" s="2"/>
     </row>
-    <row r="229" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A229" s="7" t="s">
         <v>224</v>
       </c>
@@ -9378,7 +9319,7 @@
       <c r="Y229" s="2"/>
       <c r="Z229" s="2"/>
     </row>
-    <row r="230" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A230" s="7" t="s">
         <v>224</v>
       </c>
@@ -9410,7 +9351,7 @@
       <c r="Y230" s="2"/>
       <c r="Z230" s="2"/>
     </row>
-    <row r="231" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A231" s="7" t="s">
         <v>224</v>
       </c>
@@ -9442,7 +9383,7 @@
       <c r="Y231" s="2"/>
       <c r="Z231" s="2"/>
     </row>
-    <row r="232" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A232" s="7" t="s">
         <v>224</v>
       </c>
@@ -9474,7 +9415,7 @@
       <c r="Y232" s="2"/>
       <c r="Z232" s="2"/>
     </row>
-    <row r="233" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A233" s="7" t="s">
         <v>224</v>
       </c>
@@ -9506,7 +9447,7 @@
       <c r="Y233" s="2"/>
       <c r="Z233" s="2"/>
     </row>
-    <row r="234" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A234" s="8" t="s">
         <v>224</v>
       </c>
@@ -9538,7 +9479,7 @@
       <c r="Y234" s="2"/>
       <c r="Z234" s="2"/>
     </row>
-    <row r="235" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A235" s="8" t="s">
         <v>224</v>
       </c>
@@ -9570,7 +9511,7 @@
       <c r="Y235" s="2"/>
       <c r="Z235" s="2"/>
     </row>
-    <row r="236" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A236" s="8" t="s">
         <v>224</v>
       </c>
@@ -9602,7 +9543,7 @@
       <c r="Y236" s="2"/>
       <c r="Z236" s="2"/>
     </row>
-    <row r="237" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A237" s="8" t="s">
         <v>224</v>
       </c>
@@ -9634,7 +9575,7 @@
       <c r="Y237" s="2"/>
       <c r="Z237" s="2"/>
     </row>
-    <row r="238" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A238" s="23"/>
       <c r="B238" s="19"/>
       <c r="C238" s="20"/>
@@ -9662,7 +9603,7 @@
       <c r="Y238" s="2"/>
       <c r="Z238" s="2"/>
     </row>
-    <row r="239" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A239" s="23"/>
       <c r="B239" s="19"/>
       <c r="C239" s="20"/>
@@ -9690,7 +9631,7 @@
       <c r="Y239" s="2"/>
       <c r="Z239" s="2"/>
     </row>
-    <row r="240" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A240" s="5" t="s">
         <v>258</v>
       </c>
@@ -9722,7 +9663,7 @@
       <c r="Y240" s="2"/>
       <c r="Z240" s="2"/>
     </row>
-    <row r="241" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A241" s="5" t="s">
         <v>258</v>
       </c>
@@ -9754,7 +9695,7 @@
       <c r="Y241" s="2"/>
       <c r="Z241" s="2"/>
     </row>
-    <row r="242" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A242" s="5" t="s">
         <v>258</v>
       </c>
@@ -9786,7 +9727,7 @@
       <c r="Y242" s="2"/>
       <c r="Z242" s="2"/>
     </row>
-    <row r="243" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A243" s="5" t="s">
         <v>258</v>
       </c>
@@ -9816,7 +9757,7 @@
       <c r="Y243" s="2"/>
       <c r="Z243" s="2"/>
     </row>
-    <row r="244" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A244" s="5" t="s">
         <v>258</v>
       </c>
@@ -9846,7 +9787,7 @@
       <c r="Y244" s="2"/>
       <c r="Z244" s="2"/>
     </row>
-    <row r="245" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A245" s="5" t="s">
         <v>258</v>
       </c>
@@ -9876,7 +9817,7 @@
       <c r="Y245" s="2"/>
       <c r="Z245" s="2"/>
     </row>
-    <row r="246" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A246" s="5" t="s">
         <v>258</v>
       </c>
@@ -9906,7 +9847,7 @@
       <c r="Y246" s="2"/>
       <c r="Z246" s="2"/>
     </row>
-    <row r="247" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A247" s="7" t="s">
         <v>258</v>
       </c>
@@ -9936,7 +9877,7 @@
       <c r="Y247" s="2"/>
       <c r="Z247" s="2"/>
     </row>
-    <row r="248" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A248" s="7" t="s">
         <v>258</v>
       </c>
@@ -9966,7 +9907,7 @@
       <c r="Y248" s="2"/>
       <c r="Z248" s="2"/>
     </row>
-    <row r="249" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A249" s="7" t="s">
         <v>258</v>
       </c>
@@ -9996,7 +9937,7 @@
       <c r="Y249" s="2"/>
       <c r="Z249" s="2"/>
     </row>
-    <row r="250" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A250" s="7" t="s">
         <v>258</v>
       </c>
@@ -10026,7 +9967,7 @@
       <c r="Y250" s="2"/>
       <c r="Z250" s="2"/>
     </row>
-    <row r="251" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A251" s="7" t="s">
         <v>258</v>
       </c>
@@ -10056,7 +9997,7 @@
       <c r="Y251" s="2"/>
       <c r="Z251" s="2"/>
     </row>
-    <row r="252" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A252" s="7" t="s">
         <v>258</v>
       </c>
@@ -10086,7 +10027,7 @@
       <c r="Y252" s="2"/>
       <c r="Z252" s="2"/>
     </row>
-    <row r="253" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A253" s="7" t="s">
         <v>258</v>
       </c>
@@ -10116,7 +10057,7 @@
       <c r="Y253" s="2"/>
       <c r="Z253" s="2"/>
     </row>
-    <row r="254" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A254" s="7" t="s">
         <v>258</v>
       </c>
@@ -10146,7 +10087,7 @@
       <c r="Y254" s="2"/>
       <c r="Z254" s="2"/>
     </row>
-    <row r="255" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A255" s="7" t="s">
         <v>258</v>
       </c>
@@ -10176,7 +10117,7 @@
       <c r="Y255" s="2"/>
       <c r="Z255" s="2"/>
     </row>
-    <row r="256" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A256" s="8" t="s">
         <v>258</v>
       </c>
@@ -10206,7 +10147,7 @@
       <c r="Y256" s="2"/>
       <c r="Z256" s="2"/>
     </row>
-    <row r="257" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A257" s="8" t="s">
         <v>258</v>
       </c>
@@ -10236,7 +10177,7 @@
       <c r="Y257" s="2"/>
       <c r="Z257" s="2"/>
     </row>
-    <row r="258" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A258" s="8" t="s">
         <v>258</v>
       </c>
@@ -10266,7 +10207,7 @@
       <c r="Y258" s="2"/>
       <c r="Z258" s="2"/>
     </row>
-    <row r="259" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A259" s="8" t="s">
         <v>258</v>
       </c>
@@ -10298,7 +10239,7 @@
       <c r="Y259" s="2"/>
       <c r="Z259" s="2"/>
     </row>
-    <row r="260" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A260" s="8" t="s">
         <v>258</v>
       </c>
@@ -10331,7 +10272,7 @@
       <c r="Y260" s="2"/>
       <c r="Z260" s="2"/>
     </row>
-    <row r="261" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A261" s="23"/>
       <c r="B261" s="19"/>
       <c r="C261" s="20"/>
@@ -10359,7 +10300,7 @@
       <c r="Y261" s="2"/>
       <c r="Z261" s="2"/>
     </row>
-    <row r="262" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A262" s="23"/>
       <c r="B262" s="19"/>
       <c r="C262" s="20"/>
@@ -10387,7 +10328,7 @@
       <c r="Y262" s="2"/>
       <c r="Z262" s="2"/>
     </row>
-    <row r="263" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A263" s="7" t="s">
         <v>280</v>
       </c>
@@ -10419,7 +10360,7 @@
       <c r="Y263" s="2"/>
       <c r="Z263" s="2"/>
     </row>
-    <row r="264" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A264" s="7" t="s">
         <v>280</v>
       </c>
@@ -10451,7 +10392,7 @@
       <c r="Y264" s="2"/>
       <c r="Z264" s="2"/>
     </row>
-    <row r="265" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A265" s="7" t="s">
         <v>280</v>
       </c>
@@ -10483,7 +10424,7 @@
       <c r="Y265" s="2"/>
       <c r="Z265" s="2"/>
     </row>
-    <row r="266" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A266" s="7" t="s">
         <v>280</v>
       </c>
@@ -10515,7 +10456,7 @@
       <c r="Y266" s="2"/>
       <c r="Z266" s="2"/>
     </row>
-    <row r="267" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A267" s="7" t="s">
         <v>280</v>
       </c>
@@ -10547,7 +10488,7 @@
       <c r="Y267" s="2"/>
       <c r="Z267" s="2"/>
     </row>
-    <row r="268" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A268" s="7" t="s">
         <v>280</v>
       </c>
@@ -10579,7 +10520,7 @@
       <c r="Y268" s="2"/>
       <c r="Z268" s="2"/>
     </row>
-    <row r="269" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A269" s="7" t="s">
         <v>280</v>
       </c>
@@ -10611,7 +10552,7 @@
       <c r="Y269" s="2"/>
       <c r="Z269" s="2"/>
     </row>
-    <row r="270" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A270" s="7" t="s">
         <v>280</v>
       </c>
@@ -10643,7 +10584,7 @@
       <c r="Y270" s="2"/>
       <c r="Z270" s="2"/>
     </row>
-    <row r="271" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A271" s="7" t="s">
         <v>280</v>
       </c>
@@ -10675,7 +10616,7 @@
       <c r="Y271" s="2"/>
       <c r="Z271" s="2"/>
     </row>
-    <row r="272" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A272" s="7" t="s">
         <v>280</v>
       </c>
@@ -10707,7 +10648,7 @@
       <c r="Y272" s="2"/>
       <c r="Z272" s="2"/>
     </row>
-    <row r="273" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A273" s="7" t="s">
         <v>280</v>
       </c>
@@ -10739,7 +10680,7 @@
       <c r="Y273" s="2"/>
       <c r="Z273" s="2"/>
     </row>
-    <row r="274" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A274" s="7" t="s">
         <v>280</v>
       </c>
@@ -10771,7 +10712,7 @@
       <c r="Y274" s="2"/>
       <c r="Z274" s="2"/>
     </row>
-    <row r="275" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A275" s="7" t="s">
         <v>280</v>
       </c>
@@ -10803,7 +10744,7 @@
       <c r="Y275" s="2"/>
       <c r="Z275" s="2"/>
     </row>
-    <row r="276" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A276" s="7" t="s">
         <v>280</v>
       </c>
@@ -10835,7 +10776,7 @@
       <c r="Y276" s="2"/>
       <c r="Z276" s="2"/>
     </row>
-    <row r="277" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A277" s="7" t="s">
         <v>280</v>
       </c>
@@ -10867,7 +10808,7 @@
       <c r="Y277" s="2"/>
       <c r="Z277" s="2"/>
     </row>
-    <row r="278" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A278" s="7" t="s">
         <v>280</v>
       </c>
@@ -10899,7 +10840,7 @@
       <c r="Y278" s="2"/>
       <c r="Z278" s="2"/>
     </row>
-    <row r="279" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A279" s="8" t="s">
         <v>280</v>
       </c>
@@ -10931,7 +10872,7 @@
       <c r="Y279" s="2"/>
       <c r="Z279" s="2"/>
     </row>
-    <row r="280" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A280" s="8" t="s">
         <v>280</v>
       </c>
@@ -10963,7 +10904,7 @@
       <c r="Y280" s="2"/>
       <c r="Z280" s="2"/>
     </row>
-    <row r="281" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A281" s="8" t="s">
         <v>280</v>
       </c>
@@ -10994,7 +10935,7 @@
       <c r="Y281" s="2"/>
       <c r="Z281" s="2"/>
     </row>
-    <row r="282" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A282" s="8" t="s">
         <v>280</v>
       </c>
@@ -11025,7 +10966,7 @@
       <c r="Y282" s="2"/>
       <c r="Z282" s="2"/>
     </row>
-    <row r="283" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A283" s="8" t="s">
         <v>280</v>
       </c>
@@ -11056,7 +10997,7 @@
       <c r="Y283" s="2"/>
       <c r="Z283" s="2"/>
     </row>
-    <row r="284" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A284" s="8" t="s">
         <v>280</v>
       </c>
@@ -11087,7 +11028,7 @@
       <c r="Y284" s="2"/>
       <c r="Z284" s="2"/>
     </row>
-    <row r="285" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A285" s="8" t="s">
         <v>280</v>
       </c>
@@ -11118,7 +11059,7 @@
       <c r="Y285" s="2"/>
       <c r="Z285" s="2"/>
     </row>
-    <row r="286" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A286" s="8" t="s">
         <v>280</v>
       </c>
@@ -11149,7 +11090,7 @@
       <c r="Y286" s="2"/>
       <c r="Z286" s="2"/>
     </row>
-    <row r="287" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A287" s="8" t="s">
         <v>280</v>
       </c>
@@ -11180,7 +11121,7 @@
       <c r="Y287" s="2"/>
       <c r="Z287" s="2"/>
     </row>
-    <row r="288" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A288" s="8" t="s">
         <v>280</v>
       </c>
@@ -11211,7 +11152,7 @@
       <c r="Y288" s="2"/>
       <c r="Z288" s="2"/>
     </row>
-    <row r="289" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A289" s="8" t="s">
         <v>280</v>
       </c>
@@ -11242,7 +11183,7 @@
       <c r="Y289" s="2"/>
       <c r="Z289" s="2"/>
     </row>
-    <row r="290" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A290" s="8" t="s">
         <v>280</v>
       </c>
@@ -11273,7 +11214,7 @@
       <c r="Y290" s="2"/>
       <c r="Z290" s="2"/>
     </row>
-    <row r="291" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A291" s="23"/>
       <c r="B291" s="19"/>
       <c r="C291" s="20"/>
@@ -11300,7 +11241,7 @@
       <c r="Y291" s="2"/>
       <c r="Z291" s="2"/>
     </row>
-    <row r="292" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A292" s="23"/>
       <c r="B292" s="19"/>
       <c r="C292" s="20"/>
@@ -11328,7 +11269,7 @@
       <c r="Y292" s="2"/>
       <c r="Z292" s="2"/>
     </row>
-    <row r="293" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A293" s="5" t="s">
         <v>309</v>
       </c>
@@ -11360,7 +11301,7 @@
       <c r="Y293" s="2"/>
       <c r="Z293" s="2"/>
     </row>
-    <row r="294" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A294" s="5" t="s">
         <v>309</v>
       </c>
@@ -11392,7 +11333,7 @@
       <c r="Y294" s="2"/>
       <c r="Z294" s="2"/>
     </row>
-    <row r="295" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A295" s="5" t="s">
         <v>309</v>
       </c>
@@ -11424,7 +11365,7 @@
       <c r="Y295" s="2"/>
       <c r="Z295" s="2"/>
     </row>
-    <row r="296" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A296" s="5" t="s">
         <v>309</v>
       </c>
@@ -11456,7 +11397,7 @@
       <c r="Y296" s="2"/>
       <c r="Z296" s="2"/>
     </row>
-    <row r="297" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A297" s="7" t="s">
         <v>309</v>
       </c>
@@ -11488,7 +11429,7 @@
       <c r="Y297" s="2"/>
       <c r="Z297" s="2"/>
     </row>
-    <row r="298" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A298" s="7" t="s">
         <v>309</v>
       </c>
@@ -11520,7 +11461,7 @@
       <c r="Y298" s="2"/>
       <c r="Z298" s="2"/>
     </row>
-    <row r="299" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A299" s="7" t="s">
         <v>309</v>
       </c>
@@ -11552,7 +11493,7 @@
       <c r="Y299" s="2"/>
       <c r="Z299" s="2"/>
     </row>
-    <row r="300" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A300" s="7" t="s">
         <v>309</v>
       </c>
@@ -11584,7 +11525,7 @@
       <c r="Y300" s="2"/>
       <c r="Z300" s="2"/>
     </row>
-    <row r="301" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A301" s="7" t="s">
         <v>309</v>
       </c>
@@ -11616,7 +11557,7 @@
       <c r="Y301" s="2"/>
       <c r="Z301" s="2"/>
     </row>
-    <row r="302" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A302" s="7" t="s">
         <v>309</v>
       </c>
@@ -11648,7 +11589,7 @@
       <c r="Y302" s="2"/>
       <c r="Z302" s="2"/>
     </row>
-    <row r="303" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A303" s="7" t="s">
         <v>309</v>
       </c>
@@ -11680,7 +11621,7 @@
       <c r="Y303" s="2"/>
       <c r="Z303" s="2"/>
     </row>
-    <row r="304" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A304" s="7" t="s">
         <v>309</v>
       </c>
@@ -11712,7 +11653,7 @@
       <c r="Y304" s="2"/>
       <c r="Z304" s="2"/>
     </row>
-    <row r="305" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A305" s="7" t="s">
         <v>309</v>
       </c>
@@ -11744,7 +11685,7 @@
       <c r="Y305" s="2"/>
       <c r="Z305" s="2"/>
     </row>
-    <row r="306" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A306" s="7" t="s">
         <v>309</v>
       </c>
@@ -11776,7 +11717,7 @@
       <c r="Y306" s="2"/>
       <c r="Z306" s="2"/>
     </row>
-    <row r="307" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A307" s="7" t="s">
         <v>309</v>
       </c>
@@ -11808,7 +11749,7 @@
       <c r="Y307" s="2"/>
       <c r="Z307" s="2"/>
     </row>
-    <row r="308" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A308" s="7" t="s">
         <v>309</v>
       </c>
@@ -11840,7 +11781,7 @@
       <c r="Y308" s="2"/>
       <c r="Z308" s="2"/>
     </row>
-    <row r="309" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A309" s="7" t="s">
         <v>309</v>
       </c>
@@ -11872,7 +11813,7 @@
       <c r="Y309" s="2"/>
       <c r="Z309" s="2"/>
     </row>
-    <row r="310" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A310" s="7" t="s">
         <v>309</v>
       </c>
@@ -11904,7 +11845,7 @@
       <c r="Y310" s="2"/>
       <c r="Z310" s="2"/>
     </row>
-    <row r="311" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A311" s="7" t="s">
         <v>309</v>
       </c>
@@ -11936,7 +11877,7 @@
       <c r="Y311" s="2"/>
       <c r="Z311" s="2"/>
     </row>
-    <row r="312" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A312" s="7" t="s">
         <v>309</v>
       </c>
@@ -11968,7 +11909,7 @@
       <c r="Y312" s="2"/>
       <c r="Z312" s="2"/>
     </row>
-    <row r="313" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A313" s="7" t="s">
         <v>309</v>
       </c>
@@ -12000,7 +11941,7 @@
       <c r="Y313" s="2"/>
       <c r="Z313" s="2"/>
     </row>
-    <row r="314" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A314" s="7" t="s">
         <v>309</v>
       </c>
@@ -12032,7 +11973,7 @@
       <c r="Y314" s="2"/>
       <c r="Z314" s="2"/>
     </row>
-    <row r="315" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A315" s="7" t="s">
         <v>309</v>
       </c>
@@ -12064,7 +12005,7 @@
       <c r="Y315" s="2"/>
       <c r="Z315" s="2"/>
     </row>
-    <row r="316" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A316" s="7" t="s">
         <v>309</v>
       </c>
@@ -12096,7 +12037,7 @@
       <c r="Y316" s="2"/>
       <c r="Z316" s="2"/>
     </row>
-    <row r="317" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A317" s="7" t="s">
         <v>309</v>
       </c>
@@ -12128,7 +12069,7 @@
       <c r="Y317" s="2"/>
       <c r="Z317" s="2"/>
     </row>
-    <row r="318" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A318" s="7" t="s">
         <v>309</v>
       </c>
@@ -12160,7 +12101,7 @@
       <c r="Y318" s="2"/>
       <c r="Z318" s="2"/>
     </row>
-    <row r="319" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A319" s="7" t="s">
         <v>309</v>
       </c>
@@ -12192,7 +12133,7 @@
       <c r="Y319" s="2"/>
       <c r="Z319" s="2"/>
     </row>
-    <row r="320" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A320" s="7" t="s">
         <v>309</v>
       </c>
@@ -12224,7 +12165,7 @@
       <c r="Y320" s="2"/>
       <c r="Z320" s="2"/>
     </row>
-    <row r="321" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A321" s="7" t="s">
         <v>309</v>
       </c>
@@ -12256,7 +12197,7 @@
       <c r="Y321" s="2"/>
       <c r="Z321" s="2"/>
     </row>
-    <row r="322" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A322" s="8" t="s">
         <v>309</v>
       </c>
@@ -12288,7 +12229,7 @@
       <c r="Y322" s="2"/>
       <c r="Z322" s="2"/>
     </row>
-    <row r="323" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A323" s="8" t="s">
         <v>309</v>
       </c>
@@ -12320,7 +12261,7 @@
       <c r="Y323" s="2"/>
       <c r="Z323" s="2"/>
     </row>
-    <row r="324" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A324" s="8" t="s">
         <v>309</v>
       </c>
@@ -12353,7 +12294,7 @@
       <c r="Y324" s="2"/>
       <c r="Z324" s="2"/>
     </row>
-    <row r="325" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A325" s="8" t="s">
         <v>309</v>
       </c>
@@ -12385,7 +12326,7 @@
       <c r="Y325" s="2"/>
       <c r="Z325" s="2"/>
     </row>
-    <row r="326" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A326" s="8" t="s">
         <v>309</v>
       </c>
@@ -12418,7 +12359,7 @@
       <c r="Y326" s="2"/>
       <c r="Z326" s="2"/>
     </row>
-    <row r="327" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A327" s="8" t="s">
         <v>309</v>
       </c>
@@ -12450,7 +12391,7 @@
       <c r="Y327" s="2"/>
       <c r="Z327" s="2"/>
     </row>
-    <row r="328" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A328" s="8" t="s">
         <v>309</v>
       </c>
@@ -12482,7 +12423,7 @@
       <c r="Y328" s="2"/>
       <c r="Z328" s="2"/>
     </row>
-    <row r="329" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A329" s="8" t="s">
         <v>309</v>
       </c>
@@ -12514,7 +12455,7 @@
       <c r="Y329" s="2"/>
       <c r="Z329" s="2"/>
     </row>
-    <row r="330" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A330" s="8" t="s">
         <v>309</v>
       </c>
@@ -12546,7 +12487,7 @@
       <c r="Y330" s="2"/>
       <c r="Z330" s="2"/>
     </row>
-    <row r="331" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A331" s="8" t="s">
         <v>309</v>
       </c>
@@ -12578,7 +12519,7 @@
       <c r="Y331" s="2"/>
       <c r="Z331" s="2"/>
     </row>
-    <row r="332" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A332" s="8" t="s">
         <v>309</v>
       </c>
@@ -12610,7 +12551,7 @@
       <c r="Y332" s="2"/>
       <c r="Z332" s="2"/>
     </row>
-    <row r="333" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A333" s="23"/>
       <c r="B333" s="19"/>
       <c r="C333" s="20"/>
@@ -12638,7 +12579,7 @@
       <c r="Y333" s="2"/>
       <c r="Z333" s="2"/>
     </row>
-    <row r="334" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A334" s="23"/>
       <c r="B334" s="19"/>
       <c r="C334" s="20"/>
@@ -12666,7 +12607,7 @@
       <c r="Y334" s="2"/>
       <c r="Z334" s="2"/>
     </row>
-    <row r="335" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A335" s="7" t="s">
         <v>349</v>
       </c>
@@ -12698,7 +12639,7 @@
       <c r="Y335" s="2"/>
       <c r="Z335" s="2"/>
     </row>
-    <row r="336" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A336" s="7" t="s">
         <v>349</v>
       </c>
@@ -12730,7 +12671,7 @@
       <c r="Y336" s="2"/>
       <c r="Z336" s="2"/>
     </row>
-    <row r="337" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A337" s="7" t="s">
         <v>349</v>
       </c>
@@ -12762,7 +12703,7 @@
       <c r="Y337" s="2"/>
       <c r="Z337" s="2"/>
     </row>
-    <row r="338" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A338" s="7" t="s">
         <v>349</v>
       </c>
@@ -12794,7 +12735,7 @@
       <c r="Y338" s="2"/>
       <c r="Z338" s="2"/>
     </row>
-    <row r="339" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A339" s="8" t="s">
         <v>349</v>
       </c>
@@ -12826,7 +12767,7 @@
       <c r="Y339" s="2"/>
       <c r="Z339" s="2"/>
     </row>
-    <row r="340" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A340" s="8" t="s">
         <v>349</v>
       </c>
@@ -12858,7 +12799,7 @@
       <c r="Y340" s="2"/>
       <c r="Z340" s="2"/>
     </row>
-    <row r="341" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A341" s="23"/>
       <c r="B341" s="19"/>
       <c r="C341" s="20"/>
@@ -12886,7 +12827,7 @@
       <c r="Y341" s="2"/>
       <c r="Z341" s="2"/>
     </row>
-    <row r="342" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A342" s="23"/>
       <c r="B342" s="19"/>
       <c r="C342" s="20"/>
@@ -12914,7 +12855,7 @@
       <c r="Y342" s="2"/>
       <c r="Z342" s="2"/>
     </row>
-    <row r="343" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A343" s="5" t="s">
         <v>356</v>
       </c>
@@ -12946,7 +12887,7 @@
       <c r="Y343" s="2"/>
       <c r="Z343" s="2"/>
     </row>
-    <row r="344" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A344" s="5" t="s">
         <v>356</v>
       </c>
@@ -12978,7 +12919,7 @@
       <c r="Y344" s="2"/>
       <c r="Z344" s="2"/>
     </row>
-    <row r="345" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A345" s="5" t="s">
         <v>356</v>
       </c>
@@ -13010,7 +12951,7 @@
       <c r="Y345" s="2"/>
       <c r="Z345" s="2"/>
     </row>
-    <row r="346" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A346" s="5" t="s">
         <v>356</v>
       </c>
@@ -13042,7 +12983,7 @@
       <c r="Y346" s="2"/>
       <c r="Z346" s="2"/>
     </row>
-    <row r="347" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A347" s="5" t="s">
         <v>356</v>
       </c>
@@ -13074,7 +13015,7 @@
       <c r="Y347" s="2"/>
       <c r="Z347" s="2"/>
     </row>
-    <row r="348" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A348" s="5" t="s">
         <v>356</v>
       </c>
@@ -13106,7 +13047,7 @@
       <c r="Y348" s="2"/>
       <c r="Z348" s="2"/>
     </row>
-    <row r="349" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A349" s="5" t="s">
         <v>356</v>
       </c>
@@ -13138,7 +13079,7 @@
       <c r="Y349" s="2"/>
       <c r="Z349" s="2"/>
     </row>
-    <row r="350" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A350" s="5" t="s">
         <v>356</v>
       </c>
@@ -13170,7 +13111,7 @@
       <c r="Y350" s="2"/>
       <c r="Z350" s="2"/>
     </row>
-    <row r="351" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A351" s="5" t="s">
         <v>356</v>
       </c>
@@ -13202,7 +13143,7 @@
       <c r="Y351" s="2"/>
       <c r="Z351" s="2"/>
     </row>
-    <row r="352" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A352" s="7" t="s">
         <v>356</v>
       </c>
@@ -13234,7 +13175,7 @@
       <c r="Y352" s="2"/>
       <c r="Z352" s="2"/>
     </row>
-    <row r="353" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A353" s="7" t="s">
         <v>356</v>
       </c>
@@ -13266,7 +13207,7 @@
       <c r="Y353" s="2"/>
       <c r="Z353" s="2"/>
     </row>
-    <row r="354" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A354" s="7" t="s">
         <v>356</v>
       </c>
@@ -13298,7 +13239,7 @@
       <c r="Y354" s="2"/>
       <c r="Z354" s="2"/>
     </row>
-    <row r="355" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A355" s="7" t="s">
         <v>356</v>
       </c>
@@ -13330,7 +13271,7 @@
       <c r="Y355" s="2"/>
       <c r="Z355" s="2"/>
     </row>
-    <row r="356" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A356" s="7" t="s">
         <v>356</v>
       </c>
@@ -13362,7 +13303,7 @@
       <c r="Y356" s="2"/>
       <c r="Z356" s="2"/>
     </row>
-    <row r="357" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A357" s="7" t="s">
         <v>356</v>
       </c>
@@ -13394,7 +13335,7 @@
       <c r="Y357" s="2"/>
       <c r="Z357" s="2"/>
     </row>
-    <row r="358" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A358" s="7" t="s">
         <v>356</v>
       </c>
@@ -13426,7 +13367,7 @@
       <c r="Y358" s="2"/>
       <c r="Z358" s="2"/>
     </row>
-    <row r="359" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A359" s="7" t="s">
         <v>356</v>
       </c>
@@ -13458,7 +13399,7 @@
       <c r="Y359" s="2"/>
       <c r="Z359" s="2"/>
     </row>
-    <row r="360" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A360" s="7" t="s">
         <v>356</v>
       </c>
@@ -13490,7 +13431,7 @@
       <c r="Y360" s="2"/>
       <c r="Z360" s="2"/>
     </row>
-    <row r="361" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A361" s="7" t="s">
         <v>356</v>
       </c>
@@ -13522,7 +13463,7 @@
       <c r="Y361" s="2"/>
       <c r="Z361" s="2"/>
     </row>
-    <row r="362" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A362" s="7" t="s">
         <v>356</v>
       </c>
@@ -13554,7 +13495,7 @@
       <c r="Y362" s="2"/>
       <c r="Z362" s="2"/>
     </row>
-    <row r="363" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A363" s="7" t="s">
         <v>356</v>
       </c>
@@ -13586,7 +13527,7 @@
       <c r="Y363" s="2"/>
       <c r="Z363" s="2"/>
     </row>
-    <row r="364" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A364" s="7" t="s">
         <v>356</v>
       </c>
@@ -13618,7 +13559,7 @@
       <c r="Y364" s="2"/>
       <c r="Z364" s="2"/>
     </row>
-    <row r="365" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A365" s="7" t="s">
         <v>356</v>
       </c>
@@ -13650,7 +13591,7 @@
       <c r="Y365" s="2"/>
       <c r="Z365" s="2"/>
     </row>
-    <row r="366" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A366" s="7" t="s">
         <v>356</v>
       </c>
@@ -13682,7 +13623,7 @@
       <c r="Y366" s="2"/>
       <c r="Z366" s="2"/>
     </row>
-    <row r="367" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A367" s="7" t="s">
         <v>356</v>
       </c>
@@ -13714,7 +13655,7 @@
       <c r="Y367" s="2"/>
       <c r="Z367" s="2"/>
     </row>
-    <row r="368" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A368" s="7" t="s">
         <v>356</v>
       </c>
@@ -13746,7 +13687,7 @@
       <c r="Y368" s="2"/>
       <c r="Z368" s="2"/>
     </row>
-    <row r="369" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A369" s="7" t="s">
         <v>356</v>
       </c>
@@ -13778,7 +13719,7 @@
       <c r="Y369" s="2"/>
       <c r="Z369" s="2"/>
     </row>
-    <row r="370" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A370" s="7" t="s">
         <v>356</v>
       </c>
@@ -13810,7 +13751,7 @@
       <c r="Y370" s="2"/>
       <c r="Z370" s="2"/>
     </row>
-    <row r="371" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A371" s="7" t="s">
         <v>356</v>
       </c>
@@ -13842,7 +13783,7 @@
       <c r="Y371" s="2"/>
       <c r="Z371" s="2"/>
     </row>
-    <row r="372" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A372" s="7" t="s">
         <v>356</v>
       </c>
@@ -13874,7 +13815,7 @@
       <c r="Y372" s="2"/>
       <c r="Z372" s="2"/>
     </row>
-    <row r="373" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A373" s="7" t="s">
         <v>356</v>
       </c>
@@ -13906,7 +13847,7 @@
       <c r="Y373" s="2"/>
       <c r="Z373" s="2"/>
     </row>
-    <row r="374" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A374" s="7" t="s">
         <v>356</v>
       </c>
@@ -13938,7 +13879,7 @@
       <c r="Y374" s="2"/>
       <c r="Z374" s="2"/>
     </row>
-    <row r="375" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A375" s="7" t="s">
         <v>356</v>
       </c>
@@ -13970,7 +13911,7 @@
       <c r="Y375" s="2"/>
       <c r="Z375" s="2"/>
     </row>
-    <row r="376" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A376" s="7" t="s">
         <v>356</v>
       </c>
@@ -14002,7 +13943,7 @@
       <c r="Y376" s="2"/>
       <c r="Z376" s="2"/>
     </row>
-    <row r="377" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A377" s="7" t="s">
         <v>356</v>
       </c>
@@ -14034,7 +13975,7 @@
       <c r="Y377" s="2"/>
       <c r="Z377" s="2"/>
     </row>
-    <row r="378" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A378" s="7" t="s">
         <v>356</v>
       </c>
@@ -14066,7 +14007,7 @@
       <c r="Y378" s="2"/>
       <c r="Z378" s="2"/>
     </row>
-    <row r="379" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A379" s="7" t="s">
         <v>356</v>
       </c>
@@ -14098,7 +14039,7 @@
       <c r="Y379" s="2"/>
       <c r="Z379" s="2"/>
     </row>
-    <row r="380" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A380" s="7" t="s">
         <v>356</v>
       </c>
@@ -14130,7 +14071,7 @@
       <c r="Y380" s="2"/>
       <c r="Z380" s="2"/>
     </row>
-    <row r="381" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A381" s="7" t="s">
         <v>356</v>
       </c>
@@ -14162,7 +14103,7 @@
       <c r="Y381" s="2"/>
       <c r="Z381" s="2"/>
     </row>
-    <row r="382" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A382" s="7" t="s">
         <v>356</v>
       </c>
@@ -14194,7 +14135,7 @@
       <c r="Y382" s="2"/>
       <c r="Z382" s="2"/>
     </row>
-    <row r="383" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A383" s="7" t="s">
         <v>356</v>
       </c>
@@ -14226,7 +14167,7 @@
       <c r="Y383" s="2"/>
       <c r="Z383" s="2"/>
     </row>
-    <row r="384" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A384" s="7" t="s">
         <v>356</v>
       </c>
@@ -14258,7 +14199,7 @@
       <c r="Y384" s="2"/>
       <c r="Z384" s="2"/>
     </row>
-    <row r="385" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A385" s="7" t="s">
         <v>356</v>
       </c>
@@ -14290,7 +14231,7 @@
       <c r="Y385" s="2"/>
       <c r="Z385" s="2"/>
     </row>
-    <row r="386" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A386" s="7" t="s">
         <v>356</v>
       </c>
@@ -14322,7 +14263,7 @@
       <c r="Y386" s="2"/>
       <c r="Z386" s="2"/>
     </row>
-    <row r="387" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A387" s="7" t="s">
         <v>356</v>
       </c>
@@ -14354,7 +14295,7 @@
       <c r="Y387" s="2"/>
       <c r="Z387" s="2"/>
     </row>
-    <row r="388" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A388" s="7" t="s">
         <v>356</v>
       </c>
@@ -14386,7 +14327,7 @@
       <c r="Y388" s="2"/>
       <c r="Z388" s="2"/>
     </row>
-    <row r="389" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A389" s="7" t="s">
         <v>356</v>
       </c>
@@ -14418,7 +14359,7 @@
       <c r="Y389" s="2"/>
       <c r="Z389" s="2"/>
     </row>
-    <row r="390" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A390" s="7" t="s">
         <v>356</v>
       </c>
@@ -14450,7 +14391,7 @@
       <c r="Y390" s="2"/>
       <c r="Z390" s="2"/>
     </row>
-    <row r="391" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A391" s="7" t="s">
         <v>356</v>
       </c>
@@ -14482,7 +14423,7 @@
       <c r="Y391" s="2"/>
       <c r="Z391" s="2"/>
     </row>
-    <row r="392" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A392" s="8" t="s">
         <v>356</v>
       </c>
@@ -14514,7 +14455,7 @@
       <c r="Y392" s="2"/>
       <c r="Z392" s="2"/>
     </row>
-    <row r="393" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A393" s="8" t="s">
         <v>356</v>
       </c>
@@ -14546,7 +14487,7 @@
       <c r="Y393" s="2"/>
       <c r="Z393" s="2"/>
     </row>
-    <row r="394" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A394" s="8" t="s">
         <v>356</v>
       </c>
@@ -14578,7 +14519,7 @@
       <c r="Y394" s="2"/>
       <c r="Z394" s="2"/>
     </row>
-    <row r="395" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A395" s="8" t="s">
         <v>356</v>
       </c>
@@ -14610,7 +14551,7 @@
       <c r="Y395" s="2"/>
       <c r="Z395" s="2"/>
     </row>
-    <row r="396" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A396" s="8" t="s">
         <v>356</v>
       </c>
@@ -14642,7 +14583,7 @@
       <c r="Y396" s="2"/>
       <c r="Z396" s="2"/>
     </row>
-    <row r="397" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="C397" s="20"/>
       <c r="D397" s="2"/>
       <c r="E397" s="33"/>
@@ -14668,7 +14609,7 @@
       <c r="Y397" s="2"/>
       <c r="Z397" s="2"/>
     </row>
-    <row r="398" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A398" s="23"/>
       <c r="B398" s="19"/>
       <c r="C398" s="20"/>
@@ -14696,7 +14637,7 @@
       <c r="Y398" s="2"/>
       <c r="Z398" s="2"/>
     </row>
-    <row r="399" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A399" s="5" t="s">
         <v>408</v>
       </c>
@@ -14726,7 +14667,7 @@
       <c r="Y399" s="2"/>
       <c r="Z399" s="2"/>
     </row>
-    <row r="400" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A400" s="5" t="s">
         <v>408</v>
       </c>
@@ -14756,7 +14697,7 @@
       <c r="Y400" s="2"/>
       <c r="Z400" s="2"/>
     </row>
-    <row r="401" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A401" s="5" t="s">
         <v>408</v>
       </c>
@@ -14786,7 +14727,7 @@
       <c r="Y401" s="2"/>
       <c r="Z401" s="2"/>
     </row>
-    <row r="402" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A402" s="5" t="s">
         <v>408</v>
       </c>
@@ -14816,7 +14757,7 @@
       <c r="Y402" s="2"/>
       <c r="Z402" s="2"/>
     </row>
-    <row r="403" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A403" s="5" t="s">
         <v>408</v>
       </c>
@@ -14846,7 +14787,7 @@
       <c r="Y403" s="2"/>
       <c r="Z403" s="2"/>
     </row>
-    <row r="404" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A404" s="7" t="s">
         <v>408</v>
       </c>
@@ -14876,7 +14817,7 @@
       <c r="Y404" s="2"/>
       <c r="Z404" s="2"/>
     </row>
-    <row r="405" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A405" s="7" t="s">
         <v>408</v>
       </c>
@@ -14906,7 +14847,7 @@
       <c r="Y405" s="2"/>
       <c r="Z405" s="2"/>
     </row>
-    <row r="406" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A406" s="7" t="s">
         <v>408</v>
       </c>
@@ -14936,7 +14877,7 @@
       <c r="Y406" s="2"/>
       <c r="Z406" s="2"/>
     </row>
-    <row r="407" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A407" s="7" t="s">
         <v>408</v>
       </c>
@@ -14966,7 +14907,7 @@
       <c r="Y407" s="2"/>
       <c r="Z407" s="2"/>
     </row>
-    <row r="408" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A408" s="7" t="s">
         <v>408</v>
       </c>
@@ -14996,7 +14937,7 @@
       <c r="Y408" s="2"/>
       <c r="Z408" s="2"/>
     </row>
-    <row r="409" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A409" s="23"/>
       <c r="B409" s="19"/>
       <c r="C409" s="20"/>
@@ -15022,7 +14963,7 @@
       <c r="Y409" s="2"/>
       <c r="Z409" s="2"/>
     </row>
-    <row r="410" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A410" s="23"/>
       <c r="B410" s="19"/>
       <c r="C410" s="20"/>
@@ -15048,7 +14989,7 @@
       <c r="Y410" s="2"/>
       <c r="Z410" s="2"/>
     </row>
-    <row r="411" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A411" s="7" t="s">
         <v>419</v>
       </c>
@@ -15078,7 +15019,7 @@
       <c r="Y411" s="2"/>
       <c r="Z411" s="2"/>
     </row>
-    <row r="412" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A412" s="7" t="s">
         <v>419</v>
       </c>
@@ -15110,7 +15051,7 @@
       <c r="Y412" s="2"/>
       <c r="Z412" s="2"/>
     </row>
-    <row r="413" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A413" s="7" t="s">
         <v>419</v>
       </c>
@@ -15140,7 +15081,7 @@
       <c r="Y413" s="2"/>
       <c r="Z413" s="2"/>
     </row>
-    <row r="414" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A414" s="8" t="s">
         <v>419</v>
       </c>
@@ -15170,7 +15111,7 @@
       <c r="Y414" s="2"/>
       <c r="Z414" s="2"/>
     </row>
-    <row r="415" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A415" s="8" t="s">
         <v>419</v>
       </c>
@@ -15202,7 +15143,7 @@
       <c r="Y415" s="2"/>
       <c r="Z415" s="2"/>
     </row>
-    <row r="416" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A416" s="8" t="s">
         <v>419</v>
       </c>
@@ -15234,7 +15175,7 @@
       <c r="Y416" s="2"/>
       <c r="Z416" s="2"/>
     </row>
-    <row r="417" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A417" s="18"/>
       <c r="B417" s="19"/>
       <c r="C417" s="20"/>
@@ -15262,7 +15203,7 @@
       <c r="Y417" s="2"/>
       <c r="Z417" s="2"/>
     </row>
-    <row r="418" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A418" s="18"/>
       <c r="B418" s="19"/>
       <c r="C418" s="20"/>
@@ -15290,7 +15231,7 @@
       <c r="Y418" s="2"/>
       <c r="Z418" s="2"/>
     </row>
-    <row r="419" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A419" s="18"/>
       <c r="B419" s="19"/>
       <c r="C419" s="20"/>
@@ -15318,7 +15259,7 @@
       <c r="Y419" s="2"/>
       <c r="Z419" s="2"/>
     </row>
-    <row r="420" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A420" s="18"/>
       <c r="B420" s="19"/>
       <c r="C420" s="20"/>
@@ -15346,7 +15287,7 @@
       <c r="Y420" s="2"/>
       <c r="Z420" s="2"/>
     </row>
-    <row r="421" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A421" s="18"/>
       <c r="B421" s="19"/>
       <c r="C421" s="20"/>
@@ -15374,7 +15315,7 @@
       <c r="Y421" s="2"/>
       <c r="Z421" s="2"/>
     </row>
-    <row r="422" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A422" s="18"/>
       <c r="B422" s="19"/>
       <c r="C422" s="20"/>
@@ -15402,7 +15343,7 @@
       <c r="Y422" s="2"/>
       <c r="Z422" s="2"/>
     </row>
-    <row r="423" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A423" s="18"/>
       <c r="B423" s="19"/>
       <c r="C423" s="20"/>
@@ -15430,7 +15371,7 @@
       <c r="Y423" s="2"/>
       <c r="Z423" s="2"/>
     </row>
-    <row r="424" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A424" s="18"/>
       <c r="B424" s="19"/>
       <c r="C424" s="20"/>
@@ -15458,7 +15399,7 @@
       <c r="Y424" s="2"/>
       <c r="Z424" s="2"/>
     </row>
-    <row r="425" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A425" s="18"/>
       <c r="B425" s="19"/>
       <c r="C425" s="20"/>
@@ -15486,7 +15427,7 @@
       <c r="Y425" s="2"/>
       <c r="Z425" s="2"/>
     </row>
-    <row r="426" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A426" s="18"/>
       <c r="B426" s="19"/>
       <c r="C426" s="20"/>
@@ -15514,7 +15455,7 @@
       <c r="Y426" s="2"/>
       <c r="Z426" s="2"/>
     </row>
-    <row r="427" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A427" s="18"/>
       <c r="B427" s="19"/>
       <c r="C427" s="20"/>
@@ -15542,7 +15483,7 @@
       <c r="Y427" s="2"/>
       <c r="Z427" s="2"/>
     </row>
-    <row r="428" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A428" s="18"/>
       <c r="B428" s="19"/>
       <c r="C428" s="20"/>
@@ -15570,7 +15511,7 @@
       <c r="Y428" s="2"/>
       <c r="Z428" s="2"/>
     </row>
-    <row r="429" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A429" s="18"/>
       <c r="B429" s="19"/>
       <c r="C429" s="20"/>
@@ -15598,7 +15539,7 @@
       <c r="Y429" s="2"/>
       <c r="Z429" s="2"/>
     </row>
-    <row r="430" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A430" s="18"/>
       <c r="B430" s="19"/>
       <c r="C430" s="20"/>
@@ -15626,7 +15567,7 @@
       <c r="Y430" s="2"/>
       <c r="Z430" s="2"/>
     </row>
-    <row r="431" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A431" s="18"/>
       <c r="B431" s="19"/>
       <c r="C431" s="20"/>
@@ -15654,7 +15595,7 @@
       <c r="Y431" s="2"/>
       <c r="Z431" s="2"/>
     </row>
-    <row r="432" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A432" s="18"/>
       <c r="B432" s="19"/>
       <c r="C432" s="20"/>
@@ -15682,7 +15623,7 @@
       <c r="Y432" s="2"/>
       <c r="Z432" s="2"/>
     </row>
-    <row r="433" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A433" s="18"/>
       <c r="B433" s="19"/>
       <c r="C433" s="20"/>
@@ -15710,7 +15651,7 @@
       <c r="Y433" s="2"/>
       <c r="Z433" s="2"/>
     </row>
-    <row r="434" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A434" s="18"/>
       <c r="B434" s="19"/>
       <c r="C434" s="20"/>
@@ -15738,7 +15679,7 @@
       <c r="Y434" s="2"/>
       <c r="Z434" s="2"/>
     </row>
-    <row r="435" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A435" s="18"/>
       <c r="B435" s="19"/>
       <c r="C435" s="20"/>
@@ -15766,7 +15707,7 @@
       <c r="Y435" s="2"/>
       <c r="Z435" s="2"/>
     </row>
-    <row r="436" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A436" s="18"/>
       <c r="B436" s="19"/>
       <c r="C436" s="20"/>
@@ -15794,7 +15735,7 @@
       <c r="Y436" s="2"/>
       <c r="Z436" s="2"/>
     </row>
-    <row r="437" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A437" s="18"/>
       <c r="B437" s="19"/>
       <c r="C437" s="20"/>
@@ -15822,7 +15763,7 @@
       <c r="Y437" s="2"/>
       <c r="Z437" s="2"/>
     </row>
-    <row r="438" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A438" s="18"/>
       <c r="B438" s="19"/>
       <c r="C438" s="20"/>
@@ -15850,7 +15791,7 @@
       <c r="Y438" s="2"/>
       <c r="Z438" s="2"/>
     </row>
-    <row r="439" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A439" s="18"/>
       <c r="B439" s="19"/>
       <c r="C439" s="20"/>
@@ -15878,7 +15819,7 @@
       <c r="Y439" s="2"/>
       <c r="Z439" s="2"/>
     </row>
-    <row r="440" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A440" s="18"/>
       <c r="B440" s="19"/>
       <c r="C440" s="20"/>
@@ -15906,7 +15847,7 @@
       <c r="Y440" s="2"/>
       <c r="Z440" s="2"/>
     </row>
-    <row r="441" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A441" s="18"/>
       <c r="B441" s="19"/>
       <c r="C441" s="20"/>
@@ -15934,7 +15875,7 @@
       <c r="Y441" s="2"/>
       <c r="Z441" s="2"/>
     </row>
-    <row r="442" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A442" s="18"/>
       <c r="B442" s="19"/>
       <c r="C442" s="20"/>
@@ -15962,7 +15903,7 @@
       <c r="Y442" s="2"/>
       <c r="Z442" s="2"/>
     </row>
-    <row r="443" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A443" s="18"/>
       <c r="B443" s="19"/>
       <c r="C443" s="20"/>
@@ -15990,7 +15931,7 @@
       <c r="Y443" s="2"/>
       <c r="Z443" s="2"/>
     </row>
-    <row r="444" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A444" s="18"/>
       <c r="B444" s="19"/>
       <c r="C444" s="20"/>
@@ -16018,7 +15959,7 @@
       <c r="Y444" s="2"/>
       <c r="Z444" s="2"/>
     </row>
-    <row r="445" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A445" s="18"/>
       <c r="B445" s="19"/>
       <c r="C445" s="20"/>
@@ -16046,7 +15987,7 @@
       <c r="Y445" s="2"/>
       <c r="Z445" s="2"/>
     </row>
-    <row r="446" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A446" s="18"/>
       <c r="B446" s="19"/>
       <c r="C446" s="20"/>
@@ -16074,7 +16015,7 @@
       <c r="Y446" s="2"/>
       <c r="Z446" s="2"/>
     </row>
-    <row r="447" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A447" s="18"/>
       <c r="B447" s="19"/>
       <c r="C447" s="20"/>
@@ -16102,7 +16043,7 @@
       <c r="Y447" s="2"/>
       <c r="Z447" s="2"/>
     </row>
-    <row r="448" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A448" s="18"/>
       <c r="B448" s="19"/>
       <c r="C448" s="20"/>
@@ -16130,7 +16071,7 @@
       <c r="Y448" s="2"/>
       <c r="Z448" s="2"/>
     </row>
-    <row r="449" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A449" s="18"/>
       <c r="B449" s="19"/>
       <c r="C449" s="20"/>
@@ -16158,7 +16099,7 @@
       <c r="Y449" s="2"/>
       <c r="Z449" s="2"/>
     </row>
-    <row r="450" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A450" s="18"/>
       <c r="B450" s="19"/>
       <c r="C450" s="20"/>
@@ -16186,7 +16127,7 @@
       <c r="Y450" s="2"/>
       <c r="Z450" s="2"/>
     </row>
-    <row r="451" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A451" s="18"/>
       <c r="B451" s="19"/>
       <c r="C451" s="20"/>
@@ -16214,7 +16155,7 @@
       <c r="Y451" s="2"/>
       <c r="Z451" s="2"/>
     </row>
-    <row r="452" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A452" s="18"/>
       <c r="B452" s="19"/>
       <c r="C452" s="20"/>
@@ -16242,7 +16183,7 @@
       <c r="Y452" s="2"/>
       <c r="Z452" s="2"/>
     </row>
-    <row r="453" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A453" s="18"/>
       <c r="B453" s="19"/>
       <c r="C453" s="20"/>
@@ -16270,7 +16211,7 @@
       <c r="Y453" s="2"/>
       <c r="Z453" s="2"/>
     </row>
-    <row r="454" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A454" s="18"/>
       <c r="B454" s="19"/>
       <c r="C454" s="20"/>
@@ -16298,7 +16239,7 @@
       <c r="Y454" s="2"/>
       <c r="Z454" s="2"/>
     </row>
-    <row r="455" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A455" s="18"/>
       <c r="B455" s="19"/>
       <c r="C455" s="20"/>
@@ -16326,7 +16267,7 @@
       <c r="Y455" s="2"/>
       <c r="Z455" s="2"/>
     </row>
-    <row r="456" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A456" s="18"/>
       <c r="B456" s="19"/>
       <c r="C456" s="20"/>
@@ -16354,7 +16295,7 @@
       <c r="Y456" s="2"/>
       <c r="Z456" s="2"/>
     </row>
-    <row r="457" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A457" s="18"/>
       <c r="B457" s="19"/>
       <c r="C457" s="20"/>
@@ -16382,7 +16323,7 @@
       <c r="Y457" s="2"/>
       <c r="Z457" s="2"/>
     </row>
-    <row r="458" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A458" s="18"/>
       <c r="B458" s="19"/>
       <c r="C458" s="20"/>
@@ -16410,7 +16351,7 @@
       <c r="Y458" s="2"/>
       <c r="Z458" s="2"/>
     </row>
-    <row r="459" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A459" s="18"/>
       <c r="B459" s="19"/>
       <c r="C459" s="20"/>
@@ -16438,7 +16379,7 @@
       <c r="Y459" s="2"/>
       <c r="Z459" s="2"/>
     </row>
-    <row r="460" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A460" s="18"/>
       <c r="B460" s="19"/>
       <c r="C460" s="20"/>
@@ -16466,7 +16407,7 @@
       <c r="Y460" s="2"/>
       <c r="Z460" s="2"/>
     </row>
-    <row r="461" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A461" s="18"/>
       <c r="B461" s="19"/>
       <c r="C461" s="20"/>
@@ -16494,7 +16435,7 @@
       <c r="Y461" s="2"/>
       <c r="Z461" s="2"/>
     </row>
-    <row r="462" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A462" s="18"/>
       <c r="B462" s="19"/>
       <c r="C462" s="20"/>
@@ -16522,7 +16463,7 @@
       <c r="Y462" s="2"/>
       <c r="Z462" s="2"/>
     </row>
-    <row r="463" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A463" s="18"/>
       <c r="B463" s="19"/>
       <c r="C463" s="20"/>
@@ -16550,7 +16491,7 @@
       <c r="Y463" s="2"/>
       <c r="Z463" s="2"/>
     </row>
-    <row r="464" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A464" s="18"/>
       <c r="B464" s="19"/>
       <c r="C464" s="20"/>
@@ -16578,7 +16519,7 @@
       <c r="Y464" s="2"/>
       <c r="Z464" s="2"/>
     </row>
-    <row r="465" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A465" s="18"/>
       <c r="B465" s="19"/>
       <c r="C465" s="20"/>
@@ -16606,7 +16547,7 @@
       <c r="Y465" s="2"/>
       <c r="Z465" s="2"/>
     </row>
-    <row r="466" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A466" s="18"/>
       <c r="B466" s="19"/>
       <c r="C466" s="20"/>
@@ -16634,7 +16575,7 @@
       <c r="Y466" s="2"/>
       <c r="Z466" s="2"/>
     </row>
-    <row r="467" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A467" s="18"/>
       <c r="B467" s="19"/>
       <c r="C467" s="20"/>
@@ -16662,7 +16603,7 @@
       <c r="Y467" s="2"/>
       <c r="Z467" s="2"/>
     </row>
-    <row r="468" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A468" s="18"/>
       <c r="B468" s="19"/>
       <c r="C468" s="20"/>
@@ -16690,7 +16631,7 @@
       <c r="Y468" s="2"/>
       <c r="Z468" s="2"/>
     </row>
-    <row r="469" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A469" s="18"/>
       <c r="B469" s="19"/>
       <c r="C469" s="20"/>
@@ -16718,7 +16659,7 @@
       <c r="Y469" s="2"/>
       <c r="Z469" s="2"/>
     </row>
-    <row r="470" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A470" s="18"/>
       <c r="B470" s="19"/>
       <c r="C470" s="20"/>
@@ -16746,7 +16687,7 @@
       <c r="Y470" s="2"/>
       <c r="Z470" s="2"/>
     </row>
-    <row r="471" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A471" s="18"/>
       <c r="B471" s="19"/>
       <c r="C471" s="20"/>
@@ -16774,7 +16715,7 @@
       <c r="Y471" s="2"/>
       <c r="Z471" s="2"/>
     </row>
-    <row r="472" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A472" s="18"/>
       <c r="B472" s="19"/>
       <c r="C472" s="20"/>
@@ -16802,7 +16743,7 @@
       <c r="Y472" s="2"/>
       <c r="Z472" s="2"/>
     </row>
-    <row r="473" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A473" s="18"/>
       <c r="B473" s="19"/>
       <c r="C473" s="20"/>
@@ -16830,7 +16771,7 @@
       <c r="Y473" s="2"/>
       <c r="Z473" s="2"/>
     </row>
-    <row r="474" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A474" s="18"/>
       <c r="B474" s="19"/>
       <c r="C474" s="20"/>
@@ -16858,7 +16799,7 @@
       <c r="Y474" s="2"/>
       <c r="Z474" s="2"/>
     </row>
-    <row r="475" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A475" s="18"/>
       <c r="B475" s="19"/>
       <c r="C475" s="20"/>
@@ -16886,7 +16827,7 @@
       <c r="Y475" s="2"/>
       <c r="Z475" s="2"/>
     </row>
-    <row r="476" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A476" s="18"/>
       <c r="B476" s="19"/>
       <c r="C476" s="20"/>
@@ -16914,7 +16855,7 @@
       <c r="Y476" s="2"/>
       <c r="Z476" s="2"/>
     </row>
-    <row r="477" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A477" s="18"/>
       <c r="B477" s="19"/>
       <c r="C477" s="20"/>
@@ -16942,7 +16883,7 @@
       <c r="Y477" s="2"/>
       <c r="Z477" s="2"/>
     </row>
-    <row r="478" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A478" s="18"/>
       <c r="B478" s="19"/>
       <c r="C478" s="20"/>
@@ -16970,7 +16911,7 @@
       <c r="Y478" s="2"/>
       <c r="Z478" s="2"/>
     </row>
-    <row r="479" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A479" s="18"/>
       <c r="B479" s="19"/>
       <c r="C479" s="20"/>
@@ -16998,7 +16939,7 @@
       <c r="Y479" s="2"/>
       <c r="Z479" s="2"/>
     </row>
-    <row r="480" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A480" s="18"/>
       <c r="B480" s="19"/>
       <c r="C480" s="20"/>
@@ -17026,7 +16967,7 @@
       <c r="Y480" s="2"/>
       <c r="Z480" s="2"/>
     </row>
-    <row r="481" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A481" s="18"/>
       <c r="B481" s="19"/>
       <c r="C481" s="20"/>
@@ -17054,7 +16995,7 @@
       <c r="Y481" s="2"/>
       <c r="Z481" s="2"/>
     </row>
-    <row r="482" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A482" s="18"/>
       <c r="B482" s="19"/>
       <c r="C482" s="20"/>
@@ -17082,7 +17023,7 @@
       <c r="Y482" s="2"/>
       <c r="Z482" s="2"/>
     </row>
-    <row r="483" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A483" s="18"/>
       <c r="B483" s="19"/>
       <c r="C483" s="20"/>
@@ -17110,7 +17051,7 @@
       <c r="Y483" s="2"/>
       <c r="Z483" s="2"/>
     </row>
-    <row r="484" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A484" s="18"/>
       <c r="B484" s="19"/>
       <c r="C484" s="20"/>
@@ -17138,7 +17079,7 @@
       <c r="Y484" s="2"/>
       <c r="Z484" s="2"/>
     </row>
-    <row r="485" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A485" s="18"/>
       <c r="B485" s="19"/>
       <c r="C485" s="20"/>
@@ -17166,7 +17107,7 @@
       <c r="Y485" s="2"/>
       <c r="Z485" s="2"/>
     </row>
-    <row r="486" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A486" s="18"/>
       <c r="B486" s="19"/>
       <c r="C486" s="20"/>
@@ -17194,7 +17135,7 @@
       <c r="Y486" s="2"/>
       <c r="Z486" s="2"/>
     </row>
-    <row r="487" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A487" s="18"/>
       <c r="B487" s="19"/>
       <c r="C487" s="20"/>
@@ -17222,7 +17163,7 @@
       <c r="Y487" s="2"/>
       <c r="Z487" s="2"/>
     </row>
-    <row r="488" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A488" s="18"/>
       <c r="B488" s="19"/>
       <c r="C488" s="20"/>
@@ -17250,7 +17191,7 @@
       <c r="Y488" s="2"/>
       <c r="Z488" s="2"/>
     </row>
-    <row r="489" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A489" s="18"/>
       <c r="B489" s="19"/>
       <c r="C489" s="20"/>
@@ -17278,7 +17219,7 @@
       <c r="Y489" s="2"/>
       <c r="Z489" s="2"/>
     </row>
-    <row r="490" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A490" s="18"/>
       <c r="B490" s="19"/>
       <c r="C490" s="20"/>
@@ -17306,7 +17247,7 @@
       <c r="Y490" s="2"/>
       <c r="Z490" s="2"/>
     </row>
-    <row r="491" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A491" s="18"/>
       <c r="B491" s="19"/>
       <c r="C491" s="20"/>
@@ -17334,7 +17275,7 @@
       <c r="Y491" s="2"/>
       <c r="Z491" s="2"/>
     </row>
-    <row r="492" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A492" s="18"/>
       <c r="B492" s="19"/>
       <c r="C492" s="20"/>
@@ -17362,7 +17303,7 @@
       <c r="Y492" s="2"/>
       <c r="Z492" s="2"/>
     </row>
-    <row r="493" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A493" s="18"/>
       <c r="B493" s="19"/>
       <c r="C493" s="20"/>
@@ -17390,7 +17331,7 @@
       <c r="Y493" s="2"/>
       <c r="Z493" s="2"/>
     </row>
-    <row r="494" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A494" s="18"/>
       <c r="B494" s="19"/>
       <c r="C494" s="20"/>
@@ -17418,7 +17359,7 @@
       <c r="Y494" s="2"/>
       <c r="Z494" s="2"/>
     </row>
-    <row r="495" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A495" s="18"/>
       <c r="B495" s="19"/>
       <c r="C495" s="20"/>
@@ -17446,7 +17387,7 @@
       <c r="Y495" s="2"/>
       <c r="Z495" s="2"/>
     </row>
-    <row r="496" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A496" s="18"/>
       <c r="B496" s="19"/>
       <c r="C496" s="20"/>
@@ -17474,7 +17415,7 @@
       <c r="Y496" s="2"/>
       <c r="Z496" s="2"/>
     </row>
-    <row r="497" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A497" s="18"/>
       <c r="B497" s="19"/>
       <c r="C497" s="20"/>
@@ -17502,7 +17443,7 @@
       <c r="Y497" s="2"/>
       <c r="Z497" s="2"/>
     </row>
-    <row r="498" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A498" s="18"/>
       <c r="B498" s="19"/>
       <c r="C498" s="20"/>
@@ -17530,7 +17471,7 @@
       <c r="Y498" s="2"/>
       <c r="Z498" s="2"/>
     </row>
-    <row r="499" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A499" s="18"/>
       <c r="B499" s="19"/>
       <c r="C499" s="20"/>
@@ -17558,7 +17499,7 @@
       <c r="Y499" s="2"/>
       <c r="Z499" s="2"/>
     </row>
-    <row r="500" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A500" s="18"/>
       <c r="B500" s="19"/>
       <c r="C500" s="20"/>
@@ -17586,7 +17527,7 @@
       <c r="Y500" s="2"/>
       <c r="Z500" s="2"/>
     </row>
-    <row r="501" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A501" s="18"/>
       <c r="B501" s="19"/>
       <c r="C501" s="20"/>
@@ -17614,7 +17555,7 @@
       <c r="Y501" s="2"/>
       <c r="Z501" s="2"/>
     </row>
-    <row r="502" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A502" s="18"/>
       <c r="B502" s="19"/>
       <c r="C502" s="20"/>
@@ -17642,7 +17583,7 @@
       <c r="Y502" s="2"/>
       <c r="Z502" s="2"/>
     </row>
-    <row r="503" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A503" s="18"/>
       <c r="B503" s="19"/>
       <c r="C503" s="20"/>
@@ -17670,7 +17611,7 @@
       <c r="Y503" s="2"/>
       <c r="Z503" s="2"/>
     </row>
-    <row r="504" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A504" s="18"/>
       <c r="B504" s="19"/>
       <c r="C504" s="20"/>
@@ -17698,7 +17639,7 @@
       <c r="Y504" s="2"/>
       <c r="Z504" s="2"/>
     </row>
-    <row r="505" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A505" s="18"/>
       <c r="B505" s="19"/>
       <c r="C505" s="20"/>
@@ -17726,7 +17667,7 @@
       <c r="Y505" s="2"/>
       <c r="Z505" s="2"/>
     </row>
-    <row r="506" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A506" s="18"/>
       <c r="B506" s="19"/>
       <c r="C506" s="20"/>
@@ -17754,7 +17695,7 @@
       <c r="Y506" s="2"/>
       <c r="Z506" s="2"/>
     </row>
-    <row r="507" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A507" s="18"/>
       <c r="B507" s="19"/>
       <c r="C507" s="20"/>
@@ -17782,7 +17723,7 @@
       <c r="Y507" s="2"/>
       <c r="Z507" s="2"/>
     </row>
-    <row r="508" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A508" s="18"/>
       <c r="B508" s="19"/>
       <c r="C508" s="20"/>
@@ -17810,7 +17751,7 @@
       <c r="Y508" s="2"/>
       <c r="Z508" s="2"/>
     </row>
-    <row r="509" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A509" s="18"/>
       <c r="B509" s="19"/>
       <c r="C509" s="20"/>
@@ -17838,7 +17779,7 @@
       <c r="Y509" s="2"/>
       <c r="Z509" s="2"/>
     </row>
-    <row r="510" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A510" s="18"/>
       <c r="B510" s="19"/>
       <c r="C510" s="20"/>
@@ -17866,7 +17807,7 @@
       <c r="Y510" s="2"/>
       <c r="Z510" s="2"/>
     </row>
-    <row r="511" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A511" s="18"/>
       <c r="B511" s="19"/>
       <c r="C511" s="20"/>
@@ -17894,7 +17835,7 @@
       <c r="Y511" s="2"/>
       <c r="Z511" s="2"/>
     </row>
-    <row r="512" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A512" s="18"/>
       <c r="B512" s="19"/>
       <c r="C512" s="20"/>
@@ -17922,7 +17863,7 @@
       <c r="Y512" s="2"/>
       <c r="Z512" s="2"/>
     </row>
-    <row r="513" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A513" s="18"/>
       <c r="B513" s="19"/>
       <c r="C513" s="20"/>
@@ -17950,7 +17891,7 @@
       <c r="Y513" s="2"/>
       <c r="Z513" s="2"/>
     </row>
-    <row r="514" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A514" s="18"/>
       <c r="B514" s="19"/>
       <c r="C514" s="20"/>
@@ -17978,7 +17919,7 @@
       <c r="Y514" s="2"/>
       <c r="Z514" s="2"/>
     </row>
-    <row r="515" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A515" s="18"/>
       <c r="B515" s="19"/>
       <c r="C515" s="20"/>
@@ -18006,7 +17947,7 @@
       <c r="Y515" s="2"/>
       <c r="Z515" s="2"/>
     </row>
-    <row r="516" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A516" s="18"/>
       <c r="B516" s="19"/>
       <c r="C516" s="20"/>
@@ -18034,7 +17975,7 @@
       <c r="Y516" s="2"/>
       <c r="Z516" s="2"/>
     </row>
-    <row r="517" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A517" s="18"/>
       <c r="B517" s="19"/>
       <c r="C517" s="20"/>
@@ -18062,7 +18003,7 @@
       <c r="Y517" s="2"/>
       <c r="Z517" s="2"/>
     </row>
-    <row r="518" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A518" s="18"/>
       <c r="B518" s="19"/>
       <c r="C518" s="20"/>
@@ -18090,7 +18031,7 @@
       <c r="Y518" s="2"/>
       <c r="Z518" s="2"/>
     </row>
-    <row r="519" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A519" s="18"/>
       <c r="B519" s="19"/>
       <c r="C519" s="20"/>
@@ -18118,7 +18059,7 @@
       <c r="Y519" s="2"/>
       <c r="Z519" s="2"/>
     </row>
-    <row r="520" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A520" s="18"/>
       <c r="B520" s="19"/>
       <c r="C520" s="20"/>
@@ -18146,7 +18087,7 @@
       <c r="Y520" s="2"/>
       <c r="Z520" s="2"/>
     </row>
-    <row r="521" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A521" s="18"/>
       <c r="B521" s="19"/>
       <c r="C521" s="20"/>
@@ -18174,7 +18115,7 @@
       <c r="Y521" s="2"/>
       <c r="Z521" s="2"/>
     </row>
-    <row r="522" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A522" s="18"/>
       <c r="B522" s="19"/>
       <c r="C522" s="20"/>
@@ -18202,7 +18143,7 @@
       <c r="Y522" s="2"/>
       <c r="Z522" s="2"/>
     </row>
-    <row r="523" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A523" s="18"/>
       <c r="B523" s="19"/>
       <c r="C523" s="20"/>
@@ -18230,7 +18171,7 @@
       <c r="Y523" s="2"/>
       <c r="Z523" s="2"/>
     </row>
-    <row r="524" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A524" s="18"/>
       <c r="B524" s="19"/>
       <c r="C524" s="20"/>
@@ -18258,7 +18199,7 @@
       <c r="Y524" s="2"/>
       <c r="Z524" s="2"/>
     </row>
-    <row r="525" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A525" s="18"/>
       <c r="B525" s="19"/>
       <c r="C525" s="20"/>
@@ -18286,7 +18227,7 @@
       <c r="Y525" s="2"/>
       <c r="Z525" s="2"/>
     </row>
-    <row r="526" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A526" s="18"/>
       <c r="B526" s="19"/>
       <c r="C526" s="20"/>
@@ -18314,7 +18255,7 @@
       <c r="Y526" s="2"/>
       <c r="Z526" s="2"/>
     </row>
-    <row r="527" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A527" s="18"/>
       <c r="B527" s="19"/>
       <c r="C527" s="20"/>
@@ -18342,7 +18283,7 @@
       <c r="Y527" s="2"/>
       <c r="Z527" s="2"/>
     </row>
-    <row r="528" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A528" s="18"/>
       <c r="B528" s="19"/>
       <c r="C528" s="20"/>
@@ -18370,7 +18311,7 @@
       <c r="Y528" s="2"/>
       <c r="Z528" s="2"/>
     </row>
-    <row r="529" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A529" s="18"/>
       <c r="B529" s="19"/>
       <c r="C529" s="20"/>
@@ -18398,7 +18339,7 @@
       <c r="Y529" s="2"/>
       <c r="Z529" s="2"/>
     </row>
-    <row r="530" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A530" s="18"/>
       <c r="B530" s="19"/>
       <c r="C530" s="20"/>
@@ -18426,7 +18367,7 @@
       <c r="Y530" s="2"/>
       <c r="Z530" s="2"/>
     </row>
-    <row r="531" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A531" s="18"/>
       <c r="B531" s="19"/>
       <c r="C531" s="20"/>
@@ -18454,7 +18395,7 @@
       <c r="Y531" s="2"/>
       <c r="Z531" s="2"/>
     </row>
-    <row r="532" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A532" s="18"/>
       <c r="B532" s="19"/>
       <c r="C532" s="20"/>
@@ -18482,7 +18423,7 @@
       <c r="Y532" s="2"/>
       <c r="Z532" s="2"/>
     </row>
-    <row r="533" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A533" s="18"/>
       <c r="B533" s="19"/>
       <c r="C533" s="20"/>
@@ -18510,7 +18451,7 @@
       <c r="Y533" s="2"/>
       <c r="Z533" s="2"/>
     </row>
-    <row r="534" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A534" s="18"/>
       <c r="B534" s="19"/>
       <c r="C534" s="20"/>
@@ -18538,7 +18479,7 @@
       <c r="Y534" s="2"/>
       <c r="Z534" s="2"/>
     </row>
-    <row r="535" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A535" s="18"/>
       <c r="B535" s="19"/>
       <c r="C535" s="20"/>
@@ -18566,7 +18507,7 @@
       <c r="Y535" s="2"/>
       <c r="Z535" s="2"/>
     </row>
-    <row r="536" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A536" s="18"/>
       <c r="B536" s="19"/>
       <c r="C536" s="20"/>
@@ -18594,7 +18535,7 @@
       <c r="Y536" s="2"/>
       <c r="Z536" s="2"/>
     </row>
-    <row r="537" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A537" s="18"/>
       <c r="B537" s="19"/>
       <c r="C537" s="20"/>
@@ -18622,7 +18563,7 @@
       <c r="Y537" s="2"/>
       <c r="Z537" s="2"/>
     </row>
-    <row r="538" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A538" s="18"/>
       <c r="B538" s="19"/>
       <c r="C538" s="20"/>
@@ -18650,7 +18591,7 @@
       <c r="Y538" s="2"/>
       <c r="Z538" s="2"/>
     </row>
-    <row r="539" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A539" s="18"/>
       <c r="B539" s="19"/>
       <c r="C539" s="20"/>
@@ -18678,7 +18619,7 @@
       <c r="Y539" s="2"/>
       <c r="Z539" s="2"/>
     </row>
-    <row r="540" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A540" s="18"/>
       <c r="B540" s="19"/>
       <c r="C540" s="20"/>
@@ -18706,7 +18647,7 @@
       <c r="Y540" s="2"/>
       <c r="Z540" s="2"/>
     </row>
-    <row r="541" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A541" s="18"/>
       <c r="B541" s="19"/>
       <c r="C541" s="20"/>
@@ -18734,7 +18675,7 @@
       <c r="Y541" s="2"/>
       <c r="Z541" s="2"/>
     </row>
-    <row r="542" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A542" s="18"/>
       <c r="B542" s="19"/>
       <c r="C542" s="20"/>
@@ -18762,7 +18703,7 @@
       <c r="Y542" s="2"/>
       <c r="Z542" s="2"/>
     </row>
-    <row r="543" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A543" s="18"/>
       <c r="B543" s="19"/>
       <c r="C543" s="20"/>
@@ -18790,7 +18731,7 @@
       <c r="Y543" s="2"/>
       <c r="Z543" s="2"/>
     </row>
-    <row r="544" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A544" s="18"/>
       <c r="B544" s="19"/>
       <c r="C544" s="20"/>
@@ -18818,7 +18759,7 @@
       <c r="Y544" s="2"/>
       <c r="Z544" s="2"/>
     </row>
-    <row r="545" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A545" s="18"/>
       <c r="B545" s="19"/>
       <c r="C545" s="20"/>
@@ -18846,7 +18787,7 @@
       <c r="Y545" s="2"/>
       <c r="Z545" s="2"/>
     </row>
-    <row r="546" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A546" s="18"/>
       <c r="B546" s="19"/>
       <c r="C546" s="20"/>
@@ -18874,7 +18815,7 @@
       <c r="Y546" s="2"/>
       <c r="Z546" s="2"/>
     </row>
-    <row r="547" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A547" s="18"/>
       <c r="B547" s="19"/>
       <c r="C547" s="20"/>
@@ -18902,7 +18843,7 @@
       <c r="Y547" s="2"/>
       <c r="Z547" s="2"/>
     </row>
-    <row r="548" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A548" s="18"/>
       <c r="B548" s="19"/>
       <c r="C548" s="20"/>
@@ -18930,7 +18871,7 @@
       <c r="Y548" s="2"/>
       <c r="Z548" s="2"/>
     </row>
-    <row r="549" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A549" s="18"/>
       <c r="B549" s="19"/>
       <c r="C549" s="20"/>
@@ -18958,7 +18899,7 @@
       <c r="Y549" s="2"/>
       <c r="Z549" s="2"/>
     </row>
-    <row r="550" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A550" s="18"/>
       <c r="B550" s="19"/>
       <c r="C550" s="20"/>
@@ -18986,7 +18927,7 @@
       <c r="Y550" s="2"/>
       <c r="Z550" s="2"/>
     </row>
-    <row r="551" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A551" s="18"/>
       <c r="B551" s="19"/>
       <c r="C551" s="20"/>
@@ -19014,7 +18955,7 @@
       <c r="Y551" s="2"/>
       <c r="Z551" s="2"/>
     </row>
-    <row r="552" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A552" s="18"/>
       <c r="B552" s="19"/>
       <c r="C552" s="20"/>
@@ -19042,7 +18983,7 @@
       <c r="Y552" s="2"/>
       <c r="Z552" s="2"/>
     </row>
-    <row r="553" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A553" s="18"/>
       <c r="B553" s="19"/>
       <c r="C553" s="20"/>
@@ -19070,7 +19011,7 @@
       <c r="Y553" s="2"/>
       <c r="Z553" s="2"/>
     </row>
-    <row r="554" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A554" s="18"/>
       <c r="B554" s="19"/>
       <c r="C554" s="20"/>
@@ -19098,7 +19039,7 @@
       <c r="Y554" s="2"/>
       <c r="Z554" s="2"/>
     </row>
-    <row r="555" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A555" s="18"/>
       <c r="B555" s="19"/>
       <c r="C555" s="20"/>
@@ -19126,7 +19067,7 @@
       <c r="Y555" s="2"/>
       <c r="Z555" s="2"/>
     </row>
-    <row r="556" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A556" s="18"/>
       <c r="B556" s="19"/>
       <c r="C556" s="20"/>
@@ -19154,7 +19095,7 @@
       <c r="Y556" s="2"/>
       <c r="Z556" s="2"/>
     </row>
-    <row r="557" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A557" s="18"/>
       <c r="B557" s="19"/>
       <c r="C557" s="20"/>
@@ -19182,7 +19123,7 @@
       <c r="Y557" s="2"/>
       <c r="Z557" s="2"/>
     </row>
-    <row r="558" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A558" s="18"/>
       <c r="B558" s="19"/>
       <c r="C558" s="20"/>
@@ -19210,7 +19151,7 @@
       <c r="Y558" s="2"/>
       <c r="Z558" s="2"/>
     </row>
-    <row r="559" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A559" s="18"/>
       <c r="B559" s="19"/>
       <c r="C559" s="20"/>
@@ -19238,7 +19179,7 @@
       <c r="Y559" s="2"/>
       <c r="Z559" s="2"/>
     </row>
-    <row r="560" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A560" s="18"/>
       <c r="B560" s="19"/>
       <c r="C560" s="20"/>
@@ -19266,7 +19207,7 @@
       <c r="Y560" s="2"/>
       <c r="Z560" s="2"/>
     </row>
-    <row r="561" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A561" s="18"/>
       <c r="B561" s="19"/>
       <c r="C561" s="20"/>
@@ -19294,7 +19235,7 @@
       <c r="Y561" s="2"/>
       <c r="Z561" s="2"/>
     </row>
-    <row r="562" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A562" s="18"/>
       <c r="B562" s="19"/>
       <c r="C562" s="20"/>
@@ -19322,7 +19263,7 @@
       <c r="Y562" s="2"/>
       <c r="Z562" s="2"/>
     </row>
-    <row r="563" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A563" s="18"/>
       <c r="B563" s="19"/>
       <c r="C563" s="20"/>
@@ -19350,7 +19291,7 @@
       <c r="Y563" s="2"/>
       <c r="Z563" s="2"/>
     </row>
-    <row r="564" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A564" s="18"/>
       <c r="B564" s="19"/>
       <c r="C564" s="20"/>
@@ -19378,7 +19319,7 @@
       <c r="Y564" s="2"/>
       <c r="Z564" s="2"/>
     </row>
-    <row r="565" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A565" s="18"/>
       <c r="B565" s="19"/>
       <c r="C565" s="20"/>
@@ -19406,7 +19347,7 @@
       <c r="Y565" s="2"/>
       <c r="Z565" s="2"/>
     </row>
-    <row r="566" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A566" s="18"/>
       <c r="B566" s="19"/>
       <c r="C566" s="20"/>
@@ -19434,7 +19375,7 @@
       <c r="Y566" s="2"/>
       <c r="Z566" s="2"/>
     </row>
-    <row r="567" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A567" s="18"/>
       <c r="B567" s="19"/>
       <c r="C567" s="20"/>
@@ -19462,7 +19403,7 @@
       <c r="Y567" s="2"/>
       <c r="Z567" s="2"/>
     </row>
-    <row r="568" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A568" s="18"/>
       <c r="B568" s="19"/>
       <c r="C568" s="20"/>
@@ -19490,7 +19431,7 @@
       <c r="Y568" s="2"/>
       <c r="Z568" s="2"/>
     </row>
-    <row r="569" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A569" s="18"/>
       <c r="B569" s="19"/>
       <c r="C569" s="20"/>
@@ -19518,7 +19459,7 @@
       <c r="Y569" s="2"/>
       <c r="Z569" s="2"/>
     </row>
-    <row r="570" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A570" s="18"/>
       <c r="B570" s="19"/>
       <c r="C570" s="20"/>
@@ -19546,7 +19487,7 @@
       <c r="Y570" s="2"/>
       <c r="Z570" s="2"/>
     </row>
-    <row r="571" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A571" s="18"/>
       <c r="B571" s="19"/>
       <c r="C571" s="20"/>
@@ -19574,7 +19515,7 @@
       <c r="Y571" s="2"/>
       <c r="Z571" s="2"/>
     </row>
-    <row r="572" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A572" s="18"/>
       <c r="B572" s="19"/>
       <c r="C572" s="20"/>
@@ -19602,7 +19543,7 @@
       <c r="Y572" s="2"/>
       <c r="Z572" s="2"/>
     </row>
-    <row r="573" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A573" s="18"/>
       <c r="B573" s="19"/>
       <c r="C573" s="20"/>
@@ -19630,7 +19571,7 @@
       <c r="Y573" s="2"/>
       <c r="Z573" s="2"/>
     </row>
-    <row r="574" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A574" s="18"/>
       <c r="B574" s="19"/>
       <c r="C574" s="20"/>
@@ -19658,7 +19599,7 @@
       <c r="Y574" s="2"/>
       <c r="Z574" s="2"/>
     </row>
-    <row r="575" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A575" s="18"/>
       <c r="B575" s="19"/>
       <c r="C575" s="20"/>
@@ -19686,7 +19627,7 @@
       <c r="Y575" s="2"/>
       <c r="Z575" s="2"/>
     </row>
-    <row r="576" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A576" s="18"/>
       <c r="B576" s="19"/>
       <c r="C576" s="20"/>
@@ -19714,7 +19655,7 @@
       <c r="Y576" s="2"/>
       <c r="Z576" s="2"/>
     </row>
-    <row r="577" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A577" s="18"/>
       <c r="B577" s="19"/>
       <c r="C577" s="20"/>
@@ -19742,7 +19683,7 @@
       <c r="Y577" s="2"/>
       <c r="Z577" s="2"/>
     </row>
-    <row r="578" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A578" s="18"/>
       <c r="B578" s="19"/>
       <c r="C578" s="20"/>
@@ -19770,7 +19711,7 @@
       <c r="Y578" s="2"/>
       <c r="Z578" s="2"/>
     </row>
-    <row r="579" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A579" s="18"/>
       <c r="B579" s="19"/>
       <c r="C579" s="20"/>
@@ -19798,7 +19739,7 @@
       <c r="Y579" s="2"/>
       <c r="Z579" s="2"/>
     </row>
-    <row r="580" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A580" s="18"/>
       <c r="B580" s="19"/>
       <c r="C580" s="20"/>
@@ -19826,7 +19767,7 @@
       <c r="Y580" s="2"/>
       <c r="Z580" s="2"/>
     </row>
-    <row r="581" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A581" s="18"/>
       <c r="B581" s="19"/>
       <c r="C581" s="20"/>
@@ -19854,7 +19795,7 @@
       <c r="Y581" s="2"/>
       <c r="Z581" s="2"/>
     </row>
-    <row r="582" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A582" s="18"/>
       <c r="B582" s="19"/>
       <c r="C582" s="20"/>
@@ -19882,7 +19823,7 @@
       <c r="Y582" s="2"/>
       <c r="Z582" s="2"/>
     </row>
-    <row r="583" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A583" s="18"/>
       <c r="B583" s="19"/>
       <c r="C583" s="20"/>
@@ -19910,7 +19851,7 @@
       <c r="Y583" s="2"/>
       <c r="Z583" s="2"/>
     </row>
-    <row r="584" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A584" s="18"/>
       <c r="B584" s="19"/>
       <c r="C584" s="20"/>
@@ -19938,7 +19879,7 @@
       <c r="Y584" s="2"/>
       <c r="Z584" s="2"/>
     </row>
-    <row r="585" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A585" s="18"/>
       <c r="B585" s="19"/>
       <c r="C585" s="20"/>
@@ -19966,7 +19907,7 @@
       <c r="Y585" s="2"/>
       <c r="Z585" s="2"/>
     </row>
-    <row r="586" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A586" s="18"/>
       <c r="B586" s="19"/>
       <c r="C586" s="20"/>
@@ -19994,7 +19935,7 @@
       <c r="Y586" s="2"/>
       <c r="Z586" s="2"/>
     </row>
-    <row r="587" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A587" s="18"/>
       <c r="B587" s="19"/>
       <c r="C587" s="20"/>
@@ -20022,7 +19963,7 @@
       <c r="Y587" s="2"/>
       <c r="Z587" s="2"/>
     </row>
-    <row r="588" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A588" s="18"/>
       <c r="B588" s="19"/>
       <c r="C588" s="20"/>
@@ -20050,7 +19991,7 @@
       <c r="Y588" s="2"/>
       <c r="Z588" s="2"/>
     </row>
-    <row r="589" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A589" s="18"/>
       <c r="B589" s="19"/>
       <c r="C589" s="20"/>
@@ -20078,7 +20019,7 @@
       <c r="Y589" s="2"/>
       <c r="Z589" s="2"/>
     </row>
-    <row r="590" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A590" s="18"/>
       <c r="B590" s="19"/>
       <c r="C590" s="20"/>
@@ -20106,7 +20047,7 @@
       <c r="Y590" s="2"/>
       <c r="Z590" s="2"/>
     </row>
-    <row r="591" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A591" s="18"/>
       <c r="B591" s="19"/>
       <c r="C591" s="20"/>
@@ -20134,7 +20075,7 @@
       <c r="Y591" s="2"/>
       <c r="Z591" s="2"/>
     </row>
-    <row r="592" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A592" s="18"/>
       <c r="B592" s="19"/>
       <c r="C592" s="20"/>
@@ -20162,7 +20103,7 @@
       <c r="Y592" s="2"/>
       <c r="Z592" s="2"/>
     </row>
-    <row r="593" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A593" s="18"/>
       <c r="B593" s="19"/>
       <c r="C593" s="20"/>
@@ -20190,7 +20131,7 @@
       <c r="Y593" s="2"/>
       <c r="Z593" s="2"/>
     </row>
-    <row r="594" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A594" s="18"/>
       <c r="B594" s="19"/>
       <c r="C594" s="20"/>
@@ -20218,7 +20159,7 @@
       <c r="Y594" s="2"/>
       <c r="Z594" s="2"/>
     </row>
-    <row r="595" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A595" s="18"/>
       <c r="B595" s="19"/>
       <c r="C595" s="20"/>
@@ -20246,7 +20187,7 @@
       <c r="Y595" s="2"/>
       <c r="Z595" s="2"/>
     </row>
-    <row r="596" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A596" s="18"/>
       <c r="B596" s="19"/>
       <c r="C596" s="20"/>
@@ -20274,7 +20215,7 @@
       <c r="Y596" s="2"/>
       <c r="Z596" s="2"/>
     </row>
-    <row r="597" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A597" s="18"/>
       <c r="B597" s="19"/>
       <c r="C597" s="20"/>
@@ -20302,7 +20243,7 @@
       <c r="Y597" s="2"/>
       <c r="Z597" s="2"/>
     </row>
-    <row r="598" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A598" s="18"/>
       <c r="B598" s="19"/>
       <c r="C598" s="20"/>
@@ -20330,7 +20271,7 @@
       <c r="Y598" s="2"/>
       <c r="Z598" s="2"/>
     </row>
-    <row r="599" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A599" s="18"/>
       <c r="B599" s="19"/>
       <c r="C599" s="20"/>
@@ -20358,7 +20299,7 @@
       <c r="Y599" s="2"/>
       <c r="Z599" s="2"/>
     </row>
-    <row r="600" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A600" s="18"/>
       <c r="B600" s="19"/>
       <c r="C600" s="20"/>
@@ -20386,7 +20327,7 @@
       <c r="Y600" s="2"/>
       <c r="Z600" s="2"/>
     </row>
-    <row r="601" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A601" s="18"/>
       <c r="B601" s="19"/>
       <c r="C601" s="20"/>
@@ -20414,7 +20355,7 @@
       <c r="Y601" s="2"/>
       <c r="Z601" s="2"/>
     </row>
-    <row r="602" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A602" s="18"/>
       <c r="B602" s="19"/>
       <c r="C602" s="20"/>
@@ -20442,7 +20383,7 @@
       <c r="Y602" s="2"/>
       <c r="Z602" s="2"/>
     </row>
-    <row r="603" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A603" s="18"/>
       <c r="B603" s="19"/>
       <c r="C603" s="20"/>
@@ -20470,7 +20411,7 @@
       <c r="Y603" s="2"/>
       <c r="Z603" s="2"/>
     </row>
-    <row r="604" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A604" s="18"/>
       <c r="B604" s="19"/>
       <c r="C604" s="20"/>
@@ -20498,7 +20439,7 @@
       <c r="Y604" s="2"/>
       <c r="Z604" s="2"/>
     </row>
-    <row r="605" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A605" s="18"/>
       <c r="B605" s="19"/>
       <c r="C605" s="20"/>
@@ -20526,7 +20467,7 @@
       <c r="Y605" s="2"/>
       <c r="Z605" s="2"/>
     </row>
-    <row r="606" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A606" s="18"/>
       <c r="B606" s="19"/>
       <c r="C606" s="20"/>
@@ -20554,7 +20495,7 @@
       <c r="Y606" s="2"/>
       <c r="Z606" s="2"/>
     </row>
-    <row r="607" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A607" s="18"/>
       <c r="B607" s="19"/>
       <c r="C607" s="20"/>
@@ -20582,7 +20523,7 @@
       <c r="Y607" s="2"/>
       <c r="Z607" s="2"/>
     </row>
-    <row r="608" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A608" s="18"/>
       <c r="B608" s="19"/>
       <c r="C608" s="20"/>
@@ -20610,7 +20551,7 @@
       <c r="Y608" s="2"/>
       <c r="Z608" s="2"/>
     </row>
-    <row r="609" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A609" s="18"/>
       <c r="B609" s="19"/>
       <c r="C609" s="20"/>
@@ -20638,7 +20579,7 @@
       <c r="Y609" s="2"/>
       <c r="Z609" s="2"/>
     </row>
-    <row r="610" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A610" s="18"/>
       <c r="B610" s="19"/>
       <c r="C610" s="20"/>
@@ -20666,7 +20607,7 @@
       <c r="Y610" s="2"/>
       <c r="Z610" s="2"/>
     </row>
-    <row r="611" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A611" s="18"/>
       <c r="B611" s="19"/>
       <c r="C611" s="20"/>
@@ -20694,7 +20635,7 @@
       <c r="Y611" s="2"/>
       <c r="Z611" s="2"/>
     </row>
-    <row r="612" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A612" s="18"/>
       <c r="B612" s="19"/>
       <c r="C612" s="20"/>
@@ -20722,7 +20663,7 @@
       <c r="Y612" s="2"/>
       <c r="Z612" s="2"/>
     </row>
-    <row r="613" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A613" s="18"/>
       <c r="B613" s="19"/>
       <c r="C613" s="20"/>
@@ -20750,7 +20691,7 @@
       <c r="Y613" s="2"/>
       <c r="Z613" s="2"/>
     </row>
-    <row r="614" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A614" s="18"/>
       <c r="B614" s="19"/>
       <c r="C614" s="20"/>
@@ -20778,7 +20719,7 @@
       <c r="Y614" s="2"/>
       <c r="Z614" s="2"/>
     </row>
-    <row r="615" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A615" s="18"/>
       <c r="B615" s="19"/>
       <c r="C615" s="20"/>
@@ -20806,7 +20747,7 @@
       <c r="Y615" s="2"/>
       <c r="Z615" s="2"/>
     </row>
-    <row r="616" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A616" s="18"/>
       <c r="B616" s="19"/>
       <c r="C616" s="20"/>
@@ -20834,7 +20775,7 @@
       <c r="Y616" s="2"/>
       <c r="Z616" s="2"/>
     </row>
-    <row r="617" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A617" s="18"/>
       <c r="B617" s="19"/>
       <c r="C617" s="20"/>
@@ -20862,7 +20803,7 @@
       <c r="Y617" s="2"/>
       <c r="Z617" s="2"/>
     </row>
-    <row r="618" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A618" s="18"/>
       <c r="B618" s="19"/>
       <c r="C618" s="20"/>
@@ -20890,7 +20831,7 @@
       <c r="Y618" s="2"/>
       <c r="Z618" s="2"/>
     </row>
-    <row r="619" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A619" s="18"/>
       <c r="B619" s="19"/>
       <c r="C619" s="20"/>
@@ -20918,7 +20859,7 @@
       <c r="Y619" s="2"/>
       <c r="Z619" s="2"/>
     </row>
-    <row r="620" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A620" s="18"/>
       <c r="B620" s="19"/>
       <c r="C620" s="20"/>
@@ -20946,7 +20887,7 @@
       <c r="Y620" s="2"/>
       <c r="Z620" s="2"/>
     </row>
-    <row r="621" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A621" s="18"/>
       <c r="B621" s="19"/>
       <c r="C621" s="20"/>
@@ -20974,7 +20915,7 @@
       <c r="Y621" s="2"/>
       <c r="Z621" s="2"/>
     </row>
-    <row r="622" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A622" s="18"/>
       <c r="B622" s="19"/>
       <c r="C622" s="20"/>
@@ -21002,7 +20943,7 @@
       <c r="Y622" s="2"/>
       <c r="Z622" s="2"/>
     </row>
-    <row r="623" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A623" s="18"/>
       <c r="B623" s="19"/>
       <c r="C623" s="20"/>
@@ -21030,7 +20971,7 @@
       <c r="Y623" s="2"/>
       <c r="Z623" s="2"/>
     </row>
-    <row r="624" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A624" s="18"/>
       <c r="B624" s="19"/>
       <c r="C624" s="20"/>
@@ -21058,7 +20999,7 @@
       <c r="Y624" s="2"/>
       <c r="Z624" s="2"/>
     </row>
-    <row r="625" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A625" s="18"/>
       <c r="B625" s="19"/>
       <c r="C625" s="20"/>
@@ -21086,7 +21027,7 @@
       <c r="Y625" s="2"/>
       <c r="Z625" s="2"/>
     </row>
-    <row r="626" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A626" s="18"/>
       <c r="B626" s="19"/>
       <c r="C626" s="20"/>
@@ -21114,7 +21055,7 @@
       <c r="Y626" s="2"/>
       <c r="Z626" s="2"/>
     </row>
-    <row r="627" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A627" s="18"/>
       <c r="B627" s="19"/>
       <c r="C627" s="20"/>
@@ -21142,7 +21083,7 @@
       <c r="Y627" s="2"/>
       <c r="Z627" s="2"/>
     </row>
-    <row r="628" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A628" s="18"/>
       <c r="B628" s="19"/>
       <c r="C628" s="20"/>
@@ -21170,7 +21111,7 @@
       <c r="Y628" s="2"/>
       <c r="Z628" s="2"/>
     </row>
-    <row r="629" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A629" s="18"/>
       <c r="B629" s="19"/>
       <c r="C629" s="20"/>
@@ -21198,7 +21139,7 @@
       <c r="Y629" s="2"/>
       <c r="Z629" s="2"/>
     </row>
-    <row r="630" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A630" s="18"/>
       <c r="B630" s="19"/>
       <c r="C630" s="20"/>
@@ -21226,7 +21167,7 @@
       <c r="Y630" s="2"/>
       <c r="Z630" s="2"/>
     </row>
-    <row r="631" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A631" s="18"/>
       <c r="B631" s="19"/>
       <c r="C631" s="20"/>
@@ -21254,7 +21195,7 @@
       <c r="Y631" s="2"/>
       <c r="Z631" s="2"/>
     </row>
-    <row r="632" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A632" s="18"/>
       <c r="B632" s="19"/>
       <c r="C632" s="20"/>
@@ -21282,7 +21223,7 @@
       <c r="Y632" s="2"/>
       <c r="Z632" s="2"/>
     </row>
-    <row r="633" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A633" s="18"/>
       <c r="B633" s="19"/>
       <c r="C633" s="20"/>
@@ -21310,7 +21251,7 @@
       <c r="Y633" s="2"/>
       <c r="Z633" s="2"/>
     </row>
-    <row r="634" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A634" s="18"/>
       <c r="B634" s="19"/>
       <c r="C634" s="20"/>
@@ -21338,7 +21279,7 @@
       <c r="Y634" s="2"/>
       <c r="Z634" s="2"/>
     </row>
-    <row r="635" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A635" s="18"/>
       <c r="B635" s="19"/>
       <c r="C635" s="20"/>
@@ -21366,7 +21307,7 @@
       <c r="Y635" s="2"/>
       <c r="Z635" s="2"/>
     </row>
-    <row r="636" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A636" s="18"/>
       <c r="B636" s="19"/>
       <c r="C636" s="20"/>
@@ -21394,7 +21335,7 @@
       <c r="Y636" s="2"/>
       <c r="Z636" s="2"/>
     </row>
-    <row r="637" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A637" s="18"/>
       <c r="B637" s="19"/>
       <c r="C637" s="20"/>
@@ -21422,7 +21363,7 @@
       <c r="Y637" s="2"/>
       <c r="Z637" s="2"/>
     </row>
-    <row r="638" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A638" s="18"/>
       <c r="B638" s="19"/>
       <c r="C638" s="20"/>
@@ -21450,7 +21391,7 @@
       <c r="Y638" s="2"/>
       <c r="Z638" s="2"/>
     </row>
-    <row r="639" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A639" s="18"/>
       <c r="B639" s="19"/>
       <c r="C639" s="20"/>
@@ -21478,7 +21419,7 @@
       <c r="Y639" s="2"/>
       <c r="Z639" s="2"/>
     </row>
-    <row r="640" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A640" s="18"/>
       <c r="B640" s="19"/>
       <c r="C640" s="20"/>
@@ -21506,7 +21447,7 @@
       <c r="Y640" s="2"/>
       <c r="Z640" s="2"/>
     </row>
-    <row r="641" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A641" s="18"/>
       <c r="B641" s="19"/>
       <c r="C641" s="20"/>
@@ -21534,7 +21475,7 @@
       <c r="Y641" s="2"/>
       <c r="Z641" s="2"/>
     </row>
-    <row r="642" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A642" s="18"/>
       <c r="B642" s="19"/>
       <c r="C642" s="20"/>
@@ -21562,7 +21503,7 @@
       <c r="Y642" s="2"/>
       <c r="Z642" s="2"/>
     </row>
-    <row r="643" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A643" s="18"/>
       <c r="B643" s="19"/>
       <c r="C643" s="20"/>
@@ -21590,7 +21531,7 @@
       <c r="Y643" s="2"/>
       <c r="Z643" s="2"/>
     </row>
-    <row r="644" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A644" s="18"/>
       <c r="B644" s="19"/>
       <c r="C644" s="20"/>
@@ -21618,7 +21559,7 @@
       <c r="Y644" s="2"/>
       <c r="Z644" s="2"/>
     </row>
-    <row r="645" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A645" s="18"/>
       <c r="B645" s="19"/>
       <c r="C645" s="20"/>
@@ -21646,7 +21587,7 @@
       <c r="Y645" s="2"/>
       <c r="Z645" s="2"/>
     </row>
-    <row r="646" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A646" s="18"/>
       <c r="B646" s="19"/>
       <c r="C646" s="20"/>
@@ -21674,7 +21615,7 @@
       <c r="Y646" s="2"/>
       <c r="Z646" s="2"/>
     </row>
-    <row r="647" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A647" s="18"/>
       <c r="B647" s="19"/>
       <c r="C647" s="20"/>
@@ -21702,7 +21643,7 @@
       <c r="Y647" s="2"/>
       <c r="Z647" s="2"/>
     </row>
-    <row r="648" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A648" s="18"/>
       <c r="B648" s="19"/>
       <c r="C648" s="20"/>
@@ -21730,7 +21671,7 @@
       <c r="Y648" s="2"/>
       <c r="Z648" s="2"/>
     </row>
-    <row r="649" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A649" s="18"/>
       <c r="B649" s="19"/>
       <c r="C649" s="20"/>
@@ -21758,7 +21699,7 @@
       <c r="Y649" s="2"/>
       <c r="Z649" s="2"/>
     </row>
-    <row r="650" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A650" s="18"/>
       <c r="B650" s="19"/>
       <c r="C650" s="20"/>
@@ -21786,7 +21727,7 @@
       <c r="Y650" s="2"/>
       <c r="Z650" s="2"/>
     </row>
-    <row r="651" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A651" s="18"/>
       <c r="B651" s="19"/>
       <c r="C651" s="20"/>
@@ -21814,7 +21755,7 @@
       <c r="Y651" s="2"/>
       <c r="Z651" s="2"/>
     </row>
-    <row r="652" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A652" s="18"/>
       <c r="B652" s="19"/>
       <c r="C652" s="20"/>
@@ -21842,7 +21783,7 @@
       <c r="Y652" s="2"/>
       <c r="Z652" s="2"/>
     </row>
-    <row r="653" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A653" s="18"/>
       <c r="B653" s="19"/>
       <c r="C653" s="20"/>
@@ -21870,7 +21811,7 @@
       <c r="Y653" s="2"/>
       <c r="Z653" s="2"/>
     </row>
-    <row r="654" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A654" s="18"/>
       <c r="B654" s="19"/>
       <c r="C654" s="20"/>
@@ -21898,7 +21839,7 @@
       <c r="Y654" s="2"/>
       <c r="Z654" s="2"/>
     </row>
-    <row r="655" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A655" s="18"/>
       <c r="B655" s="19"/>
       <c r="C655" s="20"/>
@@ -21926,7 +21867,7 @@
       <c r="Y655" s="2"/>
       <c r="Z655" s="2"/>
     </row>
-    <row r="656" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A656" s="18"/>
       <c r="B656" s="19"/>
       <c r="C656" s="20"/>
@@ -21954,7 +21895,7 @@
       <c r="Y656" s="2"/>
       <c r="Z656" s="2"/>
     </row>
-    <row r="657" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A657" s="18"/>
       <c r="B657" s="19"/>
       <c r="C657" s="20"/>
@@ -21982,7 +21923,7 @@
       <c r="Y657" s="2"/>
       <c r="Z657" s="2"/>
     </row>
-    <row r="658" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A658" s="18"/>
       <c r="B658" s="19"/>
       <c r="C658" s="20"/>
@@ -22010,7 +21951,7 @@
       <c r="Y658" s="2"/>
       <c r="Z658" s="2"/>
     </row>
-    <row r="659" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A659" s="18"/>
       <c r="B659" s="19"/>
       <c r="C659" s="20"/>
@@ -22038,7 +21979,7 @@
       <c r="Y659" s="2"/>
       <c r="Z659" s="2"/>
     </row>
-    <row r="660" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A660" s="18"/>
       <c r="B660" s="19"/>
       <c r="C660" s="20"/>
@@ -22066,7 +22007,7 @@
       <c r="Y660" s="2"/>
       <c r="Z660" s="2"/>
     </row>
-    <row r="661" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A661" s="18"/>
       <c r="B661" s="19"/>
       <c r="C661" s="20"/>
@@ -22094,7 +22035,7 @@
       <c r="Y661" s="2"/>
       <c r="Z661" s="2"/>
     </row>
-    <row r="662" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A662" s="18"/>
       <c r="B662" s="19"/>
       <c r="C662" s="20"/>
@@ -22122,7 +22063,7 @@
       <c r="Y662" s="2"/>
       <c r="Z662" s="2"/>
     </row>
-    <row r="663" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A663" s="18"/>
       <c r="B663" s="19"/>
       <c r="C663" s="20"/>
@@ -22150,7 +22091,7 @@
       <c r="Y663" s="2"/>
       <c r="Z663" s="2"/>
     </row>
-    <row r="664" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A664" s="18"/>
       <c r="B664" s="19"/>
       <c r="C664" s="20"/>
@@ -22178,7 +22119,7 @@
       <c r="Y664" s="2"/>
       <c r="Z664" s="2"/>
     </row>
-    <row r="665" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A665" s="18"/>
       <c r="B665" s="19"/>
       <c r="C665" s="20"/>
@@ -22206,7 +22147,7 @@
       <c r="Y665" s="2"/>
       <c r="Z665" s="2"/>
     </row>
-    <row r="666" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A666" s="18"/>
       <c r="B666" s="19"/>
       <c r="C666" s="20"/>
@@ -22234,7 +22175,7 @@
       <c r="Y666" s="2"/>
       <c r="Z666" s="2"/>
     </row>
-    <row r="667" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A667" s="18"/>
       <c r="B667" s="19"/>
       <c r="C667" s="20"/>
@@ -22262,7 +22203,7 @@
       <c r="Y667" s="2"/>
       <c r="Z667" s="2"/>
     </row>
-    <row r="668" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A668" s="18"/>
       <c r="B668" s="19"/>
       <c r="C668" s="20"/>
@@ -22290,7 +22231,7 @@
       <c r="Y668" s="2"/>
       <c r="Z668" s="2"/>
     </row>
-    <row r="669" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A669" s="18"/>
       <c r="B669" s="19"/>
       <c r="C669" s="20"/>
@@ -22318,7 +22259,7 @@
       <c r="Y669" s="2"/>
       <c r="Z669" s="2"/>
     </row>
-    <row r="670" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A670" s="18"/>
       <c r="B670" s="19"/>
       <c r="C670" s="20"/>
@@ -22346,7 +22287,7 @@
       <c r="Y670" s="2"/>
       <c r="Z670" s="2"/>
     </row>
-    <row r="671" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A671" s="18"/>
       <c r="B671" s="19"/>
       <c r="C671" s="20"/>
@@ -22374,7 +22315,7 @@
       <c r="Y671" s="2"/>
       <c r="Z671" s="2"/>
     </row>
-    <row r="672" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A672" s="18"/>
       <c r="B672" s="19"/>
       <c r="C672" s="20"/>
@@ -22402,7 +22343,7 @@
       <c r="Y672" s="2"/>
       <c r="Z672" s="2"/>
     </row>
-    <row r="673" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A673" s="18"/>
       <c r="B673" s="19"/>
       <c r="C673" s="20"/>
@@ -22430,7 +22371,7 @@
       <c r="Y673" s="2"/>
       <c r="Z673" s="2"/>
     </row>
-    <row r="674" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A674" s="18"/>
       <c r="B674" s="19"/>
       <c r="C674" s="20"/>
@@ -22458,7 +22399,7 @@
       <c r="Y674" s="2"/>
       <c r="Z674" s="2"/>
     </row>
-    <row r="675" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A675" s="18"/>
       <c r="B675" s="19"/>
       <c r="C675" s="20"/>
@@ -22486,7 +22427,7 @@
       <c r="Y675" s="2"/>
       <c r="Z675" s="2"/>
     </row>
-    <row r="676" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A676" s="18"/>
       <c r="B676" s="19"/>
       <c r="C676" s="20"/>
@@ -22514,7 +22455,7 @@
       <c r="Y676" s="2"/>
       <c r="Z676" s="2"/>
     </row>
-    <row r="677" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A677" s="18"/>
       <c r="B677" s="19"/>
       <c r="C677" s="20"/>
@@ -22542,7 +22483,7 @@
       <c r="Y677" s="2"/>
       <c r="Z677" s="2"/>
     </row>
-    <row r="678" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A678" s="18"/>
       <c r="B678" s="19"/>
       <c r="C678" s="20"/>
@@ -22570,7 +22511,7 @@
       <c r="Y678" s="2"/>
       <c r="Z678" s="2"/>
     </row>
-    <row r="679" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A679" s="18"/>
       <c r="B679" s="19"/>
       <c r="C679" s="20"/>
@@ -22598,7 +22539,7 @@
       <c r="Y679" s="2"/>
       <c r="Z679" s="2"/>
     </row>
-    <row r="680" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A680" s="18"/>
       <c r="B680" s="19"/>
       <c r="C680" s="20"/>
@@ -22626,7 +22567,7 @@
       <c r="Y680" s="2"/>
       <c r="Z680" s="2"/>
     </row>
-    <row r="681" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A681" s="18"/>
       <c r="B681" s="19"/>
       <c r="C681" s="20"/>
@@ -22654,7 +22595,7 @@
       <c r="Y681" s="2"/>
       <c r="Z681" s="2"/>
     </row>
-    <row r="682" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A682" s="18"/>
       <c r="B682" s="19"/>
       <c r="C682" s="20"/>
@@ -22682,7 +22623,7 @@
       <c r="Y682" s="2"/>
       <c r="Z682" s="2"/>
     </row>
-    <row r="683" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A683" s="18"/>
       <c r="B683" s="19"/>
       <c r="C683" s="20"/>
@@ -22710,7 +22651,7 @@
       <c r="Y683" s="2"/>
       <c r="Z683" s="2"/>
     </row>
-    <row r="684" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A684" s="18"/>
       <c r="B684" s="19"/>
       <c r="C684" s="20"/>
@@ -22738,7 +22679,7 @@
       <c r="Y684" s="2"/>
       <c r="Z684" s="2"/>
     </row>
-    <row r="685" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A685" s="18"/>
       <c r="B685" s="19"/>
       <c r="C685" s="20"/>
@@ -22766,7 +22707,7 @@
       <c r="Y685" s="2"/>
       <c r="Z685" s="2"/>
     </row>
-    <row r="686" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A686" s="18"/>
       <c r="B686" s="19"/>
       <c r="C686" s="20"/>
@@ -22794,7 +22735,7 @@
       <c r="Y686" s="2"/>
       <c r="Z686" s="2"/>
     </row>
-    <row r="687" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A687" s="18"/>
       <c r="B687" s="19"/>
       <c r="C687" s="20"/>
@@ -22822,7 +22763,7 @@
       <c r="Y687" s="2"/>
       <c r="Z687" s="2"/>
     </row>
-    <row r="688" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A688" s="18"/>
       <c r="B688" s="19"/>
       <c r="C688" s="20"/>
@@ -22850,7 +22791,7 @@
       <c r="Y688" s="2"/>
       <c r="Z688" s="2"/>
     </row>
-    <row r="689" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A689" s="18"/>
       <c r="B689" s="19"/>
       <c r="C689" s="20"/>
@@ -22878,7 +22819,7 @@
       <c r="Y689" s="2"/>
       <c r="Z689" s="2"/>
     </row>
-    <row r="690" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A690" s="18"/>
       <c r="B690" s="19"/>
       <c r="C690" s="20"/>
@@ -22906,7 +22847,7 @@
       <c r="Y690" s="2"/>
       <c r="Z690" s="2"/>
     </row>
-    <row r="691" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A691" s="18"/>
       <c r="B691" s="19"/>
       <c r="C691" s="20"/>
@@ -22934,7 +22875,7 @@
       <c r="Y691" s="2"/>
       <c r="Z691" s="2"/>
     </row>
-    <row r="692" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A692" s="18"/>
       <c r="B692" s="19"/>
       <c r="C692" s="20"/>
@@ -22962,7 +22903,7 @@
       <c r="Y692" s="2"/>
       <c r="Z692" s="2"/>
     </row>
-    <row r="693" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A693" s="18"/>
       <c r="B693" s="19"/>
       <c r="C693" s="20"/>
@@ -22990,7 +22931,7 @@
       <c r="Y693" s="2"/>
       <c r="Z693" s="2"/>
     </row>
-    <row r="694" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A694" s="18"/>
       <c r="B694" s="19"/>
       <c r="C694" s="20"/>
@@ -23018,7 +22959,7 @@
       <c r="Y694" s="2"/>
       <c r="Z694" s="2"/>
     </row>
-    <row r="695" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A695" s="18"/>
       <c r="B695" s="19"/>
       <c r="C695" s="20"/>
@@ -23046,7 +22987,7 @@
       <c r="Y695" s="2"/>
       <c r="Z695" s="2"/>
     </row>
-    <row r="696" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A696" s="18"/>
       <c r="B696" s="19"/>
       <c r="C696" s="20"/>
@@ -23074,7 +23015,7 @@
       <c r="Y696" s="2"/>
       <c r="Z696" s="2"/>
     </row>
-    <row r="697" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A697" s="18"/>
       <c r="B697" s="19"/>
       <c r="C697" s="20"/>
@@ -23102,7 +23043,7 @@
       <c r="Y697" s="2"/>
       <c r="Z697" s="2"/>
     </row>
-    <row r="698" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A698" s="18"/>
       <c r="B698" s="19"/>
       <c r="C698" s="20"/>
@@ -23130,7 +23071,7 @@
       <c r="Y698" s="2"/>
       <c r="Z698" s="2"/>
     </row>
-    <row r="699" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A699" s="18"/>
       <c r="B699" s="19"/>
       <c r="C699" s="20"/>
@@ -23158,7 +23099,7 @@
       <c r="Y699" s="2"/>
       <c r="Z699" s="2"/>
     </row>
-    <row r="700" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A700" s="18"/>
       <c r="B700" s="19"/>
       <c r="C700" s="20"/>
@@ -23186,7 +23127,7 @@
       <c r="Y700" s="2"/>
       <c r="Z700" s="2"/>
     </row>
-    <row r="701" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A701" s="18"/>
       <c r="B701" s="19"/>
       <c r="C701" s="20"/>
@@ -23214,7 +23155,7 @@
       <c r="Y701" s="2"/>
       <c r="Z701" s="2"/>
     </row>
-    <row r="702" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A702" s="18"/>
       <c r="B702" s="19"/>
       <c r="C702" s="20"/>
@@ -23242,7 +23183,7 @@
       <c r="Y702" s="2"/>
       <c r="Z702" s="2"/>
     </row>
-    <row r="703" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A703" s="18"/>
       <c r="B703" s="19"/>
       <c r="C703" s="20"/>
@@ -23270,7 +23211,7 @@
       <c r="Y703" s="2"/>
       <c r="Z703" s="2"/>
     </row>
-    <row r="704" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A704" s="18"/>
       <c r="B704" s="19"/>
       <c r="C704" s="20"/>
@@ -23298,7 +23239,7 @@
       <c r="Y704" s="2"/>
       <c r="Z704" s="2"/>
     </row>
-    <row r="705" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A705" s="18"/>
       <c r="B705" s="19"/>
       <c r="C705" s="20"/>
@@ -23326,7 +23267,7 @@
       <c r="Y705" s="2"/>
       <c r="Z705" s="2"/>
     </row>
-    <row r="706" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A706" s="18"/>
       <c r="B706" s="19"/>
       <c r="C706" s="20"/>
@@ -23354,7 +23295,7 @@
       <c r="Y706" s="2"/>
       <c r="Z706" s="2"/>
     </row>
-    <row r="707" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A707" s="18"/>
       <c r="B707" s="19"/>
       <c r="C707" s="20"/>
@@ -23382,7 +23323,7 @@
       <c r="Y707" s="2"/>
       <c r="Z707" s="2"/>
     </row>
-    <row r="708" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A708" s="18"/>
       <c r="B708" s="19"/>
       <c r="C708" s="20"/>
@@ -23410,7 +23351,7 @@
       <c r="Y708" s="2"/>
       <c r="Z708" s="2"/>
     </row>
-    <row r="709" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A709" s="18"/>
       <c r="B709" s="19"/>
       <c r="C709" s="20"/>
@@ -23438,7 +23379,7 @@
       <c r="Y709" s="2"/>
       <c r="Z709" s="2"/>
     </row>
-    <row r="710" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A710" s="18"/>
       <c r="B710" s="19"/>
       <c r="C710" s="20"/>
@@ -23466,7 +23407,7 @@
       <c r="Y710" s="2"/>
       <c r="Z710" s="2"/>
     </row>
-    <row r="711" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A711" s="18"/>
       <c r="B711" s="19"/>
       <c r="C711" s="20"/>
@@ -23494,7 +23435,7 @@
       <c r="Y711" s="2"/>
       <c r="Z711" s="2"/>
     </row>
-    <row r="712" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A712" s="18"/>
       <c r="B712" s="19"/>
       <c r="C712" s="20"/>
@@ -23522,7 +23463,7 @@
       <c r="Y712" s="2"/>
       <c r="Z712" s="2"/>
     </row>
-    <row r="713" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A713" s="18"/>
       <c r="B713" s="19"/>
       <c r="C713" s="20"/>
@@ -23550,7 +23491,7 @@
       <c r="Y713" s="2"/>
       <c r="Z713" s="2"/>
     </row>
-    <row r="714" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A714" s="18"/>
       <c r="B714" s="19"/>
       <c r="C714" s="20"/>
@@ -23578,7 +23519,7 @@
       <c r="Y714" s="2"/>
       <c r="Z714" s="2"/>
     </row>
-    <row r="715" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A715" s="18"/>
       <c r="B715" s="19"/>
       <c r="C715" s="20"/>
@@ -23606,7 +23547,7 @@
       <c r="Y715" s="2"/>
       <c r="Z715" s="2"/>
     </row>
-    <row r="716" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A716" s="18"/>
       <c r="B716" s="19"/>
       <c r="C716" s="20"/>
@@ -23634,7 +23575,7 @@
       <c r="Y716" s="2"/>
       <c r="Z716" s="2"/>
     </row>
-    <row r="717" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A717" s="18"/>
       <c r="B717" s="19"/>
       <c r="C717" s="20"/>
@@ -23662,7 +23603,7 @@
       <c r="Y717" s="2"/>
       <c r="Z717" s="2"/>
     </row>
-    <row r="718" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A718" s="18"/>
       <c r="B718" s="19"/>
       <c r="C718" s="20"/>
@@ -23690,7 +23631,7 @@
       <c r="Y718" s="2"/>
       <c r="Z718" s="2"/>
     </row>
-    <row r="719" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A719" s="18"/>
       <c r="B719" s="19"/>
       <c r="C719" s="20"/>
@@ -23718,7 +23659,7 @@
       <c r="Y719" s="2"/>
       <c r="Z719" s="2"/>
     </row>
-    <row r="720" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A720" s="18"/>
       <c r="B720" s="19"/>
       <c r="C720" s="20"/>
@@ -23746,7 +23687,7 @@
       <c r="Y720" s="2"/>
       <c r="Z720" s="2"/>
     </row>
-    <row r="721" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A721" s="18"/>
       <c r="B721" s="19"/>
       <c r="C721" s="20"/>
@@ -23774,7 +23715,7 @@
       <c r="Y721" s="2"/>
       <c r="Z721" s="2"/>
     </row>
-    <row r="722" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A722" s="18"/>
       <c r="B722" s="19"/>
       <c r="C722" s="20"/>
@@ -23802,7 +23743,7 @@
       <c r="Y722" s="2"/>
       <c r="Z722" s="2"/>
     </row>
-    <row r="723" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A723" s="18"/>
       <c r="B723" s="19"/>
       <c r="C723" s="20"/>
@@ -23830,7 +23771,7 @@
       <c r="Y723" s="2"/>
       <c r="Z723" s="2"/>
     </row>
-    <row r="724" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A724" s="18"/>
       <c r="B724" s="19"/>
       <c r="C724" s="20"/>
@@ -23858,7 +23799,7 @@
       <c r="Y724" s="2"/>
       <c r="Z724" s="2"/>
     </row>
-    <row r="725" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A725" s="18"/>
       <c r="B725" s="19"/>
       <c r="C725" s="20"/>
@@ -23886,7 +23827,7 @@
       <c r="Y725" s="2"/>
       <c r="Z725" s="2"/>
     </row>
-    <row r="726" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A726" s="18"/>
       <c r="B726" s="19"/>
       <c r="C726" s="20"/>
@@ -23914,7 +23855,7 @@
       <c r="Y726" s="2"/>
       <c r="Z726" s="2"/>
     </row>
-    <row r="727" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A727" s="18"/>
       <c r="B727" s="19"/>
       <c r="C727" s="20"/>
@@ -23942,7 +23883,7 @@
       <c r="Y727" s="2"/>
       <c r="Z727" s="2"/>
     </row>
-    <row r="728" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A728" s="18"/>
       <c r="B728" s="19"/>
       <c r="C728" s="20"/>
@@ -23970,7 +23911,7 @@
       <c r="Y728" s="2"/>
       <c r="Z728" s="2"/>
     </row>
-    <row r="729" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A729" s="18"/>
       <c r="B729" s="19"/>
       <c r="C729" s="20"/>
@@ -23998,7 +23939,7 @@
       <c r="Y729" s="2"/>
       <c r="Z729" s="2"/>
     </row>
-    <row r="730" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A730" s="18"/>
       <c r="B730" s="19"/>
       <c r="C730" s="20"/>
@@ -24026,7 +23967,7 @@
       <c r="Y730" s="2"/>
       <c r="Z730" s="2"/>
     </row>
-    <row r="731" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A731" s="18"/>
       <c r="B731" s="19"/>
       <c r="C731" s="20"/>
@@ -24054,7 +23995,7 @@
       <c r="Y731" s="2"/>
       <c r="Z731" s="2"/>
     </row>
-    <row r="732" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A732" s="18"/>
       <c r="B732" s="19"/>
       <c r="C732" s="20"/>
@@ -24082,7 +24023,7 @@
       <c r="Y732" s="2"/>
       <c r="Z732" s="2"/>
     </row>
-    <row r="733" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A733" s="18"/>
       <c r="B733" s="19"/>
       <c r="C733" s="20"/>
@@ -24110,7 +24051,7 @@
       <c r="Y733" s="2"/>
       <c r="Z733" s="2"/>
     </row>
-    <row r="734" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A734" s="18"/>
       <c r="B734" s="19"/>
       <c r="C734" s="20"/>
@@ -24138,7 +24079,7 @@
       <c r="Y734" s="2"/>
       <c r="Z734" s="2"/>
     </row>
-    <row r="735" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A735" s="18"/>
       <c r="B735" s="19"/>
       <c r="C735" s="20"/>
@@ -24166,7 +24107,7 @@
       <c r="Y735" s="2"/>
       <c r="Z735" s="2"/>
     </row>
-    <row r="736" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A736" s="18"/>
       <c r="B736" s="19"/>
       <c r="C736" s="20"/>
@@ -24194,7 +24135,7 @@
       <c r="Y736" s="2"/>
       <c r="Z736" s="2"/>
     </row>
-    <row r="737" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A737" s="18"/>
       <c r="B737" s="19"/>
       <c r="C737" s="20"/>
@@ -24222,7 +24163,7 @@
       <c r="Y737" s="2"/>
       <c r="Z737" s="2"/>
     </row>
-    <row r="738" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A738" s="18"/>
       <c r="B738" s="19"/>
       <c r="C738" s="20"/>
@@ -24250,7 +24191,7 @@
       <c r="Y738" s="2"/>
       <c r="Z738" s="2"/>
     </row>
-    <row r="739" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A739" s="18"/>
       <c r="B739" s="19"/>
       <c r="C739" s="20"/>
@@ -24278,7 +24219,7 @@
       <c r="Y739" s="2"/>
       <c r="Z739" s="2"/>
     </row>
-    <row r="740" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A740" s="18"/>
       <c r="B740" s="19"/>
       <c r="C740" s="20"/>
@@ -24306,7 +24247,7 @@
       <c r="Y740" s="2"/>
       <c r="Z740" s="2"/>
     </row>
-    <row r="741" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A741" s="18"/>
       <c r="B741" s="19"/>
       <c r="C741" s="20"/>
@@ -24334,7 +24275,7 @@
       <c r="Y741" s="2"/>
       <c r="Z741" s="2"/>
     </row>
-    <row r="742" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A742" s="18"/>
       <c r="B742" s="19"/>
       <c r="C742" s="20"/>
@@ -24362,7 +24303,7 @@
       <c r="Y742" s="2"/>
       <c r="Z742" s="2"/>
     </row>
-    <row r="743" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A743" s="18"/>
       <c r="B743" s="19"/>
       <c r="C743" s="20"/>
@@ -24390,7 +24331,7 @@
       <c r="Y743" s="2"/>
       <c r="Z743" s="2"/>
     </row>
-    <row r="744" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A744" s="18"/>
       <c r="B744" s="19"/>
       <c r="C744" s="20"/>
@@ -24418,7 +24359,7 @@
       <c r="Y744" s="2"/>
       <c r="Z744" s="2"/>
     </row>
-    <row r="745" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A745" s="18"/>
       <c r="B745" s="19"/>
       <c r="C745" s="20"/>
@@ -24446,7 +24387,7 @@
       <c r="Y745" s="2"/>
       <c r="Z745" s="2"/>
     </row>
-    <row r="746" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A746" s="18"/>
       <c r="B746" s="19"/>
       <c r="C746" s="20"/>
@@ -24474,7 +24415,7 @@
       <c r="Y746" s="2"/>
       <c r="Z746" s="2"/>
     </row>
-    <row r="747" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A747" s="18"/>
       <c r="B747" s="19"/>
       <c r="C747" s="20"/>
@@ -24502,7 +24443,7 @@
       <c r="Y747" s="2"/>
       <c r="Z747" s="2"/>
     </row>
-    <row r="748" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A748" s="18"/>
       <c r="B748" s="19"/>
       <c r="C748" s="20"/>
@@ -24530,7 +24471,7 @@
       <c r="Y748" s="2"/>
       <c r="Z748" s="2"/>
     </row>
-    <row r="749" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A749" s="18"/>
       <c r="B749" s="19"/>
       <c r="C749" s="20"/>
@@ -24558,7 +24499,7 @@
       <c r="Y749" s="2"/>
       <c r="Z749" s="2"/>
     </row>
-    <row r="750" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A750" s="18"/>
       <c r="B750" s="19"/>
       <c r="C750" s="20"/>
@@ -24586,7 +24527,7 @@
       <c r="Y750" s="2"/>
       <c r="Z750" s="2"/>
     </row>
-    <row r="751" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A751" s="18"/>
       <c r="B751" s="19"/>
       <c r="C751" s="20"/>
@@ -24614,7 +24555,7 @@
       <c r="Y751" s="2"/>
       <c r="Z751" s="2"/>
     </row>
-    <row r="752" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A752" s="18"/>
       <c r="B752" s="19"/>
       <c r="C752" s="20"/>
@@ -24642,7 +24583,7 @@
       <c r="Y752" s="2"/>
       <c r="Z752" s="2"/>
     </row>
-    <row r="753" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A753" s="18"/>
       <c r="B753" s="19"/>
       <c r="C753" s="20"/>
@@ -24670,7 +24611,7 @@
       <c r="Y753" s="2"/>
       <c r="Z753" s="2"/>
     </row>
-    <row r="754" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A754" s="18"/>
       <c r="B754" s="19"/>
       <c r="C754" s="20"/>
@@ -24698,7 +24639,7 @@
       <c r="Y754" s="2"/>
       <c r="Z754" s="2"/>
     </row>
-    <row r="755" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A755" s="18"/>
       <c r="B755" s="19"/>
       <c r="C755" s="20"/>
@@ -24726,7 +24667,7 @@
       <c r="Y755" s="2"/>
       <c r="Z755" s="2"/>
     </row>
-    <row r="756" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A756" s="18"/>
       <c r="B756" s="19"/>
       <c r="C756" s="20"/>
@@ -24754,7 +24695,7 @@
       <c r="Y756" s="2"/>
       <c r="Z756" s="2"/>
     </row>
-    <row r="757" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A757" s="18"/>
       <c r="B757" s="19"/>
       <c r="C757" s="20"/>
@@ -24782,7 +24723,7 @@
       <c r="Y757" s="2"/>
       <c r="Z757" s="2"/>
     </row>
-    <row r="758" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A758" s="18"/>
       <c r="B758" s="19"/>
       <c r="C758" s="20"/>
@@ -24810,7 +24751,7 @@
       <c r="Y758" s="2"/>
       <c r="Z758" s="2"/>
     </row>
-    <row r="759" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A759" s="18"/>
       <c r="B759" s="19"/>
       <c r="C759" s="20"/>
@@ -24838,7 +24779,7 @@
       <c r="Y759" s="2"/>
       <c r="Z759" s="2"/>
     </row>
-    <row r="760" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A760" s="18"/>
       <c r="B760" s="19"/>
       <c r="C760" s="20"/>
@@ -24866,7 +24807,7 @@
       <c r="Y760" s="2"/>
       <c r="Z760" s="2"/>
     </row>
-    <row r="761" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A761" s="18"/>
       <c r="B761" s="19"/>
       <c r="C761" s="20"/>
@@ -24894,7 +24835,7 @@
       <c r="Y761" s="2"/>
       <c r="Z761" s="2"/>
     </row>
-    <row r="762" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A762" s="18"/>
       <c r="B762" s="19"/>
       <c r="C762" s="20"/>
@@ -24922,7 +24863,7 @@
       <c r="Y762" s="2"/>
       <c r="Z762" s="2"/>
     </row>
-    <row r="763" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A763" s="18"/>
       <c r="B763" s="19"/>
       <c r="C763" s="20"/>
@@ -24950,7 +24891,7 @@
       <c r="Y763" s="2"/>
       <c r="Z763" s="2"/>
     </row>
-    <row r="764" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A764" s="18"/>
       <c r="B764" s="19"/>
       <c r="C764" s="20"/>
@@ -24978,7 +24919,7 @@
       <c r="Y764" s="2"/>
       <c r="Z764" s="2"/>
     </row>
-    <row r="765" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A765" s="18"/>
       <c r="B765" s="19"/>
       <c r="C765" s="20"/>
@@ -25006,7 +24947,7 @@
       <c r="Y765" s="2"/>
       <c r="Z765" s="2"/>
     </row>
-    <row r="766" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A766" s="18"/>
       <c r="B766" s="19"/>
       <c r="C766" s="20"/>
@@ -25034,7 +24975,7 @@
       <c r="Y766" s="2"/>
       <c r="Z766" s="2"/>
     </row>
-    <row r="767" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A767" s="18"/>
       <c r="B767" s="19"/>
       <c r="C767" s="20"/>
@@ -25062,7 +25003,7 @@
       <c r="Y767" s="2"/>
       <c r="Z767" s="2"/>
     </row>
-    <row r="768" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A768" s="18"/>
       <c r="B768" s="19"/>
       <c r="C768" s="20"/>
@@ -25090,7 +25031,7 @@
       <c r="Y768" s="2"/>
       <c r="Z768" s="2"/>
     </row>
-    <row r="769" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A769" s="18"/>
       <c r="B769" s="19"/>
       <c r="C769" s="20"/>
@@ -25118,7 +25059,7 @@
       <c r="Y769" s="2"/>
       <c r="Z769" s="2"/>
     </row>
-    <row r="770" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A770" s="18"/>
       <c r="B770" s="19"/>
       <c r="C770" s="20"/>
@@ -25146,7 +25087,7 @@
       <c r="Y770" s="2"/>
       <c r="Z770" s="2"/>
     </row>
-    <row r="771" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A771" s="18"/>
       <c r="B771" s="19"/>
       <c r="C771" s="20"/>
@@ -25174,7 +25115,7 @@
       <c r="Y771" s="2"/>
       <c r="Z771" s="2"/>
     </row>
-    <row r="772" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A772" s="18"/>
       <c r="B772" s="19"/>
       <c r="C772" s="20"/>
@@ -25202,7 +25143,7 @@
       <c r="Y772" s="2"/>
       <c r="Z772" s="2"/>
     </row>
-    <row r="773" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A773" s="18"/>
       <c r="B773" s="19"/>
       <c r="C773" s="20"/>
@@ -25230,7 +25171,7 @@
       <c r="Y773" s="2"/>
       <c r="Z773" s="2"/>
     </row>
-    <row r="774" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="774" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A774" s="18"/>
       <c r="B774" s="19"/>
       <c r="C774" s="20"/>
@@ -25258,7 +25199,7 @@
       <c r="Y774" s="2"/>
       <c r="Z774" s="2"/>
     </row>
-    <row r="775" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A775" s="18"/>
       <c r="B775" s="19"/>
       <c r="C775" s="20"/>
@@ -25286,7 +25227,7 @@
       <c r="Y775" s="2"/>
       <c r="Z775" s="2"/>
     </row>
-    <row r="776" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="776" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A776" s="18"/>
       <c r="B776" s="19"/>
       <c r="C776" s="20"/>
@@ -25314,7 +25255,7 @@
       <c r="Y776" s="2"/>
       <c r="Z776" s="2"/>
     </row>
-    <row r="777" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A777" s="18"/>
       <c r="B777" s="19"/>
       <c r="C777" s="20"/>
@@ -25342,7 +25283,7 @@
       <c r="Y777" s="2"/>
       <c r="Z777" s="2"/>
     </row>
-    <row r="778" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="778" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A778" s="18"/>
       <c r="B778" s="19"/>
       <c r="C778" s="20"/>
@@ -25370,7 +25311,7 @@
       <c r="Y778" s="2"/>
       <c r="Z778" s="2"/>
     </row>
-    <row r="779" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A779" s="18"/>
       <c r="B779" s="19"/>
       <c r="C779" s="20"/>
@@ -25398,7 +25339,7 @@
       <c r="Y779" s="2"/>
       <c r="Z779" s="2"/>
     </row>
-    <row r="780" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A780" s="18"/>
       <c r="B780" s="19"/>
       <c r="C780" s="20"/>
@@ -25426,7 +25367,7 @@
       <c r="Y780" s="2"/>
       <c r="Z780" s="2"/>
     </row>
-    <row r="781" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A781" s="18"/>
       <c r="B781" s="19"/>
       <c r="C781" s="20"/>
@@ -25454,7 +25395,7 @@
       <c r="Y781" s="2"/>
       <c r="Z781" s="2"/>
     </row>
-    <row r="782" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="782" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A782" s="18"/>
       <c r="B782" s="19"/>
       <c r="C782" s="20"/>
@@ -25482,7 +25423,7 @@
       <c r="Y782" s="2"/>
       <c r="Z782" s="2"/>
     </row>
-    <row r="783" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="783" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A783" s="18"/>
       <c r="B783" s="19"/>
       <c r="C783" s="20"/>
@@ -25510,7 +25451,7 @@
       <c r="Y783" s="2"/>
       <c r="Z783" s="2"/>
     </row>
-    <row r="784" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="784" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A784" s="18"/>
       <c r="B784" s="19"/>
       <c r="C784" s="20"/>
@@ -25538,7 +25479,7 @@
       <c r="Y784" s="2"/>
       <c r="Z784" s="2"/>
     </row>
-    <row r="785" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="785" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A785" s="18"/>
       <c r="B785" s="19"/>
       <c r="C785" s="20"/>
@@ -25566,7 +25507,7 @@
       <c r="Y785" s="2"/>
       <c r="Z785" s="2"/>
     </row>
-    <row r="786" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="786" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A786" s="18"/>
       <c r="B786" s="19"/>
       <c r="C786" s="20"/>
@@ -25594,7 +25535,7 @@
       <c r="Y786" s="2"/>
       <c r="Z786" s="2"/>
     </row>
-    <row r="787" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="787" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A787" s="18"/>
       <c r="B787" s="19"/>
       <c r="C787" s="20"/>
@@ -25622,7 +25563,7 @@
       <c r="Y787" s="2"/>
       <c r="Z787" s="2"/>
     </row>
-    <row r="788" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="788" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A788" s="18"/>
       <c r="B788" s="19"/>
       <c r="C788" s="20"/>
@@ -25650,7 +25591,7 @@
       <c r="Y788" s="2"/>
       <c r="Z788" s="2"/>
     </row>
-    <row r="789" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="789" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A789" s="18"/>
       <c r="B789" s="19"/>
       <c r="C789" s="20"/>
@@ -25678,7 +25619,7 @@
       <c r="Y789" s="2"/>
       <c r="Z789" s="2"/>
     </row>
-    <row r="790" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="790" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A790" s="18"/>
       <c r="B790" s="19"/>
       <c r="C790" s="20"/>
@@ -25706,7 +25647,7 @@
       <c r="Y790" s="2"/>
       <c r="Z790" s="2"/>
     </row>
-    <row r="791" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="791" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A791" s="18"/>
       <c r="B791" s="19"/>
       <c r="C791" s="20"/>
@@ -25734,7 +25675,7 @@
       <c r="Y791" s="2"/>
       <c r="Z791" s="2"/>
     </row>
-    <row r="792" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="792" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A792" s="18"/>
       <c r="B792" s="19"/>
       <c r="C792" s="20"/>
@@ -25762,7 +25703,7 @@
       <c r="Y792" s="2"/>
       <c r="Z792" s="2"/>
     </row>
-    <row r="793" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="793" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A793" s="18"/>
       <c r="B793" s="19"/>
       <c r="C793" s="20"/>
@@ -25790,7 +25731,7 @@
       <c r="Y793" s="2"/>
       <c r="Z793" s="2"/>
     </row>
-    <row r="794" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="794" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A794" s="18"/>
       <c r="B794" s="19"/>
       <c r="C794" s="20"/>
@@ -25818,7 +25759,7 @@
       <c r="Y794" s="2"/>
       <c r="Z794" s="2"/>
     </row>
-    <row r="795" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="795" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A795" s="18"/>
       <c r="B795" s="19"/>
       <c r="C795" s="20"/>
@@ -25846,7 +25787,7 @@
       <c r="Y795" s="2"/>
       <c r="Z795" s="2"/>
     </row>
-    <row r="796" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="796" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A796" s="18"/>
       <c r="B796" s="19"/>
       <c r="C796" s="20"/>
@@ -25874,7 +25815,7 @@
       <c r="Y796" s="2"/>
       <c r="Z796" s="2"/>
     </row>
-    <row r="797" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="797" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A797" s="18"/>
       <c r="B797" s="19"/>
       <c r="C797" s="20"/>
@@ -25902,7 +25843,7 @@
       <c r="Y797" s="2"/>
       <c r="Z797" s="2"/>
     </row>
-    <row r="798" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="798" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A798" s="18"/>
       <c r="B798" s="19"/>
       <c r="C798" s="20"/>
@@ -25930,7 +25871,7 @@
       <c r="Y798" s="2"/>
       <c r="Z798" s="2"/>
     </row>
-    <row r="799" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="799" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A799" s="18"/>
       <c r="B799" s="19"/>
       <c r="C799" s="20"/>
@@ -25958,7 +25899,7 @@
       <c r="Y799" s="2"/>
       <c r="Z799" s="2"/>
     </row>
-    <row r="800" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="800" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A800" s="18"/>
       <c r="B800" s="19"/>
       <c r="C800" s="20"/>
@@ -25986,7 +25927,7 @@
       <c r="Y800" s="2"/>
       <c r="Z800" s="2"/>
     </row>
-    <row r="801" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="801" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A801" s="18"/>
       <c r="B801" s="19"/>
       <c r="C801" s="20"/>
@@ -26014,7 +25955,7 @@
       <c r="Y801" s="2"/>
       <c r="Z801" s="2"/>
     </row>
-    <row r="802" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="802" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A802" s="18"/>
       <c r="B802" s="19"/>
       <c r="C802" s="20"/>
@@ -26042,7 +25983,7 @@
       <c r="Y802" s="2"/>
       <c r="Z802" s="2"/>
     </row>
-    <row r="803" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="803" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A803" s="18"/>
       <c r="B803" s="19"/>
       <c r="C803" s="20"/>
@@ -26070,7 +26011,7 @@
       <c r="Y803" s="2"/>
       <c r="Z803" s="2"/>
     </row>
-    <row r="804" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="804" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A804" s="18"/>
       <c r="B804" s="19"/>
       <c r="C804" s="20"/>
@@ -26098,7 +26039,7 @@
       <c r="Y804" s="2"/>
       <c r="Z804" s="2"/>
     </row>
-    <row r="805" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="805" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A805" s="18"/>
       <c r="B805" s="19"/>
       <c r="C805" s="20"/>
@@ -26126,7 +26067,7 @@
       <c r="Y805" s="2"/>
       <c r="Z805" s="2"/>
     </row>
-    <row r="806" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="806" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A806" s="18"/>
       <c r="B806" s="19"/>
       <c r="C806" s="20"/>
@@ -26154,7 +26095,7 @@
       <c r="Y806" s="2"/>
       <c r="Z806" s="2"/>
     </row>
-    <row r="807" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="807" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A807" s="18"/>
       <c r="B807" s="19"/>
       <c r="C807" s="20"/>
@@ -26182,7 +26123,7 @@
       <c r="Y807" s="2"/>
       <c r="Z807" s="2"/>
     </row>
-    <row r="808" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="808" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A808" s="18"/>
       <c r="B808" s="19"/>
       <c r="C808" s="20"/>
@@ -26210,7 +26151,7 @@
       <c r="Y808" s="2"/>
       <c r="Z808" s="2"/>
     </row>
-    <row r="809" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="809" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A809" s="18"/>
       <c r="B809" s="19"/>
       <c r="C809" s="20"/>
@@ -26238,7 +26179,7 @@
       <c r="Y809" s="2"/>
       <c r="Z809" s="2"/>
     </row>
-    <row r="810" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="810" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A810" s="18"/>
       <c r="B810" s="19"/>
       <c r="C810" s="20"/>
@@ -26266,7 +26207,7 @@
       <c r="Y810" s="2"/>
       <c r="Z810" s="2"/>
     </row>
-    <row r="811" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="811" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A811" s="18"/>
       <c r="B811" s="19"/>
       <c r="C811" s="20"/>
@@ -26294,7 +26235,7 @@
       <c r="Y811" s="2"/>
       <c r="Z811" s="2"/>
     </row>
-    <row r="812" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="812" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A812" s="18"/>
       <c r="B812" s="19"/>
       <c r="C812" s="20"/>
@@ -26322,7 +26263,7 @@
       <c r="Y812" s="2"/>
       <c r="Z812" s="2"/>
     </row>
-    <row r="813" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="813" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A813" s="18"/>
       <c r="B813" s="19"/>
       <c r="C813" s="20"/>
@@ -26350,7 +26291,7 @@
       <c r="Y813" s="2"/>
       <c r="Z813" s="2"/>
     </row>
-    <row r="814" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="814" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A814" s="18"/>
       <c r="B814" s="19"/>
       <c r="C814" s="20"/>
@@ -26378,7 +26319,7 @@
       <c r="Y814" s="2"/>
       <c r="Z814" s="2"/>
     </row>
-    <row r="815" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="815" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A815" s="18"/>
       <c r="B815" s="19"/>
       <c r="C815" s="20"/>
@@ -26406,7 +26347,7 @@
       <c r="Y815" s="2"/>
       <c r="Z815" s="2"/>
     </row>
-    <row r="816" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="816" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A816" s="18"/>
       <c r="B816" s="19"/>
       <c r="C816" s="20"/>
@@ -26434,7 +26375,7 @@
       <c r="Y816" s="2"/>
       <c r="Z816" s="2"/>
     </row>
-    <row r="817" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="817" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A817" s="18"/>
       <c r="B817" s="19"/>
       <c r="C817" s="20"/>
@@ -26462,7 +26403,7 @@
       <c r="Y817" s="2"/>
       <c r="Z817" s="2"/>
     </row>
-    <row r="818" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="818" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A818" s="18"/>
       <c r="B818" s="19"/>
       <c r="C818" s="20"/>
@@ -26490,7 +26431,7 @@
       <c r="Y818" s="2"/>
       <c r="Z818" s="2"/>
     </row>
-    <row r="819" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="819" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A819" s="18"/>
       <c r="B819" s="19"/>
       <c r="C819" s="20"/>
@@ -26518,7 +26459,7 @@
       <c r="Y819" s="2"/>
       <c r="Z819" s="2"/>
     </row>
-    <row r="820" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="820" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A820" s="18"/>
       <c r="B820" s="19"/>
       <c r="C820" s="20"/>
@@ -26546,7 +26487,7 @@
       <c r="Y820" s="2"/>
       <c r="Z820" s="2"/>
     </row>
-    <row r="821" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="821" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A821" s="18"/>
       <c r="B821" s="19"/>
       <c r="C821" s="20"/>
@@ -26574,7 +26515,7 @@
       <c r="Y821" s="2"/>
       <c r="Z821" s="2"/>
     </row>
-    <row r="822" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="822" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A822" s="18"/>
       <c r="B822" s="19"/>
       <c r="C822" s="20"/>
@@ -26602,7 +26543,7 @@
       <c r="Y822" s="2"/>
       <c r="Z822" s="2"/>
     </row>
-    <row r="823" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="823" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A823" s="18"/>
       <c r="B823" s="19"/>
       <c r="C823" s="20"/>
@@ -26630,7 +26571,7 @@
       <c r="Y823" s="2"/>
       <c r="Z823" s="2"/>
     </row>
-    <row r="824" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="824" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A824" s="18"/>
       <c r="B824" s="19"/>
       <c r="C824" s="20"/>
@@ -26658,7 +26599,7 @@
       <c r="Y824" s="2"/>
       <c r="Z824" s="2"/>
     </row>
-    <row r="825" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="825" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A825" s="18"/>
       <c r="B825" s="19"/>
       <c r="C825" s="20"/>
@@ -26686,7 +26627,7 @@
       <c r="Y825" s="2"/>
       <c r="Z825" s="2"/>
     </row>
-    <row r="826" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="826" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A826" s="18"/>
       <c r="B826" s="19"/>
       <c r="C826" s="20"/>
@@ -26714,7 +26655,7 @@
       <c r="Y826" s="2"/>
       <c r="Z826" s="2"/>
     </row>
-    <row r="827" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="827" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A827" s="18"/>
       <c r="B827" s="19"/>
       <c r="C827" s="20"/>
@@ -26742,7 +26683,7 @@
       <c r="Y827" s="2"/>
       <c r="Z827" s="2"/>
     </row>
-    <row r="828" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="828" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A828" s="18"/>
       <c r="B828" s="19"/>
       <c r="C828" s="20"/>
@@ -26770,7 +26711,7 @@
       <c r="Y828" s="2"/>
       <c r="Z828" s="2"/>
     </row>
-    <row r="829" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="829" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A829" s="18"/>
       <c r="B829" s="19"/>
       <c r="C829" s="20"/>
@@ -26798,7 +26739,7 @@
       <c r="Y829" s="2"/>
       <c r="Z829" s="2"/>
     </row>
-    <row r="830" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="830" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A830" s="18"/>
       <c r="B830" s="19"/>
       <c r="C830" s="20"/>
@@ -26826,7 +26767,7 @@
       <c r="Y830" s="2"/>
       <c r="Z830" s="2"/>
     </row>
-    <row r="831" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="831" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A831" s="18"/>
       <c r="B831" s="19"/>
       <c r="C831" s="20"/>
@@ -26854,7 +26795,7 @@
       <c r="Y831" s="2"/>
       <c r="Z831" s="2"/>
     </row>
-    <row r="832" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="832" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A832" s="18"/>
       <c r="B832" s="19"/>
       <c r="C832" s="20"/>
@@ -26882,7 +26823,7 @@
       <c r="Y832" s="2"/>
       <c r="Z832" s="2"/>
     </row>
-    <row r="833" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="833" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A833" s="18"/>
       <c r="B833" s="19"/>
       <c r="C833" s="20"/>
@@ -26910,7 +26851,7 @@
       <c r="Y833" s="2"/>
       <c r="Z833" s="2"/>
     </row>
-    <row r="834" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="834" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A834" s="18"/>
       <c r="B834" s="19"/>
       <c r="C834" s="20"/>
@@ -26938,7 +26879,7 @@
       <c r="Y834" s="2"/>
       <c r="Z834" s="2"/>
     </row>
-    <row r="835" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="835" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A835" s="18"/>
       <c r="B835" s="19"/>
       <c r="C835" s="20"/>
@@ -26966,7 +26907,7 @@
       <c r="Y835" s="2"/>
       <c r="Z835" s="2"/>
     </row>
-    <row r="836" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="836" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A836" s="18"/>
       <c r="B836" s="19"/>
       <c r="C836" s="20"/>
@@ -26994,7 +26935,7 @@
       <c r="Y836" s="2"/>
       <c r="Z836" s="2"/>
     </row>
-    <row r="837" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="837" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A837" s="18"/>
       <c r="B837" s="19"/>
       <c r="C837" s="20"/>
@@ -27022,7 +26963,7 @@
       <c r="Y837" s="2"/>
       <c r="Z837" s="2"/>
     </row>
-    <row r="838" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="838" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A838" s="18"/>
       <c r="B838" s="19"/>
       <c r="C838" s="20"/>
@@ -27050,7 +26991,7 @@
       <c r="Y838" s="2"/>
       <c r="Z838" s="2"/>
     </row>
-    <row r="839" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="839" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A839" s="18"/>
       <c r="B839" s="19"/>
       <c r="C839" s="20"/>
@@ -27078,7 +27019,7 @@
       <c r="Y839" s="2"/>
       <c r="Z839" s="2"/>
     </row>
-    <row r="840" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="840" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A840" s="18"/>
       <c r="B840" s="19"/>
       <c r="C840" s="20"/>
@@ -27106,7 +27047,7 @@
       <c r="Y840" s="2"/>
       <c r="Z840" s="2"/>
     </row>
-    <row r="841" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="841" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A841" s="18"/>
       <c r="B841" s="19"/>
       <c r="C841" s="20"/>
@@ -27134,7 +27075,7 @@
       <c r="Y841" s="2"/>
       <c r="Z841" s="2"/>
     </row>
-    <row r="842" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="842" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A842" s="18"/>
       <c r="B842" s="19"/>
       <c r="C842" s="20"/>
@@ -27162,7 +27103,7 @@
       <c r="Y842" s="2"/>
       <c r="Z842" s="2"/>
     </row>
-    <row r="843" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="843" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A843" s="18"/>
       <c r="B843" s="19"/>
       <c r="C843" s="20"/>
@@ -27190,7 +27131,7 @@
       <c r="Y843" s="2"/>
       <c r="Z843" s="2"/>
     </row>
-    <row r="844" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="844" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A844" s="18"/>
       <c r="B844" s="19"/>
       <c r="C844" s="20"/>
@@ -27218,7 +27159,7 @@
       <c r="Y844" s="2"/>
       <c r="Z844" s="2"/>
     </row>
-    <row r="845" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="845" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A845" s="18"/>
       <c r="B845" s="19"/>
       <c r="C845" s="20"/>
@@ -27246,7 +27187,7 @@
       <c r="Y845" s="2"/>
       <c r="Z845" s="2"/>
     </row>
-    <row r="846" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="846" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A846" s="18"/>
       <c r="B846" s="19"/>
       <c r="C846" s="20"/>
@@ -27274,7 +27215,7 @@
       <c r="Y846" s="2"/>
       <c r="Z846" s="2"/>
     </row>
-    <row r="847" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="847" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A847" s="18"/>
       <c r="B847" s="19"/>
       <c r="C847" s="20"/>
@@ -27302,7 +27243,7 @@
       <c r="Y847" s="2"/>
       <c r="Z847" s="2"/>
     </row>
-    <row r="848" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="848" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A848" s="18"/>
       <c r="B848" s="19"/>
       <c r="C848" s="20"/>
@@ -27330,7 +27271,7 @@
       <c r="Y848" s="2"/>
       <c r="Z848" s="2"/>
     </row>
-    <row r="849" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="849" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A849" s="18"/>
       <c r="B849" s="19"/>
       <c r="C849" s="20"/>
@@ -27358,7 +27299,7 @@
       <c r="Y849" s="2"/>
       <c r="Z849" s="2"/>
     </row>
-    <row r="850" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="850" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A850" s="18"/>
       <c r="B850" s="19"/>
       <c r="C850" s="20"/>
@@ -27386,7 +27327,7 @@
       <c r="Y850" s="2"/>
       <c r="Z850" s="2"/>
     </row>
-    <row r="851" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="851" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A851" s="18"/>
       <c r="B851" s="19"/>
       <c r="C851" s="20"/>
@@ -27414,7 +27355,7 @@
       <c r="Y851" s="2"/>
       <c r="Z851" s="2"/>
     </row>
-    <row r="852" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="852" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A852" s="18"/>
       <c r="B852" s="19"/>
       <c r="C852" s="20"/>
@@ -27442,7 +27383,7 @@
       <c r="Y852" s="2"/>
       <c r="Z852" s="2"/>
     </row>
-    <row r="853" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="853" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A853" s="18"/>
       <c r="B853" s="19"/>
       <c r="C853" s="20"/>
@@ -27470,7 +27411,7 @@
       <c r="Y853" s="2"/>
       <c r="Z853" s="2"/>
     </row>
-    <row r="854" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="854" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A854" s="18"/>
       <c r="B854" s="19"/>
       <c r="C854" s="20"/>
@@ -27498,7 +27439,7 @@
       <c r="Y854" s="2"/>
       <c r="Z854" s="2"/>
     </row>
-    <row r="855" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="855" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A855" s="18"/>
       <c r="B855" s="19"/>
       <c r="C855" s="20"/>
@@ -27526,7 +27467,7 @@
       <c r="Y855" s="2"/>
       <c r="Z855" s="2"/>
     </row>
-    <row r="856" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="856" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A856" s="18"/>
       <c r="B856" s="19"/>
       <c r="C856" s="20"/>
@@ -27554,7 +27495,7 @@
       <c r="Y856" s="2"/>
       <c r="Z856" s="2"/>
     </row>
-    <row r="857" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="857" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A857" s="18"/>
       <c r="B857" s="19"/>
       <c r="C857" s="20"/>
@@ -27582,7 +27523,7 @@
       <c r="Y857" s="2"/>
       <c r="Z857" s="2"/>
     </row>
-    <row r="858" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="858" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A858" s="18"/>
       <c r="B858" s="19"/>
       <c r="C858" s="20"/>
@@ -27610,7 +27551,7 @@
       <c r="Y858" s="2"/>
       <c r="Z858" s="2"/>
     </row>
-    <row r="859" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="859" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A859" s="18"/>
       <c r="B859" s="19"/>
       <c r="C859" s="20"/>
@@ -27638,7 +27579,7 @@
       <c r="Y859" s="2"/>
       <c r="Z859" s="2"/>
     </row>
-    <row r="860" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="860" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A860" s="18"/>
       <c r="B860" s="19"/>
       <c r="C860" s="20"/>
@@ -27666,7 +27607,7 @@
       <c r="Y860" s="2"/>
       <c r="Z860" s="2"/>
     </row>
-    <row r="861" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="861" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A861" s="18"/>
       <c r="B861" s="19"/>
       <c r="C861" s="20"/>
@@ -27694,7 +27635,7 @@
       <c r="Y861" s="2"/>
       <c r="Z861" s="2"/>
     </row>
-    <row r="862" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="862" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A862" s="18"/>
       <c r="B862" s="19"/>
       <c r="C862" s="20"/>
@@ -27722,7 +27663,7 @@
       <c r="Y862" s="2"/>
       <c r="Z862" s="2"/>
     </row>
-    <row r="863" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="863" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A863" s="18"/>
       <c r="B863" s="19"/>
       <c r="C863" s="20"/>
@@ -27750,7 +27691,7 @@
       <c r="Y863" s="2"/>
       <c r="Z863" s="2"/>
     </row>
-    <row r="864" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="864" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A864" s="18"/>
       <c r="B864" s="19"/>
       <c r="C864" s="20"/>
@@ -27778,7 +27719,7 @@
       <c r="Y864" s="2"/>
       <c r="Z864" s="2"/>
     </row>
-    <row r="865" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="865" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A865" s="18"/>
       <c r="B865" s="19"/>
       <c r="C865" s="20"/>
@@ -27806,7 +27747,7 @@
       <c r="Y865" s="2"/>
       <c r="Z865" s="2"/>
     </row>
-    <row r="866" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="866" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A866" s="18"/>
       <c r="B866" s="19"/>
       <c r="C866" s="20"/>
@@ -27834,7 +27775,7 @@
       <c r="Y866" s="2"/>
       <c r="Z866" s="2"/>
     </row>
-    <row r="867" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="867" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A867" s="18"/>
       <c r="B867" s="19"/>
       <c r="C867" s="20"/>
@@ -27862,7 +27803,7 @@
       <c r="Y867" s="2"/>
       <c r="Z867" s="2"/>
     </row>
-    <row r="868" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="868" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A868" s="18"/>
       <c r="B868" s="19"/>
       <c r="C868" s="20"/>
@@ -27890,7 +27831,7 @@
       <c r="Y868" s="2"/>
       <c r="Z868" s="2"/>
     </row>
-    <row r="869" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="869" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A869" s="18"/>
       <c r="B869" s="19"/>
       <c r="C869" s="20"/>
@@ -27918,7 +27859,7 @@
       <c r="Y869" s="2"/>
       <c r="Z869" s="2"/>
     </row>
-    <row r="870" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="870" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A870" s="18"/>
       <c r="B870" s="19"/>
       <c r="C870" s="20"/>
@@ -27946,7 +27887,7 @@
       <c r="Y870" s="2"/>
       <c r="Z870" s="2"/>
     </row>
-    <row r="871" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="871" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A871" s="18"/>
       <c r="B871" s="19"/>
       <c r="C871" s="20"/>
@@ -27974,7 +27915,7 @@
       <c r="Y871" s="2"/>
       <c r="Z871" s="2"/>
     </row>
-    <row r="872" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="872" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A872" s="18"/>
       <c r="B872" s="19"/>
       <c r="C872" s="20"/>
@@ -28002,7 +27943,7 @@
       <c r="Y872" s="2"/>
       <c r="Z872" s="2"/>
     </row>
-    <row r="873" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="873" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A873" s="18"/>
       <c r="B873" s="19"/>
       <c r="C873" s="20"/>
@@ -28030,7 +27971,7 @@
       <c r="Y873" s="2"/>
       <c r="Z873" s="2"/>
     </row>
-    <row r="874" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="874" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A874" s="18"/>
       <c r="B874" s="19"/>
       <c r="C874" s="20"/>
@@ -28058,7 +27999,7 @@
       <c r="Y874" s="2"/>
       <c r="Z874" s="2"/>
     </row>
-    <row r="875" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="875" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A875" s="18"/>
       <c r="B875" s="19"/>
       <c r="C875" s="20"/>
@@ -28086,7 +28027,7 @@
       <c r="Y875" s="2"/>
       <c r="Z875" s="2"/>
     </row>
-    <row r="876" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="876" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A876" s="18"/>
       <c r="B876" s="19"/>
       <c r="C876" s="20"/>
@@ -28114,7 +28055,7 @@
       <c r="Y876" s="2"/>
       <c r="Z876" s="2"/>
     </row>
-    <row r="877" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="877" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A877" s="18"/>
       <c r="B877" s="19"/>
       <c r="C877" s="20"/>
@@ -28142,7 +28083,7 @@
       <c r="Y877" s="2"/>
       <c r="Z877" s="2"/>
     </row>
-    <row r="878" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="878" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A878" s="18"/>
       <c r="B878" s="19"/>
       <c r="C878" s="20"/>
@@ -28170,7 +28111,7 @@
       <c r="Y878" s="2"/>
       <c r="Z878" s="2"/>
     </row>
-    <row r="879" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="879" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A879" s="18"/>
       <c r="B879" s="19"/>
       <c r="C879" s="20"/>
@@ -28198,7 +28139,7 @@
       <c r="Y879" s="2"/>
       <c r="Z879" s="2"/>
     </row>
-    <row r="880" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="880" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A880" s="18"/>
       <c r="B880" s="19"/>
       <c r="C880" s="20"/>
@@ -28226,7 +28167,7 @@
       <c r="Y880" s="2"/>
       <c r="Z880" s="2"/>
     </row>
-    <row r="881" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="881" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A881" s="18"/>
       <c r="B881" s="19"/>
       <c r="C881" s="20"/>
@@ -28254,7 +28195,7 @@
       <c r="Y881" s="2"/>
       <c r="Z881" s="2"/>
     </row>
-    <row r="882" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="882" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A882" s="18"/>
       <c r="B882" s="19"/>
       <c r="C882" s="20"/>
@@ -28282,7 +28223,7 @@
       <c r="Y882" s="2"/>
       <c r="Z882" s="2"/>
     </row>
-    <row r="883" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="883" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A883" s="18"/>
       <c r="B883" s="19"/>
       <c r="C883" s="20"/>
@@ -28310,7 +28251,7 @@
       <c r="Y883" s="2"/>
       <c r="Z883" s="2"/>
     </row>
-    <row r="884" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="884" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A884" s="18"/>
       <c r="B884" s="19"/>
       <c r="C884" s="20"/>
@@ -28338,7 +28279,7 @@
       <c r="Y884" s="2"/>
       <c r="Z884" s="2"/>
     </row>
-    <row r="885" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="885" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A885" s="18"/>
       <c r="B885" s="19"/>
       <c r="C885" s="20"/>
@@ -28366,7 +28307,7 @@
       <c r="Y885" s="2"/>
       <c r="Z885" s="2"/>
     </row>
-    <row r="886" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="886" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A886" s="18"/>
       <c r="B886" s="19"/>
       <c r="C886" s="20"/>
@@ -28394,7 +28335,7 @@
       <c r="Y886" s="2"/>
       <c r="Z886" s="2"/>
     </row>
-    <row r="887" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="887" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A887" s="18"/>
       <c r="B887" s="19"/>
       <c r="C887" s="20"/>
@@ -28422,7 +28363,7 @@
       <c r="Y887" s="2"/>
       <c r="Z887" s="2"/>
     </row>
-    <row r="888" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="888" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A888" s="18"/>
       <c r="B888" s="19"/>
       <c r="C888" s="20"/>
@@ -28450,7 +28391,7 @@
       <c r="Y888" s="2"/>
       <c r="Z888" s="2"/>
     </row>
-    <row r="889" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="889" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A889" s="18"/>
       <c r="B889" s="19"/>
       <c r="C889" s="20"/>
@@ -28478,7 +28419,7 @@
       <c r="Y889" s="2"/>
       <c r="Z889" s="2"/>
     </row>
-    <row r="890" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="890" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A890" s="18"/>
       <c r="B890" s="19"/>
       <c r="C890" s="20"/>
@@ -28506,7 +28447,7 @@
       <c r="Y890" s="2"/>
       <c r="Z890" s="2"/>
     </row>
-    <row r="891" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="891" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A891" s="18"/>
       <c r="B891" s="19"/>
       <c r="C891" s="20"/>
@@ -28534,7 +28475,7 @@
       <c r="Y891" s="2"/>
       <c r="Z891" s="2"/>
     </row>
-    <row r="892" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="892" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A892" s="18"/>
       <c r="B892" s="19"/>
       <c r="C892" s="20"/>
@@ -28562,7 +28503,7 @@
       <c r="Y892" s="2"/>
       <c r="Z892" s="2"/>
     </row>
-    <row r="893" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="893" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A893" s="18"/>
       <c r="B893" s="19"/>
       <c r="C893" s="20"/>
@@ -28590,7 +28531,7 @@
       <c r="Y893" s="2"/>
       <c r="Z893" s="2"/>
     </row>
-    <row r="894" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="894" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A894" s="18"/>
       <c r="B894" s="19"/>
       <c r="C894" s="20"/>
@@ -28618,7 +28559,7 @@
       <c r="Y894" s="2"/>
       <c r="Z894" s="2"/>
     </row>
-    <row r="895" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="895" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A895" s="18"/>
       <c r="B895" s="19"/>
       <c r="C895" s="20"/>
@@ -28646,7 +28587,7 @@
       <c r="Y895" s="2"/>
       <c r="Z895" s="2"/>
     </row>
-    <row r="896" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="896" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A896" s="18"/>
       <c r="B896" s="19"/>
       <c r="C896" s="20"/>
@@ -28674,7 +28615,7 @@
       <c r="Y896" s="2"/>
       <c r="Z896" s="2"/>
     </row>
-    <row r="897" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="897" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A897" s="18"/>
       <c r="B897" s="19"/>
       <c r="C897" s="20"/>
@@ -28702,7 +28643,7 @@
       <c r="Y897" s="2"/>
       <c r="Z897" s="2"/>
     </row>
-    <row r="898" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="898" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A898" s="18"/>
       <c r="B898" s="19"/>
       <c r="C898" s="20"/>
@@ -28730,7 +28671,7 @@
       <c r="Y898" s="2"/>
       <c r="Z898" s="2"/>
     </row>
-    <row r="899" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="899" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A899" s="18"/>
       <c r="B899" s="19"/>
       <c r="C899" s="20"/>
@@ -28758,7 +28699,7 @@
       <c r="Y899" s="2"/>
       <c r="Z899" s="2"/>
     </row>
-    <row r="900" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="900" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A900" s="18"/>
       <c r="B900" s="19"/>
       <c r="C900" s="20"/>
@@ -28786,7 +28727,7 @@
       <c r="Y900" s="2"/>
       <c r="Z900" s="2"/>
     </row>
-    <row r="901" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="901" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A901" s="18"/>
       <c r="B901" s="19"/>
       <c r="C901" s="20"/>
@@ -28814,7 +28755,7 @@
       <c r="Y901" s="2"/>
       <c r="Z901" s="2"/>
     </row>
-    <row r="902" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="902" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A902" s="18"/>
       <c r="B902" s="19"/>
       <c r="C902" s="20"/>
@@ -28842,7 +28783,7 @@
       <c r="Y902" s="2"/>
       <c r="Z902" s="2"/>
     </row>
-    <row r="903" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="903" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A903" s="18"/>
       <c r="B903" s="19"/>
       <c r="C903" s="20"/>
@@ -28870,7 +28811,7 @@
       <c r="Y903" s="2"/>
       <c r="Z903" s="2"/>
     </row>
-    <row r="904" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="904" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A904" s="18"/>
       <c r="B904" s="19"/>
       <c r="C904" s="20"/>
@@ -28898,7 +28839,7 @@
       <c r="Y904" s="2"/>
       <c r="Z904" s="2"/>
     </row>
-    <row r="905" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="905" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A905" s="18"/>
       <c r="B905" s="19"/>
       <c r="C905" s="20"/>
@@ -28926,7 +28867,7 @@
       <c r="Y905" s="2"/>
       <c r="Z905" s="2"/>
     </row>
-    <row r="906" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="906" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A906" s="18"/>
       <c r="B906" s="19"/>
       <c r="C906" s="20"/>
@@ -28954,7 +28895,7 @@
       <c r="Y906" s="2"/>
       <c r="Z906" s="2"/>
     </row>
-    <row r="907" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="907" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A907" s="18"/>
       <c r="B907" s="19"/>
       <c r="C907" s="20"/>
@@ -28982,7 +28923,7 @@
       <c r="Y907" s="2"/>
       <c r="Z907" s="2"/>
     </row>
-    <row r="908" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="908" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A908" s="18"/>
       <c r="B908" s="19"/>
       <c r="C908" s="20"/>
@@ -29010,7 +28951,7 @@
       <c r="Y908" s="2"/>
       <c r="Z908" s="2"/>
     </row>
-    <row r="909" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="909" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A909" s="18"/>
       <c r="B909" s="19"/>
       <c r="C909" s="20"/>
@@ -29038,7 +28979,7 @@
       <c r="Y909" s="2"/>
       <c r="Z909" s="2"/>
     </row>
-    <row r="910" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="910" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A910" s="18"/>
       <c r="B910" s="19"/>
       <c r="C910" s="20"/>
@@ -29066,7 +29007,7 @@
       <c r="Y910" s="2"/>
       <c r="Z910" s="2"/>
     </row>
-    <row r="911" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="911" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A911" s="18"/>
       <c r="B911" s="19"/>
       <c r="C911" s="20"/>
@@ -29094,7 +29035,7 @@
       <c r="Y911" s="2"/>
       <c r="Z911" s="2"/>
     </row>
-    <row r="912" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="912" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A912" s="18"/>
       <c r="B912" s="19"/>
       <c r="C912" s="20"/>
@@ -29122,7 +29063,7 @@
       <c r="Y912" s="2"/>
       <c r="Z912" s="2"/>
     </row>
-    <row r="913" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="913" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A913" s="18"/>
       <c r="B913" s="19"/>
       <c r="C913" s="20"/>
@@ -29150,7 +29091,7 @@
       <c r="Y913" s="2"/>
       <c r="Z913" s="2"/>
     </row>
-    <row r="914" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="914" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A914" s="18"/>
       <c r="B914" s="19"/>
       <c r="C914" s="20"/>
@@ -29178,7 +29119,7 @@
       <c r="Y914" s="2"/>
       <c r="Z914" s="2"/>
     </row>
-    <row r="915" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="915" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A915" s="18"/>
       <c r="B915" s="19"/>
       <c r="C915" s="20"/>
@@ -29206,7 +29147,7 @@
       <c r="Y915" s="2"/>
       <c r="Z915" s="2"/>
     </row>
-    <row r="916" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="916" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A916" s="18"/>
       <c r="B916" s="19"/>
       <c r="C916" s="20"/>
@@ -29234,7 +29175,7 @@
       <c r="Y916" s="2"/>
       <c r="Z916" s="2"/>
     </row>
-    <row r="917" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="917" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A917" s="18"/>
       <c r="B917" s="19"/>
       <c r="C917" s="20"/>
@@ -29262,7 +29203,7 @@
       <c r="Y917" s="2"/>
       <c r="Z917" s="2"/>
     </row>
-    <row r="918" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="918" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A918" s="18"/>
       <c r="B918" s="19"/>
       <c r="C918" s="20"/>
@@ -29290,7 +29231,7 @@
       <c r="Y918" s="2"/>
       <c r="Z918" s="2"/>
     </row>
-    <row r="919" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="919" spans="1:26" ht="18" x14ac:dyDescent="0.5">
       <c r="A919" s="18"/>
       <c r="B919" s="19"/>
       <c r="C919" s="20"/>
@@ -29320,21 +29261,21 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{8FAAF3BC-28CF-4FA5-81A5-3BB51C97B758}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{078EB856-28A3-4E0F-870B-1503E5D4A2DC}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{E2A6FD64-E1A1-4BEC-86BF-2ED6F746E9C2}"/>
+      <autoFilter ref="A11:C37" xr:uid="{63A17BAB-7707-4029-B6C1-DF31AA8206CE}"/>
+    </customSheetView>
+    <customSheetView guid="{073456FE-6F93-41B7-9813-B05BDB677D3C}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A293:C332" xr:uid="{C10ABB9D-1C4F-46EE-B154-F68A7F8C10D9}"/>
     </customSheetView>
     <customSheetView guid="{0D4F5A3E-55C3-45B2-85B9-F04646450F16}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{AD240E9D-C3C3-4D6A-B5FC-BEBD453487CC}"/>
+      <autoFilter ref="A11:D37" xr:uid="{20AFAADF-AB4E-4351-8C8C-1E684E3FAA12}"/>
     </customSheetView>
-    <customSheetView guid="{073456FE-6F93-41B7-9813-B05BDB677D3C}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{8FAAF3BC-28CF-4FA5-81A5-3BB51C97B758}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A293:C332" xr:uid="{F8A38325-4313-4821-AC27-B2780E85DA2D}"/>
-    </customSheetView>
-    <customSheetView guid="{078EB856-28A3-4E0F-870B-1503E5D4A2DC}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:C37" xr:uid="{49FEAA11-8493-4BE3-975D-20747C8590A2}"/>
+      <autoFilter ref="A11:D37" xr:uid="{D807F40A-190F-4956-B7CD-D2CE0546F6AA}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="3">
@@ -29728,95 +29669,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49080F55-E303-45DB-A50A-F3F9C867C742}">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="19.6328125" customWidth="1"/>
-    <col min="3" max="3" width="19.36328125" customWidth="1"/>
-    <col min="4" max="4" width="21.7265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
-        <v>472</v>
-      </c>
-      <c r="B1" s="44" t="s">
-        <v>471</v>
-      </c>
-      <c r="C1" s="44" t="s">
-        <v>473</v>
-      </c>
-      <c r="D1" s="44" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
-        <v>474</v>
-      </c>
-      <c r="B2" s="44" t="s">
-        <v>477</v>
-      </c>
-      <c r="C2" s="44" t="s">
-        <v>478</v>
-      </c>
-      <c r="D2" s="44" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44" t="s">
-        <v>476</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>479</v>
-      </c>
-      <c r="D3" s="44" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
-        <v>475</v>
-      </c>
-      <c r="B4" s="44" t="s">
-        <v>482</v>
-      </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
-      <c r="B5" s="44" t="s">
-        <v>483</v>
-      </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44" t="s">
-        <v>481</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -29828,35 +29687,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
@@ -29865,7 +29724,7 @@
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="7" t="s">
         <v>4</v>
       </c>
@@ -29874,7 +29733,7 @@
       </c>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
@@ -29883,7 +29742,7 @@
       </c>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -29899,7 +29758,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" s="8" t="s">
         <v>50</v>
       </c>
@@ -29966,7 +29825,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" ht="18" x14ac:dyDescent="0.5">
       <c r="A24" s="7" t="s">
         <v>123</v>
       </c>
@@ -29974,7 +29833,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" ht="18" x14ac:dyDescent="0.5">
       <c r="A25" s="8" t="s">
         <v>123</v>
       </c>
@@ -29982,15 +29841,15 @@
         <v>437</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" ht="18" x14ac:dyDescent="0.5">
       <c r="A26" s="38"/>
       <c r="B26" s="21"/>
     </row>
-    <row r="27" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" ht="18" x14ac:dyDescent="0.5">
       <c r="A27" s="38"/>
       <c r="B27" s="21"/>
     </row>
-    <row r="28" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" ht="18" x14ac:dyDescent="0.5">
       <c r="A28" s="7" t="s">
         <v>145</v>
       </c>
@@ -29998,7 +29857,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" ht="18" x14ac:dyDescent="0.5">
       <c r="A29" s="7" t="s">
         <v>145</v>
       </c>
@@ -30006,7 +29865,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" ht="18" x14ac:dyDescent="0.5">
       <c r="A30" s="8" t="s">
         <v>145</v>
       </c>
@@ -30014,7 +29873,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" ht="18" x14ac:dyDescent="0.5">
       <c r="A31" s="8" t="s">
         <v>145</v>
       </c>
@@ -30022,7 +29881,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" ht="18" x14ac:dyDescent="0.5">
       <c r="A32" s="8" t="s">
         <v>145</v>
       </c>
@@ -30030,15 +29889,15 @@
         <v>442</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" ht="18" x14ac:dyDescent="0.5">
       <c r="A33" s="38"/>
       <c r="B33" s="21"/>
     </row>
-    <row r="34" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" ht="18" x14ac:dyDescent="0.5">
       <c r="A34" s="38"/>
       <c r="B34" s="21"/>
     </row>
-    <row r="35" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" ht="18" x14ac:dyDescent="0.5">
       <c r="A35" s="7" t="s">
         <v>173</v>
       </c>
@@ -30046,7 +29905,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" ht="18" x14ac:dyDescent="0.5">
       <c r="A36" s="8" t="s">
         <v>173</v>
       </c>
@@ -30054,7 +29913,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" ht="18" x14ac:dyDescent="0.5">
       <c r="A37" s="8" t="s">
         <v>173</v>
       </c>
@@ -30062,7 +29921,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" ht="18" x14ac:dyDescent="0.5">
       <c r="A38" s="8" t="s">
         <v>173</v>
       </c>
@@ -30070,7 +29929,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" ht="18" x14ac:dyDescent="0.5">
       <c r="A41" s="5" t="s">
         <v>201</v>
       </c>
@@ -30078,7 +29937,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" ht="18" x14ac:dyDescent="0.5">
       <c r="A42" s="5" t="s">
         <v>201</v>
       </c>
@@ -30086,11 +29945,11 @@
         <v>448</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" ht="18" x14ac:dyDescent="0.5">
       <c r="A44" s="38"/>
       <c r="B44" s="21"/>
     </row>
-    <row r="45" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" ht="18" x14ac:dyDescent="0.5">
       <c r="A45" s="7" t="s">
         <v>224</v>
       </c>
@@ -30098,7 +29957,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" ht="18" x14ac:dyDescent="0.5">
       <c r="A46" s="8" t="s">
         <v>224</v>
       </c>
@@ -30106,15 +29965,15 @@
         <v>450</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" ht="18" x14ac:dyDescent="0.5">
       <c r="A47" s="38"/>
       <c r="B47" s="21"/>
     </row>
-    <row r="48" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" ht="18" x14ac:dyDescent="0.5">
       <c r="A48" s="38"/>
       <c r="B48" s="21"/>
     </row>
-    <row r="49" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" ht="18" x14ac:dyDescent="0.5">
       <c r="A49" s="5" t="s">
         <v>258</v>
       </c>
@@ -30122,15 +29981,15 @@
         <v>451</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" ht="18" x14ac:dyDescent="0.5">
       <c r="A50" s="38"/>
       <c r="B50" s="21"/>
     </row>
-    <row r="51" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" ht="18" x14ac:dyDescent="0.5">
       <c r="A51" s="38"/>
       <c r="B51" s="21"/>
     </row>
-    <row r="52" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" ht="18" x14ac:dyDescent="0.5">
       <c r="A52" s="7" t="s">
         <v>280</v>
       </c>
@@ -30138,7 +29997,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" ht="18" x14ac:dyDescent="0.5">
       <c r="A53" s="7" t="s">
         <v>280</v>
       </c>
@@ -30146,7 +30005,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" ht="18" x14ac:dyDescent="0.5">
       <c r="A54" s="8" t="s">
         <v>280</v>
       </c>
@@ -30154,7 +30013,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" ht="18" x14ac:dyDescent="0.5">
       <c r="A55" s="8" t="s">
         <v>280</v>
       </c>
@@ -30162,7 +30021,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" ht="18" x14ac:dyDescent="0.5">
       <c r="A56" s="8" t="s">
         <v>280</v>
       </c>
@@ -30170,15 +30029,15 @@
         <v>456</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" ht="18" x14ac:dyDescent="0.5">
       <c r="A57" s="38"/>
       <c r="B57" s="21"/>
     </row>
-    <row r="58" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" ht="18" x14ac:dyDescent="0.5">
       <c r="A58" s="38"/>
       <c r="B58" s="21"/>
     </row>
-    <row r="59" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" ht="18" x14ac:dyDescent="0.5">
       <c r="A59" s="8" t="s">
         <v>309</v>
       </c>
@@ -30186,7 +30045,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" ht="18" x14ac:dyDescent="0.5">
       <c r="A60" s="8" t="s">
         <v>309</v>
       </c>
@@ -30194,7 +30053,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" ht="18" x14ac:dyDescent="0.5">
       <c r="A61" s="8" t="s">
         <v>309</v>
       </c>
@@ -30202,15 +30061,15 @@
         <v>221</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" ht="18" x14ac:dyDescent="0.5">
       <c r="A62" s="38"/>
       <c r="B62" s="37"/>
     </row>
-    <row r="63" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" ht="18" x14ac:dyDescent="0.5">
       <c r="A63" s="38"/>
       <c r="B63" s="37"/>
     </row>
-    <row r="64" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" ht="18" x14ac:dyDescent="0.5">
       <c r="A64" s="7" t="s">
         <v>356</v>
       </c>
@@ -30218,7 +30077,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" ht="18" x14ac:dyDescent="0.5">
       <c r="A65" s="7" t="s">
         <v>356</v>
       </c>
@@ -30226,7 +30085,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" ht="18" x14ac:dyDescent="0.5">
       <c r="A66" s="7" t="s">
         <v>356</v>
       </c>
@@ -30234,7 +30093,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" ht="18" x14ac:dyDescent="0.5">
       <c r="A67" s="7" t="s">
         <v>356</v>
       </c>
@@ -30242,7 +30101,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" ht="18" x14ac:dyDescent="0.5">
       <c r="A68" s="7" t="s">
         <v>356</v>
       </c>
@@ -30250,7 +30109,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" ht="18" x14ac:dyDescent="0.5">
       <c r="A69" s="8" t="s">
         <v>356</v>
       </c>
@@ -30258,7 +30117,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" ht="18" x14ac:dyDescent="0.5">
       <c r="A70" s="8" t="s">
         <v>356</v>
       </c>
@@ -30266,7 +30125,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" ht="18" x14ac:dyDescent="0.5">
       <c r="A71" s="8" t="s">
         <v>356</v>
       </c>
@@ -30326,7 +30185,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B5267C1-CD55-4031-B414-5AEB8092CE61}">
   <dimension ref="A1"/>
   <sheetViews>
